--- a/download.xlsx
+++ b/download.xlsx
@@ -1004,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,13 +1046,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>220.3</v>
+        <v>429.43</v>
       </c>
       <c r="C3">
-        <v>177.65</v>
+        <v>323.7</v>
       </c>
       <c r="D3">
-        <v>239.54</v>
+        <v>417.86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1060,13 +1060,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1225.0899999999999</v>
+        <v>1618.43</v>
       </c>
       <c r="C4">
-        <v>989.69</v>
+        <v>1330.9</v>
       </c>
       <c r="D4">
-        <v>1159.57</v>
+        <v>1647.09</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1074,13 +1074,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>2685.27</v>
+        <v>2610.04</v>
       </c>
       <c r="C5">
-        <v>2145.61</v>
+        <v>2388.54</v>
       </c>
       <c r="D5">
-        <v>2460.87</v>
+        <v>2791.05</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1088,13 +1088,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>5448.44</v>
+        <v>3608.82</v>
       </c>
       <c r="C6">
-        <v>3786.9</v>
+        <v>3515.75</v>
       </c>
       <c r="D6">
-        <v>4338.01</v>
+        <v>3922.53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1102,13 +1102,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>9381.6</v>
+        <v>4953.01</v>
       </c>
       <c r="C7">
-        <v>7123.41</v>
+        <v>4809.3100000000004</v>
       </c>
       <c r="D7">
-        <v>8218.9599999999991</v>
+        <v>5312.23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1116,13 +1116,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>16967.18</v>
+        <v>7613.29</v>
       </c>
       <c r="C8">
-        <v>13622.89</v>
+        <v>7290.92</v>
       </c>
       <c r="D8">
-        <v>15426.93</v>
+        <v>8139.37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,13 +1130,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>24234.31</v>
+        <v>9793.0499999999993</v>
       </c>
       <c r="C9">
-        <v>14446.51</v>
+        <v>9480.26</v>
       </c>
       <c r="D9">
-        <v>17637.96</v>
+        <v>10575.96</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1144,13 +1144,13 @@
         <v>56</v>
       </c>
       <c r="B10">
-        <v>30992.76</v>
+        <v>11034.1</v>
       </c>
       <c r="C10">
-        <v>18129.22</v>
+        <v>10698.01</v>
       </c>
       <c r="D10">
-        <v>22477.47</v>
+        <v>12002.23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,13 +1158,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>52944.61</v>
+        <v>11146.57</v>
       </c>
       <c r="C11">
-        <v>32188.99</v>
+        <v>10822.38</v>
       </c>
       <c r="D11">
-        <v>38299.760000000002</v>
+        <v>12110.36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1172,13 +1172,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>54177.22</v>
+        <v>12501.14</v>
       </c>
       <c r="C12">
-        <v>34504.65</v>
+        <v>12407.06</v>
       </c>
       <c r="D12">
-        <v>41708.46</v>
+        <v>13648.7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1186,13 +1186,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>43848.57</v>
+        <v>13492.12</v>
       </c>
       <c r="C13">
-        <v>35038.620000000003</v>
+        <v>13379.97</v>
       </c>
       <c r="D13">
-        <v>42344.26</v>
+        <v>14663.84</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1200,13 +1200,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>58624.32</v>
+        <v>16329.15</v>
       </c>
       <c r="C14">
-        <v>42726.53</v>
+        <v>15754.46</v>
       </c>
       <c r="D14">
-        <v>46286.81</v>
+        <v>17420.689999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1214,13 +1214,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>72590.240000000005</v>
+        <v>23022.06</v>
       </c>
       <c r="C15">
-        <v>54557.09</v>
+        <v>22107.82</v>
       </c>
       <c r="D15">
-        <v>62306.87</v>
+        <v>24626.06</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1228,13 +1228,13 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>75226.62</v>
+        <v>34406.339999999997</v>
       </c>
       <c r="C16">
-        <v>59659.839999999997</v>
+        <v>32876.79</v>
       </c>
       <c r="D16">
-        <v>68493.19</v>
+        <v>36491.42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1242,13 +1242,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>51816.82</v>
+        <v>44406.62</v>
       </c>
       <c r="C17">
-        <v>42985.45</v>
+        <v>40813.83</v>
       </c>
       <c r="D17">
-        <v>47809.74</v>
+        <v>45301.43</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1256,13 +1256,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>75158.490000000005</v>
+        <v>47565.53</v>
       </c>
       <c r="C18">
-        <v>62707.18</v>
+        <v>44685.42</v>
       </c>
       <c r="D18">
-        <v>72017.88</v>
+        <v>50689.36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1270,13 +1270,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>48208.97</v>
+        <v>49396.800000000003</v>
       </c>
       <c r="C19">
-        <v>42903.39</v>
+        <v>46452.11</v>
       </c>
       <c r="D19">
-        <v>48673.1</v>
+        <v>52364.95</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1284,13 +1284,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>56646.83</v>
+        <v>58139.12</v>
       </c>
       <c r="C20">
-        <v>51586.87</v>
+        <v>53872.2</v>
       </c>
       <c r="D20">
-        <v>64373.06</v>
+        <v>61083.28</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1298,13 +1298,13 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>97736.34</v>
+        <v>60122.47</v>
       </c>
       <c r="C21">
-        <v>90654</v>
+        <v>56936.94</v>
       </c>
       <c r="D21">
-        <v>80949.08</v>
+        <v>63993.82</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1312,13 +1312,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>97454.23</v>
+        <v>52362.03</v>
       </c>
       <c r="C22">
-        <v>94713.26</v>
+        <v>50465.94</v>
       </c>
       <c r="D22">
-        <v>99728.86</v>
+        <v>57164.639999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1326,13 +1326,13 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>71567.13</v>
+        <v>54219.98</v>
       </c>
       <c r="C23">
-        <v>62518.65</v>
+        <v>52565.53</v>
       </c>
       <c r="D23">
-        <v>79449.990000000005</v>
+        <v>57907.08</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1340,13 +1340,13 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>95814.53</v>
+        <v>59636.02</v>
       </c>
       <c r="C24">
-        <v>95516.61</v>
+        <v>58366.080000000002</v>
       </c>
       <c r="D24">
-        <v>99923.17</v>
+        <v>65421.1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1354,13 +1354,13 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>98258.62</v>
+        <v>35376.800000000003</v>
       </c>
       <c r="C25">
-        <v>96866.89</v>
+        <v>34934.160000000003</v>
       </c>
       <c r="D25">
-        <v>99994.55</v>
+        <v>40037.160000000003</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1368,13 +1368,13 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>68624.31</v>
+        <v>29878.76</v>
       </c>
       <c r="C26">
-        <v>65897.929999999993</v>
+        <v>30181.74</v>
       </c>
       <c r="D26">
-        <v>69663.070000000007</v>
+        <v>33261.56</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1382,13 +1382,13 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>53823.76</v>
+        <v>38577.78</v>
       </c>
       <c r="C27">
-        <v>53608.86</v>
+        <v>38655.550000000003</v>
       </c>
       <c r="D27">
-        <v>57048.61</v>
+        <v>42489.48</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1396,13 +1396,13 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>94623.97</v>
+        <v>41954.75</v>
       </c>
       <c r="C28">
-        <v>94220.41</v>
+        <v>42678.16</v>
       </c>
       <c r="D28">
-        <v>99455.95</v>
+        <v>46762.7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1410,13 +1410,13 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>71622.33</v>
+        <v>38761.86</v>
       </c>
       <c r="C29">
-        <v>72518.080000000002</v>
+        <v>38439.99</v>
       </c>
       <c r="D29">
-        <v>82306.44</v>
+        <v>43274.38</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1424,13 +1424,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>38545.65</v>
+        <v>29891.86</v>
       </c>
       <c r="C30">
-        <v>38206.910000000003</v>
+        <v>30330.39</v>
       </c>
       <c r="D30">
-        <v>42671.46</v>
+        <v>33719.199999999997</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1438,13 +1438,13 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>36103.94</v>
+        <v>54310.1</v>
       </c>
       <c r="C31">
-        <v>38142.36</v>
+        <v>57815.77</v>
       </c>
       <c r="D31">
-        <v>40656.769999999997</v>
+        <v>63315.86</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1452,13 +1452,13 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>44062.47</v>
+        <v>34424.300000000003</v>
       </c>
       <c r="C32">
-        <v>46706.68</v>
+        <v>38169.11</v>
       </c>
       <c r="D32">
-        <v>49205.91</v>
+        <v>41358.379999999997</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1466,13 +1466,13 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>53567.11</v>
+        <v>37787.589999999997</v>
       </c>
       <c r="C33">
-        <v>56432.1</v>
+        <v>42655.61</v>
       </c>
       <c r="D33">
-        <v>47496.13</v>
+        <v>45651.22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1480,13 +1480,13 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>24276.6</v>
+        <v>47777.35</v>
       </c>
       <c r="C34">
-        <v>24813.02</v>
+        <v>51483.5</v>
       </c>
       <c r="D34">
-        <v>27067.71</v>
+        <v>64377.66</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1494,13 +1494,13 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>25162.880000000001</v>
+        <v>31476.49</v>
       </c>
       <c r="C35">
-        <v>25192.81</v>
+        <v>33188.43</v>
       </c>
       <c r="D35">
-        <v>27655.360000000001</v>
+        <v>36039.74</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1508,13 +1508,13 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>41059.480000000003</v>
+        <v>41046.19</v>
       </c>
       <c r="C36">
-        <v>47238.66</v>
+        <v>43982.37</v>
       </c>
       <c r="D36">
-        <v>49490.09</v>
+        <v>47795.18</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1522,13 +1522,13 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>56807.71</v>
+        <v>45171.96</v>
       </c>
       <c r="C37">
-        <v>68097.02</v>
+        <v>49396.75</v>
       </c>
       <c r="D37">
-        <v>71581.509999999995</v>
+        <v>54294.91</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1536,13 +1536,13 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>44344.94</v>
+        <v>76839.240000000005</v>
       </c>
       <c r="C38">
-        <v>52760.03</v>
+        <v>94140.41</v>
       </c>
       <c r="D38">
-        <v>55179.01</v>
+        <v>98394.69</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1550,13 +1550,13 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>46871.92</v>
+        <v>61758.93</v>
       </c>
       <c r="C39">
-        <v>60924.26</v>
+        <v>79725.97</v>
       </c>
       <c r="D39">
-        <v>61995.54</v>
+        <v>83331.03</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1564,13 +1564,13 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>29762.26</v>
+        <v>29127.52</v>
       </c>
       <c r="C40">
-        <v>37858.86</v>
+        <v>37620.589999999997</v>
       </c>
       <c r="D40">
-        <v>41461.81</v>
+        <v>38268.949999999997</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,13 +1578,13 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>52581.75</v>
+        <v>42195.58</v>
       </c>
       <c r="C41">
-        <v>73048.63</v>
+        <v>57862.16</v>
       </c>
       <c r="D41">
-        <v>75155.460000000006</v>
+        <v>58605.63</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1592,13 +1592,13 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>27038.04</v>
+        <v>24175.84</v>
       </c>
       <c r="C42">
-        <v>38738.86</v>
+        <v>28647.13</v>
       </c>
       <c r="D42">
-        <v>38429</v>
+        <v>30182.81</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1606,13 +1606,13 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>19096</v>
+        <v>20529.68</v>
       </c>
       <c r="C43">
-        <v>27243.94</v>
+        <v>22794.46</v>
       </c>
       <c r="D43">
-        <v>27558.67</v>
+        <v>24596.41</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,13 +1620,13 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>15428.26</v>
+        <v>18308.97</v>
       </c>
       <c r="C44">
-        <v>17621.11</v>
+        <v>20580.32</v>
       </c>
       <c r="D44">
-        <v>18870.07</v>
+        <v>22181.59</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,13 +1634,13 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>15025.24</v>
+        <v>14579.88</v>
       </c>
       <c r="C45">
-        <v>16986.47</v>
+        <v>17000.77</v>
       </c>
       <c r="D45">
-        <v>17541.59</v>
+        <v>18285.75</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1648,13 +1648,13 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>16523.45</v>
+        <v>11590.7</v>
       </c>
       <c r="C46">
-        <v>26935.9</v>
+        <v>14437.88</v>
       </c>
       <c r="D46">
-        <v>25759.67</v>
+        <v>15343.22</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1662,13 +1662,13 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>9709.7999999999993</v>
+        <v>12166.35</v>
       </c>
       <c r="C47">
-        <v>21772.95</v>
+        <v>22934.07</v>
       </c>
       <c r="D47">
-        <v>20878</v>
+        <v>21506.14</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1676,13 +1676,13 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>2543.33</v>
+        <v>9578.2800000000007</v>
       </c>
       <c r="C48">
-        <v>2711.78</v>
+        <v>24505.64</v>
       </c>
       <c r="D48">
-        <v>2873.4</v>
+        <v>21477.02</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,13 +1690,13 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>3181.33</v>
+        <v>5038.4399999999996</v>
       </c>
       <c r="C49">
-        <v>6049.99</v>
+        <v>9081.76</v>
       </c>
       <c r="D49">
-        <v>5209.8100000000004</v>
+        <v>8822.49</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1704,13 +1704,13 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>3814.55</v>
+        <v>2561.16</v>
       </c>
       <c r="C50">
-        <v>6591.76</v>
+        <v>3173.33</v>
       </c>
       <c r="D50">
-        <v>6190.27</v>
+        <v>3400.29</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,13 +1718,13 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>1052.17</v>
+        <v>1152.18</v>
       </c>
       <c r="C51">
-        <v>1361.86</v>
+        <v>1323.34</v>
       </c>
       <c r="D51">
-        <v>1391.8</v>
+        <v>1474.89</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,13 +1732,13 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>183.88</v>
+        <v>96.32</v>
       </c>
       <c r="C52">
-        <v>298.39999999999998</v>
+        <v>147.76</v>
       </c>
       <c r="D52">
-        <v>314.64999999999998</v>
+        <v>197.43</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1778,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,13 +1820,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>801.7</v>
+        <v>828.38</v>
       </c>
       <c r="C3">
-        <v>498.41</v>
+        <v>507.78</v>
       </c>
       <c r="D3">
-        <v>577.66999999999996</v>
+        <v>614.55999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1834,13 +1834,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3487.94</v>
+        <v>4410.1099999999997</v>
       </c>
       <c r="C4">
-        <v>1961.75</v>
+        <v>1680.2</v>
       </c>
       <c r="D4">
-        <v>2229.62</v>
+        <v>1919.03</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1848,13 +1848,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>7245.43</v>
+        <v>10594.81</v>
       </c>
       <c r="C5">
-        <v>3736.99</v>
+        <v>2722.94</v>
       </c>
       <c r="D5">
-        <v>4292.1899999999996</v>
+        <v>3303.11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1862,13 +1862,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>8814.9</v>
+        <v>17821.71</v>
       </c>
       <c r="C6">
-        <v>5754.89</v>
+        <v>3886.56</v>
       </c>
       <c r="D6">
-        <v>6691.38</v>
+        <v>5902.97</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1876,13 +1876,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>15193.93</v>
+        <v>25752.63</v>
       </c>
       <c r="C7">
-        <v>9119.9500000000007</v>
+        <v>6230.27</v>
       </c>
       <c r="D7">
-        <v>10732.13</v>
+        <v>9990.92</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1890,13 +1890,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>22518.53</v>
+        <v>32737.47</v>
       </c>
       <c r="C8">
-        <v>13453.65</v>
+        <v>10747.18</v>
       </c>
       <c r="D8">
-        <v>16569.27</v>
+        <v>15539.44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1904,13 +1904,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>28128</v>
+        <v>39130.230000000003</v>
       </c>
       <c r="C9">
-        <v>15849.14</v>
+        <v>16387.759999999998</v>
       </c>
       <c r="D9">
-        <v>18809.7</v>
+        <v>21824.77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1918,13 +1918,13 @@
         <v>56</v>
       </c>
       <c r="B10">
-        <v>31150.67</v>
+        <v>45666.81</v>
       </c>
       <c r="C10">
-        <v>20208.13</v>
+        <v>22541.68</v>
       </c>
       <c r="D10">
-        <v>24055.15</v>
+        <v>28705.119999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1932,13 +1932,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>37978.61</v>
+        <v>51744.36</v>
       </c>
       <c r="C11">
-        <v>23191.64</v>
+        <v>28905.52</v>
       </c>
       <c r="D11">
-        <v>26912.03</v>
+        <v>35642.25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1946,13 +1946,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>34844.82</v>
+        <v>57542.559999999998</v>
       </c>
       <c r="C12">
-        <v>21470.78</v>
+        <v>35029.79</v>
       </c>
       <c r="D12">
-        <v>24672.42</v>
+        <v>42925.86</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1960,13 +1960,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>53129.279999999999</v>
+        <v>63258.04</v>
       </c>
       <c r="C13">
-        <v>38117.620000000003</v>
+        <v>41570.559999999998</v>
       </c>
       <c r="D13">
-        <v>42737.79</v>
+        <v>50020.959999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1974,13 +1974,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>61282.9</v>
+        <v>67414.37</v>
       </c>
       <c r="C14">
-        <v>46022.080000000002</v>
+        <v>47073.34</v>
       </c>
       <c r="D14">
-        <v>51305.53</v>
+        <v>56459.45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1988,13 +1988,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>41073.11</v>
+        <v>71595.5</v>
       </c>
       <c r="C15">
-        <v>35781.29</v>
+        <v>52595.96</v>
       </c>
       <c r="D15">
-        <v>40232.949999999997</v>
+        <v>62639.37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2002,13 +2002,13 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>54035.21</v>
+        <v>75024.179999999993</v>
       </c>
       <c r="C16">
-        <v>46061.51</v>
+        <v>57409.22</v>
       </c>
       <c r="D16">
-        <v>51109.73</v>
+        <v>67960.66</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2016,13 +2016,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>45640.91</v>
+        <v>78578.12</v>
       </c>
       <c r="C17">
-        <v>41188.089999999997</v>
+        <v>62309.65</v>
       </c>
       <c r="D17">
-        <v>46104.81</v>
+        <v>73269.62</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2030,13 +2030,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>62268.54</v>
+        <v>82357.149999999994</v>
       </c>
       <c r="C18">
-        <v>52302.83</v>
+        <v>67124.52</v>
       </c>
       <c r="D18">
-        <v>60907.88</v>
+        <v>78633.59</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2044,13 +2044,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>73800.27</v>
+        <v>85346.09</v>
       </c>
       <c r="C19">
-        <v>62206.82</v>
+        <v>72248.5</v>
       </c>
       <c r="D19">
-        <v>75127.16</v>
+        <v>84478.27</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2058,13 +2058,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>52846.2</v>
+        <v>88905.83</v>
       </c>
       <c r="C20">
-        <v>47736.52</v>
+        <v>77796.42</v>
       </c>
       <c r="D20">
-        <v>53281.87</v>
+        <v>90211.199999999997</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2072,13 +2072,13 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>52470.68</v>
+        <v>93223.679999999993</v>
       </c>
       <c r="C21">
-        <v>46318.22</v>
+        <v>84082.59</v>
       </c>
       <c r="D21">
-        <v>46172.85</v>
+        <v>97136.45</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2086,13 +2086,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>71243.679999999993</v>
+        <v>94592.93</v>
       </c>
       <c r="C22">
-        <v>67758.36</v>
+        <v>87232.83</v>
       </c>
       <c r="D22">
-        <v>77476.929999999993</v>
+        <v>99378.76</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2100,13 +2100,13 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>54661.09</v>
+        <v>95550.92</v>
       </c>
       <c r="C23">
-        <v>50424.44</v>
+        <v>86139.9</v>
       </c>
       <c r="D23">
-        <v>45809.79</v>
+        <v>90972.19</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2114,13 +2114,13 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>41446.42</v>
+        <v>96447.55</v>
       </c>
       <c r="C24">
-        <v>55962.8</v>
+        <v>90489.48</v>
       </c>
       <c r="D24">
-        <v>53600.21</v>
+        <v>99998.3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2128,13 +2128,13 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>58206.44</v>
+        <v>85209.9</v>
       </c>
       <c r="C25">
-        <v>57978.080000000002</v>
+        <v>89269.16</v>
       </c>
       <c r="D25">
-        <v>63812.41</v>
+        <v>86792.08</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2142,13 +2142,13 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>51961.919999999998</v>
+        <v>50000.84</v>
       </c>
       <c r="C26">
-        <v>54700.87</v>
+        <v>49684.01</v>
       </c>
       <c r="D26">
-        <v>47618.239999999998</v>
+        <v>51551.96</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2156,13 +2156,13 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>56684.5</v>
+        <v>52056.82</v>
       </c>
       <c r="C27">
-        <v>56076.33</v>
+        <v>58362.69</v>
       </c>
       <c r="D27">
-        <v>49781.99</v>
+        <v>55061.68</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2170,13 +2170,13 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>62670.26</v>
+        <v>74308.56</v>
       </c>
       <c r="C28">
-        <v>62513.7</v>
+        <v>74712.479999999996</v>
       </c>
       <c r="D28">
-        <v>62900.04</v>
+        <v>75808.11</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2184,13 +2184,13 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>80259.61</v>
+        <v>93514.09</v>
       </c>
       <c r="C29">
-        <v>77301.710000000006</v>
+        <v>98890.22</v>
       </c>
       <c r="D29">
-        <v>69430.05</v>
+        <v>100001.48</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2198,13 +2198,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>74688.179999999993</v>
+        <v>50717.27</v>
       </c>
       <c r="C30">
-        <v>64067.79</v>
+        <v>71438.69</v>
       </c>
       <c r="D30">
-        <v>83009.179999999993</v>
+        <v>51977.88</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2212,13 +2212,13 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>91692.37</v>
+        <v>32926.129999999997</v>
       </c>
       <c r="C31">
-        <v>97648.24</v>
+        <v>47085.06</v>
       </c>
       <c r="D31">
-        <v>89761.08</v>
+        <v>40707.57</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2226,13 +2226,13 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>60709.760000000002</v>
+        <v>69975.679999999993</v>
       </c>
       <c r="C32">
-        <v>58357.24</v>
+        <v>73734.89</v>
       </c>
       <c r="D32">
-        <v>54559.23</v>
+        <v>76305.25</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2240,13 +2240,13 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>65494.73</v>
+        <v>34193.49</v>
       </c>
       <c r="C33">
-        <v>69468.479999999996</v>
+        <v>49408.54</v>
       </c>
       <c r="D33">
-        <v>67867.75</v>
+        <v>42345.59</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2254,13 +2254,13 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>39750.03</v>
+        <v>63828.45</v>
       </c>
       <c r="C34">
-        <v>43760.99</v>
+        <v>72113.320000000007</v>
       </c>
       <c r="D34">
-        <v>46228.72</v>
+        <v>74258.92</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2268,13 +2268,13 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>84065.74</v>
+        <v>17572.93</v>
       </c>
       <c r="C35">
-        <v>91659.12</v>
+        <v>19175.75</v>
       </c>
       <c r="D35">
-        <v>78702.75</v>
+        <v>21204.18</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2282,13 +2282,13 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>36262.269999999997</v>
+        <v>38142.050000000003</v>
       </c>
       <c r="C36">
-        <v>34814.65</v>
+        <v>44763.4</v>
       </c>
       <c r="D36">
-        <v>36597.56</v>
+        <v>49151.91</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2296,13 +2296,13 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>62961.9</v>
+        <v>71276.78</v>
       </c>
       <c r="C37">
-        <v>77015.73</v>
+        <v>84822.84</v>
       </c>
       <c r="D37">
-        <v>90367.09</v>
+        <v>96760.88</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2310,13 +2310,13 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>61747.15</v>
+        <v>51013.82</v>
       </c>
       <c r="C38">
-        <v>77122.23</v>
+        <v>63736.58</v>
       </c>
       <c r="D38">
-        <v>79710.240000000005</v>
+        <v>67442.679999999993</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2324,13 +2324,13 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>37416.769999999997</v>
+        <v>21161.69</v>
       </c>
       <c r="C39">
-        <v>42486.48</v>
+        <v>22797.83</v>
       </c>
       <c r="D39">
-        <v>45014.51</v>
+        <v>30582.06</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2338,13 +2338,13 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>34022.559999999998</v>
+        <v>25290.959999999999</v>
       </c>
       <c r="C40">
-        <v>38775.629999999997</v>
+        <v>34202.28</v>
       </c>
       <c r="D40">
-        <v>41329.69</v>
+        <v>34729.35</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2352,13 +2352,13 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>31484.01</v>
+        <v>23488.81</v>
       </c>
       <c r="C41">
-        <v>35723.910000000003</v>
+        <v>33506.43</v>
       </c>
       <c r="D41">
-        <v>37679.17</v>
+        <v>33107.81</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2366,13 +2366,13 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>29322.799999999999</v>
+        <v>10858.48</v>
       </c>
       <c r="C42">
-        <v>33872.54</v>
+        <v>12680.6</v>
       </c>
       <c r="D42">
-        <v>35408.379999999997</v>
+        <v>12858.2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2380,13 +2380,13 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>25220.13</v>
+        <v>11251.49</v>
       </c>
       <c r="C43">
-        <v>27934.82</v>
+        <v>12689.71</v>
       </c>
       <c r="D43">
-        <v>29611.1</v>
+        <v>12999.86</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2394,13 +2394,13 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>26571.98</v>
+        <v>8384.74</v>
       </c>
       <c r="C44">
-        <v>34600.75</v>
+        <v>10200.040000000001</v>
       </c>
       <c r="D44">
-        <v>33197.75</v>
+        <v>9988.2800000000007</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2408,13 +2408,13 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>20840.48</v>
+        <v>17100.91</v>
       </c>
       <c r="C45">
-        <v>25487.24</v>
+        <v>28509.3</v>
       </c>
       <c r="D45">
-        <v>25962.89</v>
+        <v>23518.44</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2422,13 +2422,13 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>17407.689999999999</v>
+        <v>6752.64</v>
       </c>
       <c r="C46">
-        <v>25780.68</v>
+        <v>7345.93</v>
       </c>
       <c r="D46">
-        <v>23585.08</v>
+        <v>7540.14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2436,13 +2436,13 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>15741.99</v>
+        <v>6769.19</v>
       </c>
       <c r="C47">
-        <v>32446.22</v>
+        <v>6470.91</v>
       </c>
       <c r="D47">
-        <v>30058.05</v>
+        <v>6826.61</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2450,13 +2450,13 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>11145.26</v>
+        <v>5733.82</v>
       </c>
       <c r="C48">
-        <v>26599.79</v>
+        <v>5316.55</v>
       </c>
       <c r="D48">
-        <v>22789.16</v>
+        <v>5873.64</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2464,13 +2464,13 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>6283.54</v>
+        <v>5690.45</v>
       </c>
       <c r="C49">
-        <v>11259.94</v>
+        <v>5769.45</v>
       </c>
       <c r="D49">
-        <v>10435.81</v>
+        <v>6392.08</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2478,13 +2478,13 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>2814</v>
+        <v>921.86</v>
       </c>
       <c r="C50">
-        <v>5319.52</v>
+        <v>1047.3900000000001</v>
       </c>
       <c r="D50">
-        <v>5144.28</v>
+        <v>1188.76</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2492,13 +2492,13 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>821.64</v>
+        <v>13.08</v>
       </c>
       <c r="C51">
-        <v>1032.18</v>
+        <v>35.729999999999997</v>
       </c>
       <c r="D51">
-        <v>1070.43</v>
+        <v>58.03</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2506,13 +2506,13 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>199.03</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>279.31</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>308.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2552,8 +2552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2580,13 +2580,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>53.36</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>90.63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2594,13 +2594,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>684.48</v>
+        <v>1151.8399999999999</v>
       </c>
       <c r="C3">
-        <v>414.79</v>
+        <v>777.94</v>
       </c>
       <c r="D3">
-        <v>459.49</v>
+        <v>948.45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2608,13 +2608,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4231.17</v>
+        <v>4973.0200000000004</v>
       </c>
       <c r="C4">
-        <v>1585.17</v>
+        <v>3147.81</v>
       </c>
       <c r="D4">
-        <v>1744.96</v>
+        <v>3646.08</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2622,13 +2622,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>8268.35</v>
+        <v>8261.98</v>
       </c>
       <c r="C5">
-        <v>2473.06</v>
+        <v>5258.82</v>
       </c>
       <c r="D5">
-        <v>2837.5</v>
+        <v>6064.82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2636,13 +2636,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>15227.47</v>
+        <v>15682.49</v>
       </c>
       <c r="C6">
-        <v>4026.93</v>
+        <v>7677.12</v>
       </c>
       <c r="D6">
-        <v>5209.28</v>
+        <v>9382.19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2650,13 +2650,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>25086.639999999999</v>
+        <v>18431.57</v>
       </c>
       <c r="C7">
-        <v>7078.68</v>
+        <v>9320.57</v>
       </c>
       <c r="D7">
-        <v>9991.5300000000007</v>
+        <v>11685.44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2664,13 +2664,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>31917.32</v>
+        <v>27963.439999999999</v>
       </c>
       <c r="C8">
-        <v>11159.54</v>
+        <v>13332.31</v>
       </c>
       <c r="D8">
-        <v>15281.38</v>
+        <v>17257.03</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2678,13 +2678,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>38208.22</v>
+        <v>31453.54</v>
       </c>
       <c r="C9">
-        <v>16215.83</v>
+        <v>17171.099999999999</v>
       </c>
       <c r="D9">
-        <v>20671.62</v>
+        <v>21256.78</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2692,13 +2692,13 @@
         <v>56</v>
       </c>
       <c r="B10">
-        <v>44459.74</v>
+        <v>41783.43</v>
       </c>
       <c r="C10">
-        <v>22851.68</v>
+        <v>24252.21</v>
       </c>
       <c r="D10">
-        <v>26905.96</v>
+        <v>29423.43</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2706,13 +2706,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>52610.95</v>
+        <v>43397.5</v>
       </c>
       <c r="C11">
-        <v>30507.7</v>
+        <v>27500.560000000001</v>
       </c>
       <c r="D11">
-        <v>35391.17</v>
+        <v>32617.919999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2720,13 +2720,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>58299.56</v>
+        <v>46551.23</v>
       </c>
       <c r="C12">
-        <v>36603.660000000003</v>
+        <v>31249.96</v>
       </c>
       <c r="D12">
-        <v>38446.79</v>
+        <v>36909.83</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2734,13 +2734,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>62705.57</v>
+        <v>53013.51</v>
       </c>
       <c r="C13">
-        <v>43501.19</v>
+        <v>36696.01</v>
       </c>
       <c r="D13">
-        <v>50558.31</v>
+        <v>43555.73</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2748,13 +2748,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>72078.75</v>
+        <v>61092.83</v>
       </c>
       <c r="C14">
-        <v>52502.65</v>
+        <v>44531.49</v>
       </c>
       <c r="D14">
-        <v>45122.559999999998</v>
+        <v>52245.67</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2762,13 +2762,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>79681.25</v>
+        <v>67425.289999999994</v>
       </c>
       <c r="C15">
-        <v>56697.279999999999</v>
+        <v>51459.68</v>
       </c>
       <c r="D15">
-        <v>46352.14</v>
+        <v>60473.04</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2776,13 +2776,13 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>52287.16</v>
+        <v>69800.210000000006</v>
       </c>
       <c r="C16">
-        <v>45259.75</v>
+        <v>55135.24</v>
       </c>
       <c r="D16">
-        <v>57802.3</v>
+        <v>64407.85</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2790,13 +2790,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>69723.69</v>
+        <v>73003.17</v>
       </c>
       <c r="C17">
-        <v>58056.27</v>
+        <v>59753.65</v>
       </c>
       <c r="D17">
-        <v>65208.14</v>
+        <v>70158.240000000005</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2804,13 +2804,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>54272.49</v>
+        <v>75439.97</v>
       </c>
       <c r="C18">
-        <v>49890.879999999997</v>
+        <v>63094.74</v>
       </c>
       <c r="D18">
-        <v>53788.34</v>
+        <v>73661.960000000006</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2818,13 +2818,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>36710.269999999997</v>
+        <v>80724.42</v>
       </c>
       <c r="C19">
-        <v>36920.5</v>
+        <v>69084.86</v>
       </c>
       <c r="D19">
-        <v>56347.32</v>
+        <v>80923.7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2832,13 +2832,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>38196.06</v>
+        <v>85303.21</v>
       </c>
       <c r="C20">
-        <v>36049.43</v>
+        <v>75566.100000000006</v>
       </c>
       <c r="D20">
-        <v>54891.8</v>
+        <v>86608.67</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2846,13 +2846,13 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>77949.31</v>
+        <v>90419.87</v>
       </c>
       <c r="C21">
-        <v>76820.100000000006</v>
+        <v>81427.58</v>
       </c>
       <c r="D21">
-        <v>77625.509999999995</v>
+        <v>93040.11</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,13 +2860,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>57948.23</v>
+        <v>93210.29</v>
       </c>
       <c r="C22">
-        <v>57650.98</v>
+        <v>85092.35</v>
       </c>
       <c r="D22">
-        <v>69635.72</v>
+        <v>97122.6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,13 +2874,13 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>55991.78</v>
+        <v>83070.039999999994</v>
       </c>
       <c r="C23">
-        <v>54636.49</v>
+        <v>74489.850000000006</v>
       </c>
       <c r="D23">
-        <v>58589.760000000002</v>
+        <v>82361.39</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2888,13 +2888,13 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>72066.91</v>
+        <v>96380.1</v>
       </c>
       <c r="C24">
-        <v>72490.83</v>
+        <v>92840.63</v>
       </c>
       <c r="D24">
-        <v>90276.68</v>
+        <v>99415.29</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2902,13 +2902,13 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>94913.52</v>
+        <v>97058.66</v>
       </c>
       <c r="C25">
-        <v>88154.53</v>
+        <v>94969.26</v>
       </c>
       <c r="D25">
-        <v>79025.61</v>
+        <v>99533.15</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2916,13 +2916,13 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>73386.7</v>
+        <v>76976.45</v>
       </c>
       <c r="C26">
-        <v>73080.25</v>
+        <v>76434.990000000005</v>
       </c>
       <c r="D26">
-        <v>93945.51</v>
+        <v>78198.820000000007</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,13 +2930,13 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>95938.33</v>
+        <v>90242.45</v>
       </c>
       <c r="C27">
-        <v>97566.26</v>
+        <v>84777.8</v>
       </c>
       <c r="D27">
-        <v>83990.66</v>
+        <v>92180.08</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2944,13 +2944,13 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>70815.5</v>
+        <v>85649.4</v>
       </c>
       <c r="C28">
-        <v>71724.679999999993</v>
+        <v>88936.639999999999</v>
       </c>
       <c r="D28">
-        <v>75208.28</v>
+        <v>90636.67</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2958,13 +2958,13 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>63597.5</v>
+        <v>53437.42</v>
       </c>
       <c r="C29">
-        <v>64147.91</v>
+        <v>52246.66</v>
       </c>
       <c r="D29">
-        <v>81326.98</v>
+        <v>55164.58</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,13 +2972,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>73629.27</v>
+        <v>53731.19</v>
       </c>
       <c r="C30">
-        <v>75584.429999999993</v>
+        <v>52785.36</v>
       </c>
       <c r="D30">
-        <v>80480.34</v>
+        <v>55908.639999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2986,13 +2986,13 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>57618.99</v>
+        <v>61962.54</v>
       </c>
       <c r="C31">
-        <v>59624.77</v>
+        <v>69366.75</v>
       </c>
       <c r="D31">
-        <v>41607.089999999997</v>
+        <v>77455.48</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3000,13 +3000,13 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>65169.48</v>
+        <v>90805.7</v>
       </c>
       <c r="C32">
-        <v>66007.17</v>
+        <v>96892.42</v>
       </c>
       <c r="D32">
-        <v>78435.210000000006</v>
+        <v>99992.48</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3014,13 +3014,13 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>51842.37</v>
+        <v>66289.41</v>
       </c>
       <c r="C33">
-        <v>54852.6</v>
+        <v>67934.7</v>
       </c>
       <c r="D33">
-        <v>68751.38</v>
+        <v>71767.27</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3028,13 +3028,13 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>63164.7</v>
+        <v>80002.17</v>
       </c>
       <c r="C34">
-        <v>73902.61</v>
+        <v>91743.48</v>
       </c>
       <c r="D34">
-        <v>53692.21</v>
+        <v>98649.36</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3042,13 +3042,13 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>47983.89</v>
+        <v>54953.71</v>
       </c>
       <c r="C35">
-        <v>50957.47</v>
+        <v>62549.2</v>
       </c>
       <c r="D35">
-        <v>38422.65</v>
+        <v>63302.8</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,13 +3056,13 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>82568.08</v>
+        <v>14396.13</v>
       </c>
       <c r="C36">
-        <v>96903.19</v>
+        <v>15677.75</v>
       </c>
       <c r="D36">
-        <v>52416.56</v>
+        <v>17584.04</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3070,13 +3070,13 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>40251.35</v>
+        <v>48705.01</v>
       </c>
       <c r="C37">
-        <v>46716.76</v>
+        <v>59052.91</v>
       </c>
       <c r="D37">
-        <v>60665.42</v>
+        <v>49642.67</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3084,13 +3084,13 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>54265.38</v>
+        <v>68620.600000000006</v>
       </c>
       <c r="C38">
-        <v>66245.039999999994</v>
+        <v>85526.48</v>
       </c>
       <c r="D38">
-        <v>67696.240000000005</v>
+        <v>89682.79</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3098,13 +3098,13 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>37035.69</v>
+        <v>63979.64</v>
       </c>
       <c r="C39">
-        <v>43658.83</v>
+        <v>81726.52</v>
       </c>
       <c r="D39">
-        <v>49646.18</v>
+        <v>83685.63</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3112,13 +3112,13 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>28202.07</v>
+        <v>33047.410000000003</v>
       </c>
       <c r="C40">
-        <v>39518.32</v>
+        <v>40864.720000000001</v>
       </c>
       <c r="D40">
-        <v>47404.09</v>
+        <v>42442.93</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3126,13 +3126,13 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>21015.96</v>
+        <v>14532.33</v>
       </c>
       <c r="C41">
-        <v>29783.05</v>
+        <v>15699.15</v>
       </c>
       <c r="D41">
-        <v>35495.54</v>
+        <v>17291.400000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3140,13 +3140,13 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>37700.660000000003</v>
+        <v>18140.84</v>
       </c>
       <c r="C42">
-        <v>48158.239999999998</v>
+        <v>18214.689999999999</v>
       </c>
       <c r="D42">
-        <v>52114.32</v>
+        <v>25834.75</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3154,13 +3154,13 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>19078.3</v>
+        <v>11695</v>
       </c>
       <c r="C43">
-        <v>29709.87</v>
+        <v>10840.44</v>
       </c>
       <c r="D43">
-        <v>21948.76</v>
+        <v>12665.97</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3168,13 +3168,13 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>24167.87</v>
+        <v>9798.2000000000007</v>
       </c>
       <c r="C44">
-        <v>32980.76</v>
+        <v>9640.43</v>
       </c>
       <c r="D44">
-        <v>33710.25</v>
+        <v>10977.76</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3182,13 +3182,13 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>20823.71</v>
+        <v>8634.39</v>
       </c>
       <c r="C45">
-        <v>25889.64</v>
+        <v>8756.1</v>
       </c>
       <c r="D45">
-        <v>30286.28</v>
+        <v>10036.129999999999</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3196,13 +3196,13 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>16997.939999999999</v>
+        <v>6353.47</v>
       </c>
       <c r="C46">
-        <v>21252.11</v>
+        <v>6091.89</v>
       </c>
       <c r="D46">
-        <v>27964.87</v>
+        <v>7138.41</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3210,13 +3210,13 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>10653.05</v>
+        <v>4295.72</v>
       </c>
       <c r="C47">
-        <v>11648.14</v>
+        <v>3562.21</v>
       </c>
       <c r="D47">
-        <v>12878.53</v>
+        <v>4463.8100000000004</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3224,13 +3224,13 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>7712.74</v>
+        <v>2807.79</v>
       </c>
       <c r="C48">
-        <v>7905.92</v>
+        <v>2327.19</v>
       </c>
       <c r="D48">
-        <v>8946.17</v>
+        <v>2803.03</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3238,13 +3238,13 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>5001.22</v>
+        <v>2177.4499999999998</v>
       </c>
       <c r="C49">
-        <v>4974.46</v>
+        <v>1720.08</v>
       </c>
       <c r="D49">
-        <v>5821.66</v>
+        <v>2089.71</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3252,13 +3252,13 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>2568.88</v>
+        <v>389.35</v>
       </c>
       <c r="C50">
-        <v>2613.64</v>
+        <v>232.05</v>
       </c>
       <c r="D50">
-        <v>3076.13</v>
+        <v>407.44</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3266,13 +3266,13 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>1064.45</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>1069.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1314.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3280,13 +3280,13 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>153.22</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>160.24</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>245.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3326,8 +3326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3368,13 +3368,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>473.33</v>
+        <v>687.78</v>
       </c>
       <c r="C3">
-        <v>392.25</v>
+        <v>420.37</v>
       </c>
       <c r="D3">
-        <v>474.85</v>
+        <v>532.91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3382,13 +3382,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2426.66</v>
+        <v>1910.64</v>
       </c>
       <c r="C4">
-        <v>2104.38</v>
+        <v>1295.05</v>
       </c>
       <c r="D4">
-        <v>2444.0100000000002</v>
+        <v>1489.14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3396,13 +3396,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5296.47</v>
+        <v>5136.49</v>
       </c>
       <c r="C5">
-        <v>4663.6099999999997</v>
+        <v>2366.0100000000002</v>
       </c>
       <c r="D5">
-        <v>5262.29</v>
+        <v>2830.37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3410,13 +3410,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>8341.3799999999992</v>
+        <v>16412.28</v>
       </c>
       <c r="C6">
-        <v>7089.56</v>
+        <v>4798.95</v>
       </c>
       <c r="D6">
-        <v>7965.61</v>
+        <v>6646.45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3424,13 +3424,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>11097.96</v>
+        <v>24129.19</v>
       </c>
       <c r="C7">
-        <v>9446.69</v>
+        <v>7173.58</v>
       </c>
       <c r="D7">
-        <v>10546.46</v>
+        <v>10457.81</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3438,13 +3438,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>13748.46</v>
+        <v>31850.63</v>
       </c>
       <c r="C8">
-        <v>11544.25</v>
+        <v>11844.21</v>
       </c>
       <c r="D8">
-        <v>13011.52</v>
+        <v>16111.3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3452,13 +3452,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>16607.169999999998</v>
+        <v>35012.870000000003</v>
       </c>
       <c r="C9">
-        <v>13435.86</v>
+        <v>18503.75</v>
       </c>
       <c r="D9">
-        <v>15412.61</v>
+        <v>20574.330000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3466,13 +3466,13 @@
         <v>56</v>
       </c>
       <c r="B10">
-        <v>26357.74</v>
+        <v>35377.879999999997</v>
       </c>
       <c r="C10">
-        <v>19494.7</v>
+        <v>21239.75</v>
       </c>
       <c r="D10">
-        <v>22464.57</v>
+        <v>23358.36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3480,13 +3480,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>22182.84</v>
+        <v>43011.71</v>
       </c>
       <c r="C11">
-        <v>18653.77</v>
+        <v>27029.96</v>
       </c>
       <c r="D11">
-        <v>21093.14</v>
+        <v>32111.55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3494,13 +3494,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>27218.9</v>
+        <v>62936.11</v>
       </c>
       <c r="C12">
-        <v>22272.38</v>
+        <v>41794.65</v>
       </c>
       <c r="D12">
-        <v>25614.04</v>
+        <v>49031.33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3508,13 +3508,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>36251.71</v>
+        <v>69042.86</v>
       </c>
       <c r="C13">
-        <v>27891.87</v>
+        <v>49783.23</v>
       </c>
       <c r="D13">
-        <v>32616.59</v>
+        <v>57410.45</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3522,13 +3522,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>33850.81</v>
+        <v>69571.429999999993</v>
       </c>
       <c r="C14">
-        <v>26328.46</v>
+        <v>51903.54</v>
       </c>
       <c r="D14">
-        <v>30537.62</v>
+        <v>54410.91</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3536,13 +3536,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>28896.21</v>
+        <v>69788.100000000006</v>
       </c>
       <c r="C15">
-        <v>22745.01</v>
+        <v>53202.26</v>
       </c>
       <c r="D15">
-        <v>26663.67</v>
+        <v>62491.9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3550,13 +3550,13 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>47956.24</v>
+        <v>33037.480000000003</v>
       </c>
       <c r="C16">
-        <v>37060.18</v>
+        <v>27559.439999999999</v>
       </c>
       <c r="D16">
-        <v>43910.61</v>
+        <v>31725.68</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3564,13 +3564,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>73923.41</v>
+        <v>41401.4</v>
       </c>
       <c r="C17">
-        <v>59363.32</v>
+        <v>34855.26</v>
       </c>
       <c r="D17">
-        <v>67552.17</v>
+        <v>41012.6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3578,13 +3578,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>78815.929999999993</v>
+        <v>94920.77</v>
       </c>
       <c r="C18">
-        <v>64774.45</v>
+        <v>80423.070000000007</v>
       </c>
       <c r="D18">
-        <v>73419.570000000007</v>
+        <v>91589.89</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3592,13 +3592,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>81078.02</v>
+        <v>91328.79</v>
       </c>
       <c r="C19">
-        <v>68745.06</v>
+        <v>80757.789999999994</v>
       </c>
       <c r="D19">
-        <v>77600.17</v>
+        <v>90422.64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3606,13 +3606,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>66932.42</v>
+        <v>93676.07</v>
       </c>
       <c r="C20">
-        <v>52663.94</v>
+        <v>82303.789999999994</v>
       </c>
       <c r="D20">
-        <v>72162.42</v>
+        <v>92721.85</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3620,13 +3620,13 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>67987.87</v>
+        <v>74208.06</v>
       </c>
       <c r="C21">
-        <v>60058.95</v>
+        <v>67505.19</v>
       </c>
       <c r="D21">
-        <v>67669.490000000005</v>
+        <v>76198.679999999993</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3634,13 +3634,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>86944.65</v>
+        <v>63202.53</v>
       </c>
       <c r="C22">
-        <v>78190.84</v>
+        <v>68079.41</v>
       </c>
       <c r="D22">
-        <v>87579.06</v>
+        <v>64097.599999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3648,13 +3648,13 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>87051.3</v>
+        <v>91364.31</v>
       </c>
       <c r="C23">
-        <v>80057.31</v>
+        <v>88986.92</v>
       </c>
       <c r="D23">
-        <v>90115.6</v>
+        <v>92672.85</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3662,13 +3662,13 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>79961.990000000005</v>
+        <v>97857.84</v>
       </c>
       <c r="C24">
-        <v>76059.31</v>
+        <v>97391.74</v>
       </c>
       <c r="D24">
-        <v>84246.7</v>
+        <v>99583.13</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3676,13 +3676,13 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>66898.23</v>
+        <v>71800.47</v>
       </c>
       <c r="C25">
-        <v>61475.95</v>
+        <v>72357.740000000005</v>
       </c>
       <c r="D25">
-        <v>70733.990000000005</v>
+        <v>67754</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3690,13 +3690,13 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>53875.839999999997</v>
+        <v>15072.19</v>
       </c>
       <c r="C26">
-        <v>53590.879999999997</v>
+        <v>12510.02</v>
       </c>
       <c r="D26">
-        <v>59081.05</v>
+        <v>15146.06</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3704,13 +3704,13 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>53645.88</v>
+        <v>33066.910000000003</v>
       </c>
       <c r="C27">
-        <v>53555.28</v>
+        <v>30889.25</v>
       </c>
       <c r="D27">
-        <v>58862.64</v>
+        <v>36053.480000000003</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3718,13 +3718,13 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>60176.58</v>
+        <v>32604.23</v>
       </c>
       <c r="C28">
-        <v>61431.8</v>
+        <v>34535.33</v>
       </c>
       <c r="D28">
-        <v>67099.289999999994</v>
+        <v>37327.120000000003</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3732,13 +3732,13 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>77183.740000000005</v>
+        <v>46310.52</v>
       </c>
       <c r="C29">
-        <v>79206.12</v>
+        <v>47062.53</v>
       </c>
       <c r="D29">
-        <v>83647.87</v>
+        <v>52022.32</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3746,13 +3746,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>53334.77</v>
+        <v>35562.269999999997</v>
       </c>
       <c r="C30">
-        <v>55202.31</v>
+        <v>36702.71</v>
       </c>
       <c r="D30">
-        <v>59139.43</v>
+        <v>39781.93</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3760,13 +3760,13 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>52490.36</v>
+        <v>35967.32</v>
       </c>
       <c r="C31">
-        <v>55464.1</v>
+        <v>39061.08</v>
       </c>
       <c r="D31">
-        <v>55357.49</v>
+        <v>41812.15</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3774,13 +3774,13 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>37349.58</v>
+        <v>2501.58</v>
       </c>
       <c r="C32">
-        <v>39946.239999999998</v>
+        <v>2764.71</v>
       </c>
       <c r="D32">
-        <v>43201.5</v>
+        <v>2669.47</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3788,13 +3788,13 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>47611.38</v>
+        <v>1849.13</v>
       </c>
       <c r="C33">
-        <v>51565.760000000002</v>
+        <v>1950.37</v>
       </c>
       <c r="D33">
-        <v>55247.05</v>
+        <v>2125.65</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3802,13 +3802,13 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>67871.77</v>
+        <v>5514.91</v>
       </c>
       <c r="C34">
-        <v>74208.37</v>
+        <v>5539.41</v>
       </c>
       <c r="D34">
-        <v>75474.850000000006</v>
+        <v>6076.58</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3816,13 +3816,13 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>39515.730000000003</v>
+        <v>9127.7099999999991</v>
       </c>
       <c r="C35">
-        <v>46570.42</v>
+        <v>8253.9599999999991</v>
       </c>
       <c r="D35">
-        <v>50026.25</v>
+        <v>9544.0300000000007</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3830,13 +3830,13 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>54399.68</v>
+        <v>18141.45</v>
       </c>
       <c r="C36">
-        <v>62056.69</v>
+        <v>16442.52</v>
       </c>
       <c r="D36">
-        <v>79867.33</v>
+        <v>18642.3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3844,13 +3844,13 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>42197.82</v>
+        <v>22297.29</v>
       </c>
       <c r="C37">
-        <v>44746.67</v>
+        <v>21075.26</v>
       </c>
       <c r="D37">
-        <v>50659.54</v>
+        <v>23637.65</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3858,13 +3858,13 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>25332.7</v>
+        <v>18886.5</v>
       </c>
       <c r="C38">
-        <v>31106.18</v>
+        <v>18248.05</v>
       </c>
       <c r="D38">
-        <v>35974.35</v>
+        <v>19968.84</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3872,13 +3872,13 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>40121.78</v>
+        <v>22935.040000000001</v>
       </c>
       <c r="C39">
-        <v>49309.03</v>
+        <v>22330.42</v>
       </c>
       <c r="D39">
-        <v>50100.9</v>
+        <v>24438.880000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3886,13 +3886,13 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>19090.39</v>
+        <v>26552.46</v>
       </c>
       <c r="C40">
-        <v>19803.919999999998</v>
+        <v>26555.34</v>
       </c>
       <c r="D40">
-        <v>21727.48</v>
+        <v>28805.33</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3900,13 +3900,13 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>36535.519999999997</v>
+        <v>14151.1</v>
       </c>
       <c r="C41">
-        <v>45509.86</v>
+        <v>14012.55</v>
       </c>
       <c r="D41">
-        <v>44367.66</v>
+        <v>15065.28</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3914,13 +3914,13 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>11201.23</v>
+        <v>4985.38</v>
       </c>
       <c r="C42">
-        <v>10199.81</v>
+        <v>5879.52</v>
       </c>
       <c r="D42">
-        <v>11847.39</v>
+        <v>5692.18</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3928,13 +3928,13 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>17256.12</v>
+        <v>5430.4</v>
       </c>
       <c r="C43">
-        <v>17519.98</v>
+        <v>6363.61</v>
       </c>
       <c r="D43">
-        <v>19353.240000000002</v>
+        <v>6410.9</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3942,13 +3942,13 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>20667.64</v>
+        <v>6698.18</v>
       </c>
       <c r="C44">
-        <v>29758.59</v>
+        <v>7579.11</v>
       </c>
       <c r="D44">
-        <v>29346.46</v>
+        <v>7853.12</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3956,13 +3956,13 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>15643.23</v>
+        <v>6101.15</v>
       </c>
       <c r="C45">
-        <v>19322.939999999999</v>
+        <v>7635.89</v>
       </c>
       <c r="D45">
-        <v>20049.75</v>
+        <v>7504.49</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3970,13 +3970,13 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>10735.37</v>
+        <v>5105.09</v>
       </c>
       <c r="C46">
-        <v>14968.32</v>
+        <v>6077.35</v>
       </c>
       <c r="D46">
-        <v>14359.42</v>
+        <v>6088.28</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3984,13 +3984,13 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>8678.73</v>
+        <v>5290.61</v>
       </c>
       <c r="C47">
-        <v>9235.51</v>
+        <v>6365.09</v>
       </c>
       <c r="D47">
-        <v>9808.48</v>
+        <v>6095.35</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3998,13 +3998,13 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>3335.65</v>
+        <v>4362.79</v>
       </c>
       <c r="C48">
-        <v>3152.39</v>
+        <v>5315.91</v>
       </c>
       <c r="D48">
-        <v>3735.57</v>
+        <v>5037.42</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4012,13 +4012,13 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>1102.31</v>
+        <v>3698.15</v>
       </c>
       <c r="C49">
-        <v>1152.5</v>
+        <v>4939.0200000000004</v>
       </c>
       <c r="D49">
-        <v>1321.42</v>
+        <v>4516.03</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4026,13 +4026,13 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>2453.87</v>
+        <v>3407.84</v>
       </c>
       <c r="C50">
-        <v>2353.2600000000002</v>
+        <v>5637.83</v>
       </c>
       <c r="D50">
-        <v>2791.97</v>
+        <v>5346.46</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4040,13 +4040,13 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>1247.9000000000001</v>
+        <v>2033.08</v>
       </c>
       <c r="C51">
-        <v>1163.23</v>
+        <v>2629.54</v>
       </c>
       <c r="D51">
-        <v>1422.91</v>
+        <v>2612.31</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4054,13 +4054,13 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>245.51</v>
+        <v>367.68</v>
       </c>
       <c r="C52">
-        <v>239.54</v>
+        <v>508.06</v>
       </c>
       <c r="D52">
-        <v>309.73</v>
+        <v>495.15</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4100,8 +4100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4142,13 +4142,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>396.19</v>
+        <v>605.73</v>
       </c>
       <c r="C3">
-        <v>333.71</v>
+        <v>325.02</v>
       </c>
       <c r="D3">
-        <v>407.84</v>
+        <v>391.63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4156,13 +4156,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2471.36</v>
+        <v>2778.75</v>
       </c>
       <c r="C4">
-        <v>2105.35</v>
+        <v>1851.44</v>
       </c>
       <c r="D4">
-        <v>2408.87</v>
+        <v>1973.41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4170,13 +4170,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5659.21</v>
+        <v>5706.44</v>
       </c>
       <c r="C5">
-        <v>4814.63</v>
+        <v>3931.03</v>
       </c>
       <c r="D5">
-        <v>5373.68</v>
+        <v>4149.7700000000004</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4184,13 +4184,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>14170.68</v>
+        <v>10739.44</v>
       </c>
       <c r="C6">
-        <v>9563.59</v>
+        <v>5489.15</v>
       </c>
       <c r="D6">
-        <v>10886.76</v>
+        <v>6128.45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4198,13 +4198,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>17439.54</v>
+        <v>27817.89</v>
       </c>
       <c r="C7">
-        <v>11839.62</v>
+        <v>10450.17</v>
       </c>
       <c r="D7">
-        <v>13619.81</v>
+        <v>13235.06</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4212,13 +4212,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>21961.58</v>
+        <v>34429.47</v>
       </c>
       <c r="C8">
-        <v>16076.99</v>
+        <v>14221.46</v>
       </c>
       <c r="D8">
-        <v>18321.7</v>
+        <v>18299.599999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4226,13 +4226,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>17286.79</v>
+        <v>38841.11</v>
       </c>
       <c r="C9">
-        <v>15282.96</v>
+        <v>17612.88</v>
       </c>
       <c r="D9">
-        <v>17006.310000000001</v>
+        <v>22810.37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4240,13 +4240,13 @@
         <v>56</v>
       </c>
       <c r="B10">
-        <v>22589.62</v>
+        <v>43959.360000000001</v>
       </c>
       <c r="C10">
-        <v>18193.38</v>
+        <v>22547.09</v>
       </c>
       <c r="D10">
-        <v>19994.37</v>
+        <v>27740.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4254,13 +4254,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>33150.54</v>
+        <v>50983.39</v>
       </c>
       <c r="C11">
-        <v>23884.53</v>
+        <v>28946.68</v>
       </c>
       <c r="D11">
-        <v>27935.33</v>
+        <v>34612.75</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4268,13 +4268,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>48069.18</v>
+        <v>56741.95</v>
       </c>
       <c r="C12">
-        <v>34116.04</v>
+        <v>34738.370000000003</v>
       </c>
       <c r="D12">
-        <v>39241.72</v>
+        <v>41300.69</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4282,13 +4282,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>35190.519999999997</v>
+        <v>46112.12</v>
       </c>
       <c r="C13">
-        <v>28814.01</v>
+        <v>40707.74</v>
       </c>
       <c r="D13">
-        <v>31778.33</v>
+        <v>45832.85</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4296,13 +4296,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>37448.18</v>
+        <v>48085.59</v>
       </c>
       <c r="C14">
-        <v>29817.35</v>
+        <v>25179.86</v>
       </c>
       <c r="D14">
-        <v>34746.730000000003</v>
+        <v>36818.21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4310,13 +4310,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>50104.45</v>
+        <v>59556.04</v>
       </c>
       <c r="C15">
-        <v>40041.1</v>
+        <v>37693.5</v>
       </c>
       <c r="D15">
-        <v>47514.02</v>
+        <v>19182.46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4324,13 +4324,13 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>48751.61</v>
+        <v>64936.2</v>
       </c>
       <c r="C16">
-        <v>40780.82</v>
+        <v>48537.57</v>
       </c>
       <c r="D16">
-        <v>47637.23</v>
+        <v>56478.44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4338,13 +4338,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>24590.66</v>
+        <v>82836.72</v>
       </c>
       <c r="C17">
-        <v>22823.96</v>
+        <v>69266.48</v>
       </c>
       <c r="D17">
-        <v>25428.98</v>
+        <v>81197.66</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4352,13 +4352,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>22303.24</v>
+        <v>74922.37</v>
       </c>
       <c r="C18">
-        <v>22465.119999999999</v>
+        <v>68995.929999999993</v>
       </c>
       <c r="D18">
-        <v>23955.4</v>
+        <v>50562.01</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4366,13 +4366,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>32880.33</v>
+        <v>95338.74</v>
       </c>
       <c r="C19">
-        <v>29652</v>
+        <v>82739.3</v>
       </c>
       <c r="D19">
-        <v>34056.870000000003</v>
+        <v>96662.64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4380,13 +4380,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>76916.91</v>
+        <v>50914.06</v>
       </c>
       <c r="C20">
-        <v>67831.7</v>
+        <v>39501.599999999999</v>
       </c>
       <c r="D20">
-        <v>74952.69</v>
+        <v>51879.22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4394,13 +4394,13 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>74611.27</v>
+        <v>18328.259999999998</v>
       </c>
       <c r="C21">
-        <v>67919.199999999997</v>
+        <v>18967.37</v>
       </c>
       <c r="D21">
-        <v>76074.34</v>
+        <v>20916.740000000002</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4408,13 +4408,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>73375.149999999994</v>
+        <v>13845.12</v>
       </c>
       <c r="C22">
-        <v>69459.350000000006</v>
+        <v>15256.48</v>
       </c>
       <c r="D22">
-        <v>71790.990000000005</v>
+        <v>15448.84</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4422,13 +4422,13 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>64386.97</v>
+        <v>15704.6</v>
       </c>
       <c r="C23">
-        <v>55404.91</v>
+        <v>17186.95</v>
       </c>
       <c r="D23">
-        <v>87744.47</v>
+        <v>17410.22</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4436,13 +4436,13 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>52569.23</v>
+        <v>15418.91</v>
       </c>
       <c r="C24">
-        <v>58645.74</v>
+        <v>15853.43</v>
       </c>
       <c r="D24">
-        <v>62293.88</v>
+        <v>17701.93</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4450,13 +4450,13 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>74946.81</v>
+        <v>14372.47</v>
       </c>
       <c r="C25">
-        <v>72092.460000000006</v>
+        <v>14189.4</v>
       </c>
       <c r="D25">
-        <v>76867.490000000005</v>
+        <v>16631.34</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4464,13 +4464,13 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>74941.929999999993</v>
+        <v>15343.45</v>
       </c>
       <c r="C26">
-        <v>74938.91</v>
+        <v>16005.64</v>
       </c>
       <c r="D26">
-        <v>66385.81</v>
+        <v>16850.240000000002</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4478,13 +4478,13 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>71306.58</v>
+        <v>16120.95</v>
       </c>
       <c r="C27">
-        <v>92967.46</v>
+        <v>17958</v>
       </c>
       <c r="D27">
-        <v>78186.02</v>
+        <v>17768.240000000002</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4492,13 +4492,13 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>66415.039999999994</v>
+        <v>21267.77</v>
       </c>
       <c r="C28">
-        <v>67427.78</v>
+        <v>23377.360000000001</v>
       </c>
       <c r="D28">
-        <v>84492.38</v>
+        <v>23468.26</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4506,13 +4506,13 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>81391.429999999993</v>
+        <v>18792.849999999999</v>
       </c>
       <c r="C29">
-        <v>81304.02</v>
+        <v>20992.84</v>
       </c>
       <c r="D29">
-        <v>63396.12</v>
+        <v>21130.400000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4520,13 +4520,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>98304.59</v>
+        <v>23009.07</v>
       </c>
       <c r="C30">
-        <v>99706.11</v>
+        <v>23328.16</v>
       </c>
       <c r="D30">
-        <v>99789.73</v>
+        <v>23638.55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4534,13 +4534,13 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>96338.4</v>
+        <v>34401.93</v>
       </c>
       <c r="C31">
-        <v>89695.23</v>
+        <v>35121.160000000003</v>
       </c>
       <c r="D31">
-        <v>99455.85</v>
+        <v>36283.11</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4548,13 +4548,13 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>70538.3</v>
+        <v>32442.03</v>
       </c>
       <c r="C32">
-        <v>74492.53</v>
+        <v>35106.58</v>
       </c>
       <c r="D32">
-        <v>76713</v>
+        <v>35953.56</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4562,13 +4562,13 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>68388.679999999993</v>
+        <v>31360.31</v>
       </c>
       <c r="C33">
-        <v>76304.070000000007</v>
+        <v>33395.29</v>
       </c>
       <c r="D33">
-        <v>81801.81</v>
+        <v>34488.32</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4576,13 +4576,13 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>39520.68</v>
+        <v>59972.02</v>
       </c>
       <c r="C34">
-        <v>42724.49</v>
+        <v>62491.79</v>
       </c>
       <c r="D34">
-        <v>47643.13</v>
+        <v>64643.1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4590,13 +4590,13 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>27029.45</v>
+        <v>47126.5</v>
       </c>
       <c r="C35">
-        <v>27151.83</v>
+        <v>52197.63</v>
       </c>
       <c r="D35">
-        <v>31223.83</v>
+        <v>56691.94</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4604,13 +4604,13 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>53272.4</v>
+        <v>40640.620000000003</v>
       </c>
       <c r="C36">
-        <v>69110.33</v>
+        <v>44043.91</v>
       </c>
       <c r="D36">
-        <v>49051.32</v>
+        <v>48415.12</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4618,13 +4618,13 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>49470.239999999998</v>
+        <v>33166.57</v>
       </c>
       <c r="C37">
-        <v>56016.81</v>
+        <v>35345.33</v>
       </c>
       <c r="D37">
-        <v>56747.25</v>
+        <v>38271.550000000003</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4632,13 +4632,13 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>31451.21</v>
+        <v>25826.94</v>
       </c>
       <c r="C38">
-        <v>31661.759999999998</v>
+        <v>27276.560000000001</v>
       </c>
       <c r="D38">
-        <v>36043.1</v>
+        <v>29290.83</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4646,13 +4646,13 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>46067.88</v>
+        <v>44326.48</v>
       </c>
       <c r="C39">
-        <v>54530.29</v>
+        <v>50215.5</v>
       </c>
       <c r="D39">
-        <v>57588.69</v>
+        <v>54032.89</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4660,13 +4660,13 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>32440.36</v>
+        <v>37575.49</v>
       </c>
       <c r="C40">
-        <v>39644.519999999997</v>
+        <v>41021.129999999997</v>
       </c>
       <c r="D40">
-        <v>39649.56</v>
+        <v>44379.18</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4674,13 +4674,13 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>20567.38</v>
+        <v>28360.55</v>
       </c>
       <c r="C41">
-        <v>22063.03</v>
+        <v>31476.67</v>
       </c>
       <c r="D41">
-        <v>23730.97</v>
+        <v>33563.11</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4688,13 +4688,13 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>44005.26</v>
+        <v>26757.54</v>
       </c>
       <c r="C42">
-        <v>60472.79</v>
+        <v>30627.93</v>
       </c>
       <c r="D42">
-        <v>60232.93</v>
+        <v>32683.21</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4702,13 +4702,13 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>28997.27</v>
+        <v>21057.3</v>
       </c>
       <c r="C43">
-        <v>41073.120000000003</v>
+        <v>24210.89</v>
       </c>
       <c r="D43">
-        <v>40564.639999999999</v>
+        <v>26225.24</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4716,13 +4716,13 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>23801.040000000001</v>
+        <v>16844.37</v>
       </c>
       <c r="C44">
-        <v>35045.269999999997</v>
+        <v>19988.77</v>
       </c>
       <c r="D44">
-        <v>34342.870000000003</v>
+        <v>21086.080000000002</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4730,13 +4730,13 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>17415.560000000001</v>
+        <v>14622.77</v>
       </c>
       <c r="C45">
-        <v>25921.29</v>
+        <v>17148.13</v>
       </c>
       <c r="D45">
-        <v>25055</v>
+        <v>17668.849999999999</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4744,13 +4744,13 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>18248.080000000002</v>
+        <v>20005.41</v>
       </c>
       <c r="C46">
-        <v>38104.35</v>
+        <v>26846.37</v>
       </c>
       <c r="D46">
-        <v>33747.68</v>
+        <v>26724.16</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4758,13 +4758,13 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>11774.53</v>
+        <v>16841.740000000002</v>
       </c>
       <c r="C47">
-        <v>27864.33</v>
+        <v>25675.87</v>
       </c>
       <c r="D47">
-        <v>24091.54</v>
+        <v>24764.61</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -4772,13 +4772,13 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>6972.56</v>
+        <v>11303.01</v>
       </c>
       <c r="C48">
-        <v>14404.52</v>
+        <v>17439.310000000001</v>
       </c>
       <c r="D48">
-        <v>9688.42</v>
+        <v>17426.849999999999</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4786,13 +4786,13 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>3575.54</v>
+        <v>5483.72</v>
       </c>
       <c r="C49">
-        <v>5283.5</v>
+        <v>7338.45</v>
       </c>
       <c r="D49">
-        <v>5028.3999999999996</v>
+        <v>7693.29</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4800,13 +4800,13 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>2697.84</v>
+        <v>3101.73</v>
       </c>
       <c r="C50">
-        <v>4125.7700000000004</v>
+        <v>3505.32</v>
       </c>
       <c r="D50">
-        <v>3812.9</v>
+        <v>3785.65</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4814,13 +4814,13 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>1499.95</v>
+        <v>1616.53</v>
       </c>
       <c r="C51">
-        <v>2766.89</v>
+        <v>1782.5</v>
       </c>
       <c r="D51">
-        <v>2548.15</v>
+        <v>2020.36</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4828,13 +4828,13 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>314.10000000000002</v>
+        <v>327.96</v>
       </c>
       <c r="C52">
-        <v>633.16</v>
+        <v>390.73</v>
       </c>
       <c r="D52">
-        <v>573.59</v>
+        <v>491.6</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4874,8 +4874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4916,13 +4916,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>421.12</v>
+        <v>961.75</v>
       </c>
       <c r="C3">
-        <v>345.37</v>
+        <v>552.42999999999995</v>
       </c>
       <c r="D3">
-        <v>401.98</v>
+        <v>691.4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4930,13 +4930,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2456.21</v>
+        <v>4968.17</v>
       </c>
       <c r="C4">
-        <v>1923.28</v>
+        <v>2562.9499999999998</v>
       </c>
       <c r="D4">
-        <v>2171</v>
+        <v>2874.07</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4944,13 +4944,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5014.96</v>
+        <v>8849.14</v>
       </c>
       <c r="C5">
-        <v>3745.26</v>
+        <v>4877.29</v>
       </c>
       <c r="D5">
-        <v>4208.63</v>
+        <v>5488.12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4958,13 +4958,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>9941.6</v>
+        <v>7372.02</v>
       </c>
       <c r="C6">
-        <v>5973.65</v>
+        <v>5483.58</v>
       </c>
       <c r="D6">
-        <v>6930.47</v>
+        <v>6007.21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4972,13 +4972,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>18059.580000000002</v>
+        <v>9699.61</v>
       </c>
       <c r="C7">
-        <v>8988.4699999999993</v>
+        <v>8039.16</v>
       </c>
       <c r="D7">
-        <v>11049.43</v>
+        <v>8519.91</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4986,13 +4986,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>26704.25</v>
+        <v>14651.8</v>
       </c>
       <c r="C8">
-        <v>12545.53</v>
+        <v>12626.13</v>
       </c>
       <c r="D8">
-        <v>15942.92</v>
+        <v>13493.7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5000,13 +5000,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>34836.089999999997</v>
+        <v>17459.919999999998</v>
       </c>
       <c r="C9">
-        <v>17578.66</v>
+        <v>15673.27</v>
       </c>
       <c r="D9">
-        <v>21925.34</v>
+        <v>17023.78</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5014,13 +5014,13 @@
         <v>56</v>
       </c>
       <c r="B10">
-        <v>37968.370000000003</v>
+        <v>19491.09</v>
       </c>
       <c r="C10">
-        <v>22027.99</v>
+        <v>18093.75</v>
       </c>
       <c r="D10">
-        <v>26044.47</v>
+        <v>19881.05</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5028,13 +5028,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>42888.35</v>
+        <v>19068.68</v>
       </c>
       <c r="C11">
-        <v>30057.13</v>
+        <v>17993.62</v>
       </c>
       <c r="D11">
-        <v>34896.49</v>
+        <v>19937.18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5042,13 +5042,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>51482.38</v>
+        <v>20448.36</v>
       </c>
       <c r="C12">
-        <v>36062.86</v>
+        <v>19441.099999999999</v>
       </c>
       <c r="D12">
-        <v>41850.61</v>
+        <v>21506.01</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5056,13 +5056,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>33215.599999999999</v>
+        <v>24312.28</v>
       </c>
       <c r="C13">
-        <v>28904.36</v>
+        <v>23103.919999999998</v>
       </c>
       <c r="D13">
-        <v>31925.21</v>
+        <v>25677.23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5070,13 +5070,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>54594.68</v>
+        <v>25858.69</v>
       </c>
       <c r="C14">
-        <v>41356.71</v>
+        <v>24577.919999999998</v>
       </c>
       <c r="D14">
-        <v>47766.69</v>
+        <v>27271.200000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5084,13 +5084,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>70984.009999999995</v>
+        <v>31171.61</v>
       </c>
       <c r="C15">
-        <v>51446.35</v>
+        <v>29356.7</v>
       </c>
       <c r="D15">
-        <v>56905.1</v>
+        <v>32553.11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5098,13 +5098,13 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>56160.88</v>
+        <v>39479.61</v>
       </c>
       <c r="C16">
-        <v>44684.83</v>
+        <v>36370.129999999997</v>
       </c>
       <c r="D16">
-        <v>43833.29</v>
+        <v>40547.07</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5112,13 +5112,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>52548.19</v>
+        <v>84446.71</v>
       </c>
       <c r="C17">
-        <v>45033.94</v>
+        <v>77704.23</v>
       </c>
       <c r="D17">
-        <v>53901.2</v>
+        <v>84545.08</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5126,13 +5126,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>52802.720000000001</v>
+        <v>40535.67</v>
       </c>
       <c r="C18">
-        <v>44337.83</v>
+        <v>39937.910000000003</v>
       </c>
       <c r="D18">
-        <v>48640.1</v>
+        <v>45438.52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5140,13 +5140,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>43596.79</v>
+        <v>42649.45</v>
       </c>
       <c r="C19">
-        <v>39204.43</v>
+        <v>40757.32</v>
       </c>
       <c r="D19">
-        <v>43630.2</v>
+        <v>45420.57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5154,13 +5154,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>66599.570000000007</v>
+        <v>43527.31</v>
       </c>
       <c r="C20">
-        <v>63168.61</v>
+        <v>41463.32</v>
       </c>
       <c r="D20">
-        <v>58514.239999999998</v>
+        <v>46443.6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5168,13 +5168,13 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>66235.37</v>
+        <v>47035.21</v>
       </c>
       <c r="C21">
-        <v>55794.58</v>
+        <v>43468.73</v>
       </c>
       <c r="D21">
-        <v>57969.31</v>
+        <v>49157.2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5182,13 +5182,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>70919.12</v>
+        <v>99445.75</v>
       </c>
       <c r="C22">
-        <v>67268.17</v>
+        <v>96872.29</v>
       </c>
       <c r="D22">
-        <v>76374.7</v>
+        <v>99561.37</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5196,13 +5196,13 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>48689.88</v>
+        <v>64261.24</v>
       </c>
       <c r="C23">
-        <v>45740.15</v>
+        <v>65722.52</v>
       </c>
       <c r="D23">
-        <v>51193.91</v>
+        <v>61324.88</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5210,13 +5210,13 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>35157.550000000003</v>
+        <v>63955.81</v>
       </c>
       <c r="C24">
-        <v>38102.1</v>
+        <v>60945.01</v>
       </c>
       <c r="D24">
-        <v>55432.78</v>
+        <v>66854.2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5224,13 +5224,13 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>60999.55</v>
+        <v>50220.83</v>
       </c>
       <c r="C25">
-        <v>57707.56</v>
+        <v>48533.14</v>
       </c>
       <c r="D25">
-        <v>61532.03</v>
+        <v>51149.01</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5238,13 +5238,13 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>55842.18</v>
+        <v>96656.84</v>
       </c>
       <c r="C26">
-        <v>54957.55</v>
+        <v>95484.9</v>
       </c>
       <c r="D26">
-        <v>58580.49</v>
+        <v>99212.44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5252,13 +5252,13 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>39569.5</v>
+        <v>72678.63</v>
       </c>
       <c r="C27">
-        <v>48001.29</v>
+        <v>73214.149999999994</v>
       </c>
       <c r="D27">
-        <v>40004.769999999997</v>
+        <v>77237.929999999993</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5266,13 +5266,13 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>68813.75</v>
+        <v>61581.35</v>
       </c>
       <c r="C28">
-        <v>67166.740000000005</v>
+        <v>59428.95</v>
       </c>
       <c r="D28">
-        <v>58854.6</v>
+        <v>60319.8</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5280,13 +5280,13 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>34702.85</v>
+        <v>72150.95</v>
       </c>
       <c r="C29">
-        <v>33218.15</v>
+        <v>62444.47</v>
       </c>
       <c r="D29">
-        <v>34243.800000000003</v>
+        <v>48619.66</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5294,13 +5294,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>53034.07</v>
+        <v>96023.6</v>
       </c>
       <c r="C30">
-        <v>50256.84</v>
+        <v>98721</v>
       </c>
       <c r="D30">
-        <v>55694.03</v>
+        <v>100000.27</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5308,13 +5308,13 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>72237.19</v>
+        <v>88021.35</v>
       </c>
       <c r="C31">
-        <v>73531.28</v>
+        <v>95130.78</v>
       </c>
       <c r="D31">
-        <v>64724.32</v>
+        <v>99833.56</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5322,13 +5322,13 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>35740.769999999997</v>
+        <v>89249.14</v>
       </c>
       <c r="C32">
-        <v>36348.93</v>
+        <v>96647.94</v>
       </c>
       <c r="D32">
-        <v>39958.6</v>
+        <v>99998.38</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5336,13 +5336,13 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>35064.36</v>
+        <v>76733.19</v>
       </c>
       <c r="C33">
-        <v>35440.1</v>
+        <v>74469.7</v>
       </c>
       <c r="D33">
-        <v>40468.17</v>
+        <v>78347.73</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5350,13 +5350,13 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>19165.8</v>
+        <v>42976.42</v>
       </c>
       <c r="C34">
-        <v>18125.04</v>
+        <v>47439.15</v>
       </c>
       <c r="D34">
-        <v>20493.25</v>
+        <v>49155.16</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5364,13 +5364,13 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>31840.16</v>
+        <v>46270.76</v>
       </c>
       <c r="C35">
-        <v>34506.800000000003</v>
+        <v>47946.69</v>
       </c>
       <c r="D35">
-        <v>39666.54</v>
+        <v>48578.32</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5378,13 +5378,13 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>39639.72</v>
+        <v>18215.37</v>
       </c>
       <c r="C36">
-        <v>41459.75</v>
+        <v>16918.91</v>
       </c>
       <c r="D36">
-        <v>44222.61</v>
+        <v>18880.78</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5392,13 +5392,13 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>36320.65</v>
+        <v>11099.21</v>
       </c>
       <c r="C37">
-        <v>40015.129999999997</v>
+        <v>11690.15</v>
       </c>
       <c r="D37">
-        <v>42489.33</v>
+        <v>11906.52</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5406,13 +5406,13 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>31294.79</v>
+        <v>12190.97</v>
       </c>
       <c r="C38">
-        <v>33044.629999999997</v>
+        <v>13810.21</v>
       </c>
       <c r="D38">
-        <v>35831.51</v>
+        <v>13735.59</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5420,13 +5420,13 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>31954.71</v>
+        <v>14563.64</v>
       </c>
       <c r="C39">
-        <v>33167.53</v>
+        <v>16452.45</v>
       </c>
       <c r="D39">
-        <v>36137.29</v>
+        <v>16733.45</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5434,13 +5434,13 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>25826.93</v>
+        <v>14627.24</v>
       </c>
       <c r="C40">
-        <v>28832.54</v>
+        <v>17510.23</v>
       </c>
       <c r="D40">
-        <v>33076.639999999999</v>
+        <v>17305.29</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5448,13 +5448,13 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>43696.05</v>
+        <v>15420.32</v>
       </c>
       <c r="C41">
-        <v>59407.09</v>
+        <v>16543.89</v>
       </c>
       <c r="D41">
-        <v>59679.45</v>
+        <v>17138.78</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5462,13 +5462,13 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>30119.37</v>
+        <v>13946.91</v>
       </c>
       <c r="C42">
-        <v>39088.9</v>
+        <v>14136.83</v>
       </c>
       <c r="D42">
-        <v>39631.74</v>
+        <v>14912.61</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5476,13 +5476,13 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>20944.830000000002</v>
+        <v>10374.77</v>
       </c>
       <c r="C43">
-        <v>23825.21</v>
+        <v>10487.15</v>
       </c>
       <c r="D43">
-        <v>24816.19</v>
+        <v>11005.4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5490,13 +5490,13 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>22503.439999999999</v>
+        <v>12097.62</v>
       </c>
       <c r="C44">
-        <v>28194.080000000002</v>
+        <v>13319.54</v>
       </c>
       <c r="D44">
-        <v>29437.72</v>
+        <v>13688.8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5504,13 +5504,13 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>17476.5</v>
+        <v>11924.25</v>
       </c>
       <c r="C45">
-        <v>26279.200000000001</v>
+        <v>13146.77</v>
       </c>
       <c r="D45">
-        <v>25241.38</v>
+        <v>14104.95</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5518,13 +5518,13 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>10667.56</v>
+        <v>13864.45</v>
       </c>
       <c r="C46">
-        <v>16862.509999999998</v>
+        <v>16305.38</v>
       </c>
       <c r="D46">
-        <v>16797.810000000001</v>
+        <v>17274.599999999999</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5532,13 +5532,13 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>9304.01</v>
+        <v>8522.68</v>
       </c>
       <c r="C47">
-        <v>14050.28</v>
+        <v>9468.98</v>
       </c>
       <c r="D47">
-        <v>13700.95</v>
+        <v>10368.280000000001</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5546,13 +5546,13 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>8056.35</v>
+        <v>7427.79</v>
       </c>
       <c r="C48">
-        <v>19053.849999999999</v>
+        <v>8032.83</v>
       </c>
       <c r="D48">
-        <v>15985.48</v>
+        <v>8969.98</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5560,13 +5560,13 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>4324.1899999999996</v>
+        <v>4516.51</v>
       </c>
       <c r="C49">
-        <v>9115.3700000000008</v>
+        <v>5066.7700000000004</v>
       </c>
       <c r="D49">
-        <v>7902.62</v>
+        <v>5464.7</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -5574,13 +5574,13 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>3324.73</v>
+        <v>3773.81</v>
       </c>
       <c r="C50">
-        <v>5337.9</v>
+        <v>3594.06</v>
       </c>
       <c r="D50">
-        <v>5136.92</v>
+        <v>4107.78</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -5588,13 +5588,13 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>1518.21</v>
+        <v>2025.63</v>
       </c>
       <c r="C51">
-        <v>1884.76</v>
+        <v>1924.5</v>
       </c>
       <c r="D51">
-        <v>1910.75</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -5602,13 +5602,13 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>239.03</v>
+        <v>286.37</v>
       </c>
       <c r="C52">
-        <v>302.24</v>
+        <v>289.47000000000003</v>
       </c>
       <c r="D52">
-        <v>326.12</v>
+        <v>344.88</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -5649,7 +5649,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5690,13 +5690,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>405.17</v>
+        <v>664.75</v>
       </c>
       <c r="C3">
-        <v>292.22000000000003</v>
+        <v>490.15</v>
       </c>
       <c r="D3">
-        <v>370.05</v>
+        <v>580.91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5704,13 +5704,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2042.88</v>
+        <v>3242.53</v>
       </c>
       <c r="C4">
-        <v>1783.49</v>
+        <v>2405.7399999999998</v>
       </c>
       <c r="D4">
-        <v>2054.56</v>
+        <v>2789.15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5718,13 +5718,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>3993.32</v>
+        <v>7256.95</v>
       </c>
       <c r="C5">
-        <v>3720.97</v>
+        <v>5100.26</v>
       </c>
       <c r="D5">
-        <v>4169.2</v>
+        <v>5886.65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5732,13 +5732,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6927.59</v>
+        <v>13156.89</v>
       </c>
       <c r="C6">
-        <v>5618.98</v>
+        <v>9049.15</v>
       </c>
       <c r="D6">
-        <v>6364.39</v>
+        <v>10698.78</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5746,13 +5746,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>12176.3</v>
+        <v>12775.33</v>
       </c>
       <c r="C7">
-        <v>10131.6</v>
+        <v>10447.280000000001</v>
       </c>
       <c r="D7">
-        <v>11504.14</v>
+        <v>12000.44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5760,13 +5760,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>11398.42</v>
+        <v>14725.28</v>
       </c>
       <c r="C8">
-        <v>10269.799999999999</v>
+        <v>12537.82</v>
       </c>
       <c r="D8">
-        <v>11314.31</v>
+        <v>14253.18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5774,13 +5774,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>22417.95</v>
+        <v>16428.2</v>
       </c>
       <c r="C9">
-        <v>13775.79</v>
+        <v>14022.61</v>
       </c>
       <c r="D9">
-        <v>16367.62</v>
+        <v>15926.9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5788,13 +5788,13 @@
         <v>56</v>
       </c>
       <c r="B10">
-        <v>36838.730000000003</v>
+        <v>14580.83</v>
       </c>
       <c r="C10">
-        <v>23069.07</v>
+        <v>12820.82</v>
       </c>
       <c r="D10">
-        <v>27099.47</v>
+        <v>14585.69</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5802,13 +5802,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>38069.279999999999</v>
+        <v>19542.62</v>
       </c>
       <c r="C11">
-        <v>27528.02</v>
+        <v>18164.02</v>
       </c>
       <c r="D11">
-        <v>30683.26</v>
+        <v>20064.330000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5816,13 +5816,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>53842.34</v>
+        <v>28762.04</v>
       </c>
       <c r="C12">
-        <v>37227.49</v>
+        <v>26117.56</v>
       </c>
       <c r="D12">
-        <v>42021.46</v>
+        <v>29442.86</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5830,13 +5830,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>44610.11</v>
+        <v>28426.799999999999</v>
       </c>
       <c r="C13">
-        <v>33687.120000000003</v>
+        <v>25431.34</v>
       </c>
       <c r="D13">
-        <v>39702.339999999997</v>
+        <v>28631.67</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5844,13 +5844,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>44864.33</v>
+        <v>33294</v>
       </c>
       <c r="C14">
-        <v>37206.730000000003</v>
+        <v>30723.97</v>
       </c>
       <c r="D14">
-        <v>44482.06</v>
+        <v>33974.080000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5858,13 +5858,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>68858.86</v>
+        <v>30467.7</v>
       </c>
       <c r="C15">
-        <v>54127.040000000001</v>
+        <v>29261.759999999998</v>
       </c>
       <c r="D15">
-        <v>61823.18</v>
+        <v>31351.759999999998</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5872,13 +5872,13 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>43912.02</v>
+        <v>62899.98</v>
       </c>
       <c r="C16">
-        <v>37217.480000000003</v>
+        <v>53154.9</v>
       </c>
       <c r="D16">
-        <v>42795.78</v>
+        <v>60795.45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5886,13 +5886,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>85301.119999999995</v>
+        <v>50402.720000000001</v>
       </c>
       <c r="C17">
-        <v>71462.52</v>
+        <v>44024.97</v>
       </c>
       <c r="D17">
-        <v>77302.61</v>
+        <v>52609.65</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5900,13 +5900,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>82647.45</v>
+        <v>51351.32</v>
       </c>
       <c r="C18">
-        <v>69115.360000000001</v>
+        <v>43274.18</v>
       </c>
       <c r="D18">
-        <v>73061.61</v>
+        <v>45273.16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5914,13 +5914,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>86373.79</v>
+        <v>54583.72</v>
       </c>
       <c r="C19">
-        <v>73847.58</v>
+        <v>48360.21</v>
       </c>
       <c r="D19">
-        <v>83076.02</v>
+        <v>59419.42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5928,13 +5928,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>85779.23</v>
+        <v>65011.12</v>
       </c>
       <c r="C20">
-        <v>78680.100000000006</v>
+        <v>58984.39</v>
       </c>
       <c r="D20">
-        <v>81127.12</v>
+        <v>71837.7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5942,13 +5942,13 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>73120.08</v>
+        <v>58877.43</v>
       </c>
       <c r="C21">
-        <v>66774.009999999995</v>
+        <v>54153.41</v>
       </c>
       <c r="D21">
-        <v>69628.27</v>
+        <v>61679.12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5956,13 +5956,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>51412.29</v>
+        <v>56868.639999999999</v>
       </c>
       <c r="C22">
-        <v>48325.91</v>
+        <v>51106.14</v>
       </c>
       <c r="D22">
-        <v>47862.9</v>
+        <v>60743.66</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5970,13 +5970,13 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>74633.16</v>
+        <v>70663.31</v>
       </c>
       <c r="C23">
-        <v>62983.68</v>
+        <v>65535.79</v>
       </c>
       <c r="D23">
-        <v>68310.02</v>
+        <v>71877.72</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5984,13 +5984,13 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>68530.11</v>
+        <v>89351.02</v>
       </c>
       <c r="C24">
-        <v>68024.84</v>
+        <v>85894.35</v>
       </c>
       <c r="D24">
-        <v>72926.880000000005</v>
+        <v>85716.7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5998,13 +5998,13 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>73640.34</v>
+        <v>78089.5</v>
       </c>
       <c r="C25">
-        <v>68162.87</v>
+        <v>76437.59</v>
       </c>
       <c r="D25">
-        <v>74519.64</v>
+        <v>83353.539999999994</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -6012,13 +6012,13 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>94693.58</v>
+        <v>90430.09</v>
       </c>
       <c r="C26">
-        <v>94737.17</v>
+        <v>82269.23</v>
       </c>
       <c r="D26">
-        <v>99118.38</v>
+        <v>98721.67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6026,13 +6026,13 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>72863.350000000006</v>
+        <v>68487.27</v>
       </c>
       <c r="C27">
-        <v>73119.740000000005</v>
+        <v>67874.67</v>
       </c>
       <c r="D27">
-        <v>76103.31</v>
+        <v>92090.32</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6040,13 +6040,13 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>95455.49</v>
+        <v>62506.32</v>
       </c>
       <c r="C28">
-        <v>95917.94</v>
+        <v>62417.48</v>
       </c>
       <c r="D28">
-        <v>100001.13</v>
+        <v>74919.429999999993</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6054,13 +6054,13 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>76912.03</v>
+        <v>65522.07</v>
       </c>
       <c r="C29">
-        <v>80322.78</v>
+        <v>66811.17</v>
       </c>
       <c r="D29">
-        <v>79126.789999999994</v>
+        <v>73843.12</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -6068,13 +6068,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>75006.55</v>
+        <v>60594.33</v>
       </c>
       <c r="C30">
-        <v>86705.09</v>
+        <v>62513.85</v>
       </c>
       <c r="D30">
-        <v>77792.33</v>
+        <v>67813.429999999993</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -6082,13 +6082,13 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>81777.72</v>
+        <v>53613.22</v>
       </c>
       <c r="C31">
-        <v>84392.65</v>
+        <v>56355.21</v>
       </c>
       <c r="D31">
-        <v>80150.34</v>
+        <v>61353.69</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6096,13 +6096,13 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>66054.06</v>
+        <v>83568.899999999994</v>
       </c>
       <c r="C32">
-        <v>65005.97</v>
+        <v>93437.19</v>
       </c>
       <c r="D32">
-        <v>63005.49</v>
+        <v>99056.39</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6110,13 +6110,13 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>64684.959999999999</v>
+        <v>35058.74</v>
       </c>
       <c r="C33">
-        <v>75300.25</v>
+        <v>37520.17</v>
       </c>
       <c r="D33">
-        <v>77226.490000000005</v>
+        <v>39899.83</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -6124,13 +6124,13 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>81971.41</v>
+        <v>64251.37</v>
       </c>
       <c r="C34">
-        <v>90878.54</v>
+        <v>73440.070000000007</v>
       </c>
       <c r="D34">
-        <v>92536.97</v>
+        <v>74021.679999999993</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -6138,13 +6138,13 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>63945.599999999999</v>
+        <v>69466.59</v>
       </c>
       <c r="C35">
-        <v>62449.58</v>
+        <v>76542.78</v>
       </c>
       <c r="D35">
-        <v>66396.759999999995</v>
+        <v>81820.86</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -6152,13 +6152,13 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>56711.35</v>
+        <v>34135.54</v>
       </c>
       <c r="C36">
-        <v>65066.94</v>
+        <v>41329.19</v>
       </c>
       <c r="D36">
-        <v>68845.42</v>
+        <v>39028.97</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -6166,13 +6166,13 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>38063.4</v>
+        <v>32112.69</v>
       </c>
       <c r="C37">
-        <v>43514.28</v>
+        <v>34648.949999999997</v>
       </c>
       <c r="D37">
-        <v>46172.4</v>
+        <v>37298.89</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -6180,13 +6180,13 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>45025.64</v>
+        <v>48740.24</v>
       </c>
       <c r="C38">
-        <v>52842.18</v>
+        <v>55693.3</v>
       </c>
       <c r="D38">
-        <v>56073.19</v>
+        <v>59469.48</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -6194,13 +6194,13 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>51000.18</v>
+        <v>44706</v>
       </c>
       <c r="C39">
-        <v>63793.26</v>
+        <v>50489.41</v>
       </c>
       <c r="D39">
-        <v>63973.64</v>
+        <v>54816.81</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -6208,13 +6208,13 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>41510.699999999997</v>
+        <v>39356.36</v>
       </c>
       <c r="C40">
-        <v>50862.23</v>
+        <v>43314.66</v>
       </c>
       <c r="D40">
-        <v>52113.96</v>
+        <v>47763.16</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -6222,13 +6222,13 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>19960.740000000002</v>
+        <v>23545.93</v>
       </c>
       <c r="C41">
-        <v>21318.76</v>
+        <v>23945.03</v>
       </c>
       <c r="D41">
-        <v>22654.6</v>
+        <v>26819.87</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -6236,13 +6236,13 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>30966.05</v>
+        <v>21548.81</v>
       </c>
       <c r="C42">
-        <v>41011.4</v>
+        <v>21171.09</v>
       </c>
       <c r="D42">
-        <v>40661.269999999997</v>
+        <v>24131.43</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -6250,13 +6250,13 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>26228.97</v>
+        <v>13623.31</v>
       </c>
       <c r="C43">
-        <v>33383.040000000001</v>
+        <v>12759.65</v>
       </c>
       <c r="D43">
-        <v>33016.050000000003</v>
+        <v>14940.49</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -6264,13 +6264,13 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>29739.82</v>
+        <v>13812.81</v>
       </c>
       <c r="C44">
-        <v>45308.97</v>
+        <v>12998.47</v>
       </c>
       <c r="D44">
-        <v>43595.1</v>
+        <v>15230.74</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -6278,13 +6278,13 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>19554.560000000001</v>
+        <v>9813.2800000000007</v>
       </c>
       <c r="C45">
-        <v>37617.230000000003</v>
+        <v>9105.7000000000007</v>
       </c>
       <c r="D45">
-        <v>34118.74</v>
+        <v>10619.37</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -6292,13 +6292,13 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>15987.97</v>
+        <v>9277.44</v>
       </c>
       <c r="C46">
-        <v>33535.35</v>
+        <v>9331.77</v>
       </c>
       <c r="D46">
-        <v>29886.87</v>
+        <v>10374.82</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -6306,13 +6306,13 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>10552.19</v>
+        <v>9040.34</v>
       </c>
       <c r="C47">
-        <v>26741.56</v>
+        <v>9379.01</v>
       </c>
       <c r="D47">
-        <v>23068.37</v>
+        <v>10429.4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -6320,13 +6320,13 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>7789.04</v>
+        <v>6864.57</v>
       </c>
       <c r="C48">
-        <v>18333.54</v>
+        <v>6992.36</v>
       </c>
       <c r="D48">
-        <v>16455.63</v>
+        <v>7933.52</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -6334,13 +6334,13 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>6057.45</v>
+        <v>4555.59</v>
       </c>
       <c r="C49">
-        <v>13948.21</v>
+        <v>4447.32</v>
       </c>
       <c r="D49">
-        <v>12088</v>
+        <v>5215.83</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -6348,13 +6348,13 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>4626.07</v>
+        <v>2705.38</v>
       </c>
       <c r="C50">
-        <v>6898.04</v>
+        <v>2555.3200000000002</v>
       </c>
       <c r="D50">
-        <v>6938.9</v>
+        <v>3036.14</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -6362,13 +6362,13 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>1356.71</v>
+        <v>1233.24</v>
       </c>
       <c r="C51">
-        <v>1694.57</v>
+        <v>1150.5999999999999</v>
       </c>
       <c r="D51">
-        <v>1756.9</v>
+        <v>1402.74</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6376,13 +6376,13 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>247.76</v>
+        <v>126.27</v>
       </c>
       <c r="C52">
-        <v>355.77</v>
+        <v>114.36</v>
       </c>
       <c r="D52">
-        <v>394.07</v>
+        <v>185.43</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">

--- a/download.xlsx
+++ b/download.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8235" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Day_1" sheetId="1" r:id="rId1"/>
@@ -1004,7 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -3327,7 +3327,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3353,742 +3353,265 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>687.78</v>
-      </c>
-      <c r="C3">
-        <v>420.37</v>
-      </c>
-      <c r="D3">
-        <v>532.91</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>1910.64</v>
-      </c>
-      <c r="C4">
-        <v>1295.05</v>
-      </c>
-      <c r="D4">
-        <v>1489.14</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>5136.49</v>
-      </c>
-      <c r="C5">
-        <v>2366.0100000000002</v>
-      </c>
-      <c r="D5">
-        <v>2830.37</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>16412.28</v>
-      </c>
-      <c r="C6">
-        <v>4798.95</v>
-      </c>
-      <c r="D6">
-        <v>6646.45</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>24129.19</v>
-      </c>
-      <c r="C7">
-        <v>7173.58</v>
-      </c>
-      <c r="D7">
-        <v>10457.81</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>31850.63</v>
-      </c>
-      <c r="C8">
-        <v>11844.21</v>
-      </c>
-      <c r="D8">
-        <v>16111.3</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>35012.870000000003</v>
-      </c>
-      <c r="C9">
-        <v>18503.75</v>
-      </c>
-      <c r="D9">
-        <v>20574.330000000002</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
-      <c r="B10">
-        <v>35377.879999999997</v>
-      </c>
-      <c r="C10">
-        <v>21239.75</v>
-      </c>
-      <c r="D10">
-        <v>23358.36</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>43011.71</v>
-      </c>
-      <c r="C11">
-        <v>27029.96</v>
-      </c>
-      <c r="D11">
-        <v>32111.55</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>62936.11</v>
-      </c>
-      <c r="C12">
-        <v>41794.65</v>
-      </c>
-      <c r="D12">
-        <v>49031.33</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>69042.86</v>
-      </c>
-      <c r="C13">
-        <v>49783.23</v>
-      </c>
-      <c r="D13">
-        <v>57410.45</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>69571.429999999993</v>
-      </c>
-      <c r="C14">
-        <v>51903.54</v>
-      </c>
-      <c r="D14">
-        <v>54410.91</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>69788.100000000006</v>
-      </c>
-      <c r="C15">
-        <v>53202.26</v>
-      </c>
-      <c r="D15">
-        <v>62491.9</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>33037.480000000003</v>
-      </c>
-      <c r="C16">
-        <v>27559.439999999999</v>
-      </c>
-      <c r="D16">
-        <v>31725.68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
-        <v>41401.4</v>
-      </c>
-      <c r="C17">
-        <v>34855.26</v>
-      </c>
-      <c r="D17">
-        <v>41012.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
-        <v>94920.77</v>
-      </c>
-      <c r="C18">
-        <v>80423.070000000007</v>
-      </c>
-      <c r="D18">
-        <v>91589.89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
-        <v>91328.79</v>
-      </c>
-      <c r="C19">
-        <v>80757.789999999994</v>
-      </c>
-      <c r="D19">
-        <v>90422.64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20">
-        <v>93676.07</v>
-      </c>
-      <c r="C20">
-        <v>82303.789999999994</v>
-      </c>
-      <c r="D20">
-        <v>92721.85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
-        <v>74208.06</v>
-      </c>
-      <c r="C21">
-        <v>67505.19</v>
-      </c>
-      <c r="D21">
-        <v>76198.679999999993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22">
-        <v>63202.53</v>
-      </c>
-      <c r="C22">
-        <v>68079.41</v>
-      </c>
-      <c r="D22">
-        <v>64097.599999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23">
-        <v>91364.31</v>
-      </c>
-      <c r="C23">
-        <v>88986.92</v>
-      </c>
-      <c r="D23">
-        <v>92672.85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24">
-        <v>97857.84</v>
-      </c>
-      <c r="C24">
-        <v>97391.74</v>
-      </c>
-      <c r="D24">
-        <v>99583.13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
-        <v>71800.47</v>
-      </c>
-      <c r="C25">
-        <v>72357.740000000005</v>
-      </c>
-      <c r="D25">
-        <v>67754</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
-        <v>15072.19</v>
-      </c>
-      <c r="C26">
-        <v>12510.02</v>
-      </c>
-      <c r="D26">
-        <v>15146.06</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27">
-        <v>33066.910000000003</v>
-      </c>
-      <c r="C27">
-        <v>30889.25</v>
-      </c>
-      <c r="D27">
-        <v>36053.480000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28">
-        <v>32604.23</v>
-      </c>
-      <c r="C28">
-        <v>34535.33</v>
-      </c>
-      <c r="D28">
-        <v>37327.120000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
-        <v>46310.52</v>
-      </c>
-      <c r="C29">
-        <v>47062.53</v>
-      </c>
-      <c r="D29">
-        <v>52022.32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
-        <v>35562.269999999997</v>
-      </c>
-      <c r="C30">
-        <v>36702.71</v>
-      </c>
-      <c r="D30">
-        <v>39781.93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
-        <v>35967.32</v>
-      </c>
-      <c r="C31">
-        <v>39061.08</v>
-      </c>
-      <c r="D31">
-        <v>41812.15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
-        <v>2501.58</v>
-      </c>
-      <c r="C32">
-        <v>2764.71</v>
-      </c>
-      <c r="D32">
-        <v>2669.47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33">
-        <v>1849.13</v>
-      </c>
-      <c r="C33">
-        <v>1950.37</v>
-      </c>
-      <c r="D33">
-        <v>2125.65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34">
-        <v>5514.91</v>
-      </c>
-      <c r="C34">
-        <v>5539.41</v>
-      </c>
-      <c r="D34">
-        <v>6076.58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35">
-        <v>9127.7099999999991</v>
-      </c>
-      <c r="C35">
-        <v>8253.9599999999991</v>
-      </c>
-      <c r="D35">
-        <v>9544.0300000000007</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36">
-        <v>18141.45</v>
-      </c>
-      <c r="C36">
-        <v>16442.52</v>
-      </c>
-      <c r="D36">
-        <v>18642.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37">
-        <v>22297.29</v>
-      </c>
-      <c r="C37">
-        <v>21075.26</v>
-      </c>
-      <c r="D37">
-        <v>23637.65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38">
-        <v>18886.5</v>
-      </c>
-      <c r="C38">
-        <v>18248.05</v>
-      </c>
-      <c r="D38">
-        <v>19968.84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39">
-        <v>22935.040000000001</v>
-      </c>
-      <c r="C39">
-        <v>22330.42</v>
-      </c>
-      <c r="D39">
-        <v>24438.880000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40">
-        <v>26552.46</v>
-      </c>
-      <c r="C40">
-        <v>26555.34</v>
-      </c>
-      <c r="D40">
-        <v>28805.33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41">
-        <v>14151.1</v>
-      </c>
-      <c r="C41">
-        <v>14012.55</v>
-      </c>
-      <c r="D41">
-        <v>15065.28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42">
-        <v>4985.38</v>
-      </c>
-      <c r="C42">
-        <v>5879.52</v>
-      </c>
-      <c r="D42">
-        <v>5692.18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B43">
-        <v>5430.4</v>
-      </c>
-      <c r="C43">
-        <v>6363.61</v>
-      </c>
-      <c r="D43">
-        <v>6410.9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44">
-        <v>6698.18</v>
-      </c>
-      <c r="C44">
-        <v>7579.11</v>
-      </c>
-      <c r="D44">
-        <v>7853.12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45">
-        <v>6101.15</v>
-      </c>
-      <c r="C45">
-        <v>7635.89</v>
-      </c>
-      <c r="D45">
-        <v>7504.49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46">
-        <v>5105.09</v>
-      </c>
-      <c r="C46">
-        <v>6077.35</v>
-      </c>
-      <c r="D46">
-        <v>6088.28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47">
-        <v>5290.61</v>
-      </c>
-      <c r="C47">
-        <v>6365.09</v>
-      </c>
-      <c r="D47">
-        <v>6095.35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48">
-        <v>4362.79</v>
-      </c>
-      <c r="C48">
-        <v>5315.91</v>
-      </c>
-      <c r="D48">
-        <v>5037.42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49">
-        <v>3698.15</v>
-      </c>
-      <c r="C49">
-        <v>4939.0200000000004</v>
-      </c>
-      <c r="D49">
-        <v>4516.03</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50">
-        <v>3407.84</v>
-      </c>
-      <c r="C50">
-        <v>5637.83</v>
-      </c>
-      <c r="D50">
-        <v>5346.46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51">
-        <v>2033.08</v>
-      </c>
-      <c r="C51">
-        <v>2629.54</v>
-      </c>
-      <c r="D51">
-        <v>2612.31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B52">
-        <v>367.68</v>
-      </c>
-      <c r="C52">
-        <v>508.06</v>
-      </c>
-      <c r="D52">
-        <v>495.15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4101,7 +3624,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B2" sqref="B2:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4127,742 +3650,265 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>605.73</v>
-      </c>
-      <c r="C3">
-        <v>325.02</v>
-      </c>
-      <c r="D3">
-        <v>391.63</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>2778.75</v>
-      </c>
-      <c r="C4">
-        <v>1851.44</v>
-      </c>
-      <c r="D4">
-        <v>1973.41</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>5706.44</v>
-      </c>
-      <c r="C5">
-        <v>3931.03</v>
-      </c>
-      <c r="D5">
-        <v>4149.7700000000004</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>10739.44</v>
-      </c>
-      <c r="C6">
-        <v>5489.15</v>
-      </c>
-      <c r="D6">
-        <v>6128.45</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>27817.89</v>
-      </c>
-      <c r="C7">
-        <v>10450.17</v>
-      </c>
-      <c r="D7">
-        <v>13235.06</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>34429.47</v>
-      </c>
-      <c r="C8">
-        <v>14221.46</v>
-      </c>
-      <c r="D8">
-        <v>18299.599999999999</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>38841.11</v>
-      </c>
-      <c r="C9">
-        <v>17612.88</v>
-      </c>
-      <c r="D9">
-        <v>22810.37</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
-      <c r="B10">
-        <v>43959.360000000001</v>
-      </c>
-      <c r="C10">
-        <v>22547.09</v>
-      </c>
-      <c r="D10">
-        <v>27740.5</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>50983.39</v>
-      </c>
-      <c r="C11">
-        <v>28946.68</v>
-      </c>
-      <c r="D11">
-        <v>34612.75</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>56741.95</v>
-      </c>
-      <c r="C12">
-        <v>34738.370000000003</v>
-      </c>
-      <c r="D12">
-        <v>41300.69</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>46112.12</v>
-      </c>
-      <c r="C13">
-        <v>40707.74</v>
-      </c>
-      <c r="D13">
-        <v>45832.85</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>48085.59</v>
-      </c>
-      <c r="C14">
-        <v>25179.86</v>
-      </c>
-      <c r="D14">
-        <v>36818.21</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>59556.04</v>
-      </c>
-      <c r="C15">
-        <v>37693.5</v>
-      </c>
-      <c r="D15">
-        <v>19182.46</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>64936.2</v>
-      </c>
-      <c r="C16">
-        <v>48537.57</v>
-      </c>
-      <c r="D16">
-        <v>56478.44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
-        <v>82836.72</v>
-      </c>
-      <c r="C17">
-        <v>69266.48</v>
-      </c>
-      <c r="D17">
-        <v>81197.66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
-        <v>74922.37</v>
-      </c>
-      <c r="C18">
-        <v>68995.929999999993</v>
-      </c>
-      <c r="D18">
-        <v>50562.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
-        <v>95338.74</v>
-      </c>
-      <c r="C19">
-        <v>82739.3</v>
-      </c>
-      <c r="D19">
-        <v>96662.64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20">
-        <v>50914.06</v>
-      </c>
-      <c r="C20">
-        <v>39501.599999999999</v>
-      </c>
-      <c r="D20">
-        <v>51879.22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
-        <v>18328.259999999998</v>
-      </c>
-      <c r="C21">
-        <v>18967.37</v>
-      </c>
-      <c r="D21">
-        <v>20916.740000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22">
-        <v>13845.12</v>
-      </c>
-      <c r="C22">
-        <v>15256.48</v>
-      </c>
-      <c r="D22">
-        <v>15448.84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23">
-        <v>15704.6</v>
-      </c>
-      <c r="C23">
-        <v>17186.95</v>
-      </c>
-      <c r="D23">
-        <v>17410.22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24">
-        <v>15418.91</v>
-      </c>
-      <c r="C24">
-        <v>15853.43</v>
-      </c>
-      <c r="D24">
-        <v>17701.93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
-        <v>14372.47</v>
-      </c>
-      <c r="C25">
-        <v>14189.4</v>
-      </c>
-      <c r="D25">
-        <v>16631.34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
-        <v>15343.45</v>
-      </c>
-      <c r="C26">
-        <v>16005.64</v>
-      </c>
-      <c r="D26">
-        <v>16850.240000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27">
-        <v>16120.95</v>
-      </c>
-      <c r="C27">
-        <v>17958</v>
-      </c>
-      <c r="D27">
-        <v>17768.240000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28">
-        <v>21267.77</v>
-      </c>
-      <c r="C28">
-        <v>23377.360000000001</v>
-      </c>
-      <c r="D28">
-        <v>23468.26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
-        <v>18792.849999999999</v>
-      </c>
-      <c r="C29">
-        <v>20992.84</v>
-      </c>
-      <c r="D29">
-        <v>21130.400000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
-        <v>23009.07</v>
-      </c>
-      <c r="C30">
-        <v>23328.16</v>
-      </c>
-      <c r="D30">
-        <v>23638.55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
-        <v>34401.93</v>
-      </c>
-      <c r="C31">
-        <v>35121.160000000003</v>
-      </c>
-      <c r="D31">
-        <v>36283.11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
-        <v>32442.03</v>
-      </c>
-      <c r="C32">
-        <v>35106.58</v>
-      </c>
-      <c r="D32">
-        <v>35953.56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33">
-        <v>31360.31</v>
-      </c>
-      <c r="C33">
-        <v>33395.29</v>
-      </c>
-      <c r="D33">
-        <v>34488.32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34">
-        <v>59972.02</v>
-      </c>
-      <c r="C34">
-        <v>62491.79</v>
-      </c>
-      <c r="D34">
-        <v>64643.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35">
-        <v>47126.5</v>
-      </c>
-      <c r="C35">
-        <v>52197.63</v>
-      </c>
-      <c r="D35">
-        <v>56691.94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36">
-        <v>40640.620000000003</v>
-      </c>
-      <c r="C36">
-        <v>44043.91</v>
-      </c>
-      <c r="D36">
-        <v>48415.12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37">
-        <v>33166.57</v>
-      </c>
-      <c r="C37">
-        <v>35345.33</v>
-      </c>
-      <c r="D37">
-        <v>38271.550000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38">
-        <v>25826.94</v>
-      </c>
-      <c r="C38">
-        <v>27276.560000000001</v>
-      </c>
-      <c r="D38">
-        <v>29290.83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39">
-        <v>44326.48</v>
-      </c>
-      <c r="C39">
-        <v>50215.5</v>
-      </c>
-      <c r="D39">
-        <v>54032.89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40">
-        <v>37575.49</v>
-      </c>
-      <c r="C40">
-        <v>41021.129999999997</v>
-      </c>
-      <c r="D40">
-        <v>44379.18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41">
-        <v>28360.55</v>
-      </c>
-      <c r="C41">
-        <v>31476.67</v>
-      </c>
-      <c r="D41">
-        <v>33563.11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42">
-        <v>26757.54</v>
-      </c>
-      <c r="C42">
-        <v>30627.93</v>
-      </c>
-      <c r="D42">
-        <v>32683.21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B43">
-        <v>21057.3</v>
-      </c>
-      <c r="C43">
-        <v>24210.89</v>
-      </c>
-      <c r="D43">
-        <v>26225.24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44">
-        <v>16844.37</v>
-      </c>
-      <c r="C44">
-        <v>19988.77</v>
-      </c>
-      <c r="D44">
-        <v>21086.080000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45">
-        <v>14622.77</v>
-      </c>
-      <c r="C45">
-        <v>17148.13</v>
-      </c>
-      <c r="D45">
-        <v>17668.849999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46">
-        <v>20005.41</v>
-      </c>
-      <c r="C46">
-        <v>26846.37</v>
-      </c>
-      <c r="D46">
-        <v>26724.16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47">
-        <v>16841.740000000002</v>
-      </c>
-      <c r="C47">
-        <v>25675.87</v>
-      </c>
-      <c r="D47">
-        <v>24764.61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48">
-        <v>11303.01</v>
-      </c>
-      <c r="C48">
-        <v>17439.310000000001</v>
-      </c>
-      <c r="D48">
-        <v>17426.849999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49">
-        <v>5483.72</v>
-      </c>
-      <c r="C49">
-        <v>7338.45</v>
-      </c>
-      <c r="D49">
-        <v>7693.29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50">
-        <v>3101.73</v>
-      </c>
-      <c r="C50">
-        <v>3505.32</v>
-      </c>
-      <c r="D50">
-        <v>3785.65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51">
-        <v>1616.53</v>
-      </c>
-      <c r="C51">
-        <v>1782.5</v>
-      </c>
-      <c r="D51">
-        <v>2020.36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B52">
-        <v>327.96</v>
-      </c>
-      <c r="C52">
-        <v>390.73</v>
-      </c>
-      <c r="D52">
-        <v>491.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4875,7 +3921,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B2" sqref="B2:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4901,742 +3947,265 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>961.75</v>
-      </c>
-      <c r="C3">
-        <v>552.42999999999995</v>
-      </c>
-      <c r="D3">
-        <v>691.4</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>4968.17</v>
-      </c>
-      <c r="C4">
-        <v>2562.9499999999998</v>
-      </c>
-      <c r="D4">
-        <v>2874.07</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>8849.14</v>
-      </c>
-      <c r="C5">
-        <v>4877.29</v>
-      </c>
-      <c r="D5">
-        <v>5488.12</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>7372.02</v>
-      </c>
-      <c r="C6">
-        <v>5483.58</v>
-      </c>
-      <c r="D6">
-        <v>6007.21</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>9699.61</v>
-      </c>
-      <c r="C7">
-        <v>8039.16</v>
-      </c>
-      <c r="D7">
-        <v>8519.91</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>14651.8</v>
-      </c>
-      <c r="C8">
-        <v>12626.13</v>
-      </c>
-      <c r="D8">
-        <v>13493.7</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>17459.919999999998</v>
-      </c>
-      <c r="C9">
-        <v>15673.27</v>
-      </c>
-      <c r="D9">
-        <v>17023.78</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
-      <c r="B10">
-        <v>19491.09</v>
-      </c>
-      <c r="C10">
-        <v>18093.75</v>
-      </c>
-      <c r="D10">
-        <v>19881.05</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>19068.68</v>
-      </c>
-      <c r="C11">
-        <v>17993.62</v>
-      </c>
-      <c r="D11">
-        <v>19937.18</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>20448.36</v>
-      </c>
-      <c r="C12">
-        <v>19441.099999999999</v>
-      </c>
-      <c r="D12">
-        <v>21506.01</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>24312.28</v>
-      </c>
-      <c r="C13">
-        <v>23103.919999999998</v>
-      </c>
-      <c r="D13">
-        <v>25677.23</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>25858.69</v>
-      </c>
-      <c r="C14">
-        <v>24577.919999999998</v>
-      </c>
-      <c r="D14">
-        <v>27271.200000000001</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>31171.61</v>
-      </c>
-      <c r="C15">
-        <v>29356.7</v>
-      </c>
-      <c r="D15">
-        <v>32553.11</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>39479.61</v>
-      </c>
-      <c r="C16">
-        <v>36370.129999999997</v>
-      </c>
-      <c r="D16">
-        <v>40547.07</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
-        <v>84446.71</v>
-      </c>
-      <c r="C17">
-        <v>77704.23</v>
-      </c>
-      <c r="D17">
-        <v>84545.08</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
-        <v>40535.67</v>
-      </c>
-      <c r="C18">
-        <v>39937.910000000003</v>
-      </c>
-      <c r="D18">
-        <v>45438.52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
-        <v>42649.45</v>
-      </c>
-      <c r="C19">
-        <v>40757.32</v>
-      </c>
-      <c r="D19">
-        <v>45420.57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20">
-        <v>43527.31</v>
-      </c>
-      <c r="C20">
-        <v>41463.32</v>
-      </c>
-      <c r="D20">
-        <v>46443.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
-        <v>47035.21</v>
-      </c>
-      <c r="C21">
-        <v>43468.73</v>
-      </c>
-      <c r="D21">
-        <v>49157.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22">
-        <v>99445.75</v>
-      </c>
-      <c r="C22">
-        <v>96872.29</v>
-      </c>
-      <c r="D22">
-        <v>99561.37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23">
-        <v>64261.24</v>
-      </c>
-      <c r="C23">
-        <v>65722.52</v>
-      </c>
-      <c r="D23">
-        <v>61324.88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24">
-        <v>63955.81</v>
-      </c>
-      <c r="C24">
-        <v>60945.01</v>
-      </c>
-      <c r="D24">
-        <v>66854.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
-        <v>50220.83</v>
-      </c>
-      <c r="C25">
-        <v>48533.14</v>
-      </c>
-      <c r="D25">
-        <v>51149.01</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
-        <v>96656.84</v>
-      </c>
-      <c r="C26">
-        <v>95484.9</v>
-      </c>
-      <c r="D26">
-        <v>99212.44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27">
-        <v>72678.63</v>
-      </c>
-      <c r="C27">
-        <v>73214.149999999994</v>
-      </c>
-      <c r="D27">
-        <v>77237.929999999993</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28">
-        <v>61581.35</v>
-      </c>
-      <c r="C28">
-        <v>59428.95</v>
-      </c>
-      <c r="D28">
-        <v>60319.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
-        <v>72150.95</v>
-      </c>
-      <c r="C29">
-        <v>62444.47</v>
-      </c>
-      <c r="D29">
-        <v>48619.66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
-        <v>96023.6</v>
-      </c>
-      <c r="C30">
-        <v>98721</v>
-      </c>
-      <c r="D30">
-        <v>100000.27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
-        <v>88021.35</v>
-      </c>
-      <c r="C31">
-        <v>95130.78</v>
-      </c>
-      <c r="D31">
-        <v>99833.56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
-        <v>89249.14</v>
-      </c>
-      <c r="C32">
-        <v>96647.94</v>
-      </c>
-      <c r="D32">
-        <v>99998.38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33">
-        <v>76733.19</v>
-      </c>
-      <c r="C33">
-        <v>74469.7</v>
-      </c>
-      <c r="D33">
-        <v>78347.73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34">
-        <v>42976.42</v>
-      </c>
-      <c r="C34">
-        <v>47439.15</v>
-      </c>
-      <c r="D34">
-        <v>49155.16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35">
-        <v>46270.76</v>
-      </c>
-      <c r="C35">
-        <v>47946.69</v>
-      </c>
-      <c r="D35">
-        <v>48578.32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36">
-        <v>18215.37</v>
-      </c>
-      <c r="C36">
-        <v>16918.91</v>
-      </c>
-      <c r="D36">
-        <v>18880.78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37">
-        <v>11099.21</v>
-      </c>
-      <c r="C37">
-        <v>11690.15</v>
-      </c>
-      <c r="D37">
-        <v>11906.52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38">
-        <v>12190.97</v>
-      </c>
-      <c r="C38">
-        <v>13810.21</v>
-      </c>
-      <c r="D38">
-        <v>13735.59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39">
-        <v>14563.64</v>
-      </c>
-      <c r="C39">
-        <v>16452.45</v>
-      </c>
-      <c r="D39">
-        <v>16733.45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40">
-        <v>14627.24</v>
-      </c>
-      <c r="C40">
-        <v>17510.23</v>
-      </c>
-      <c r="D40">
-        <v>17305.29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41">
-        <v>15420.32</v>
-      </c>
-      <c r="C41">
-        <v>16543.89</v>
-      </c>
-      <c r="D41">
-        <v>17138.78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42">
-        <v>13946.91</v>
-      </c>
-      <c r="C42">
-        <v>14136.83</v>
-      </c>
-      <c r="D42">
-        <v>14912.61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B43">
-        <v>10374.77</v>
-      </c>
-      <c r="C43">
-        <v>10487.15</v>
-      </c>
-      <c r="D43">
-        <v>11005.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44">
-        <v>12097.62</v>
-      </c>
-      <c r="C44">
-        <v>13319.54</v>
-      </c>
-      <c r="D44">
-        <v>13688.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45">
-        <v>11924.25</v>
-      </c>
-      <c r="C45">
-        <v>13146.77</v>
-      </c>
-      <c r="D45">
-        <v>14104.95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46">
-        <v>13864.45</v>
-      </c>
-      <c r="C46">
-        <v>16305.38</v>
-      </c>
-      <c r="D46">
-        <v>17274.599999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47">
-        <v>8522.68</v>
-      </c>
-      <c r="C47">
-        <v>9468.98</v>
-      </c>
-      <c r="D47">
-        <v>10368.280000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48">
-        <v>7427.79</v>
-      </c>
-      <c r="C48">
-        <v>8032.83</v>
-      </c>
-      <c r="D48">
-        <v>8969.98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49">
-        <v>4516.51</v>
-      </c>
-      <c r="C49">
-        <v>5066.7700000000004</v>
-      </c>
-      <c r="D49">
-        <v>5464.7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50">
-        <v>3773.81</v>
-      </c>
-      <c r="C50">
-        <v>3594.06</v>
-      </c>
-      <c r="D50">
-        <v>4107.78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51">
-        <v>2025.63</v>
-      </c>
-      <c r="C51">
-        <v>1924.5</v>
-      </c>
-      <c r="D51">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B52">
-        <v>286.37</v>
-      </c>
-      <c r="C52">
-        <v>289.47000000000003</v>
-      </c>
-      <c r="D52">
-        <v>344.88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5648,8 +4217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5675,742 +4244,265 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>664.75</v>
-      </c>
-      <c r="C3">
-        <v>490.15</v>
-      </c>
-      <c r="D3">
-        <v>580.91</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>3242.53</v>
-      </c>
-      <c r="C4">
-        <v>2405.7399999999998</v>
-      </c>
-      <c r="D4">
-        <v>2789.15</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>7256.95</v>
-      </c>
-      <c r="C5">
-        <v>5100.26</v>
-      </c>
-      <c r="D5">
-        <v>5886.65</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>13156.89</v>
-      </c>
-      <c r="C6">
-        <v>9049.15</v>
-      </c>
-      <c r="D6">
-        <v>10698.78</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>12775.33</v>
-      </c>
-      <c r="C7">
-        <v>10447.280000000001</v>
-      </c>
-      <c r="D7">
-        <v>12000.44</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>14725.28</v>
-      </c>
-      <c r="C8">
-        <v>12537.82</v>
-      </c>
-      <c r="D8">
-        <v>14253.18</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>16428.2</v>
-      </c>
-      <c r="C9">
-        <v>14022.61</v>
-      </c>
-      <c r="D9">
-        <v>15926.9</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
-      <c r="B10">
-        <v>14580.83</v>
-      </c>
-      <c r="C10">
-        <v>12820.82</v>
-      </c>
-      <c r="D10">
-        <v>14585.69</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>19542.62</v>
-      </c>
-      <c r="C11">
-        <v>18164.02</v>
-      </c>
-      <c r="D11">
-        <v>20064.330000000002</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>28762.04</v>
-      </c>
-      <c r="C12">
-        <v>26117.56</v>
-      </c>
-      <c r="D12">
-        <v>29442.86</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>28426.799999999999</v>
-      </c>
-      <c r="C13">
-        <v>25431.34</v>
-      </c>
-      <c r="D13">
-        <v>28631.67</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>33294</v>
-      </c>
-      <c r="C14">
-        <v>30723.97</v>
-      </c>
-      <c r="D14">
-        <v>33974.080000000002</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>30467.7</v>
-      </c>
-      <c r="C15">
-        <v>29261.759999999998</v>
-      </c>
-      <c r="D15">
-        <v>31351.759999999998</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>62899.98</v>
-      </c>
-      <c r="C16">
-        <v>53154.9</v>
-      </c>
-      <c r="D16">
-        <v>60795.45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
-        <v>50402.720000000001</v>
-      </c>
-      <c r="C17">
-        <v>44024.97</v>
-      </c>
-      <c r="D17">
-        <v>52609.65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
-        <v>51351.32</v>
-      </c>
-      <c r="C18">
-        <v>43274.18</v>
-      </c>
-      <c r="D18">
-        <v>45273.16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
-        <v>54583.72</v>
-      </c>
-      <c r="C19">
-        <v>48360.21</v>
-      </c>
-      <c r="D19">
-        <v>59419.42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20">
-        <v>65011.12</v>
-      </c>
-      <c r="C20">
-        <v>58984.39</v>
-      </c>
-      <c r="D20">
-        <v>71837.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
-        <v>58877.43</v>
-      </c>
-      <c r="C21">
-        <v>54153.41</v>
-      </c>
-      <c r="D21">
-        <v>61679.12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22">
-        <v>56868.639999999999</v>
-      </c>
-      <c r="C22">
-        <v>51106.14</v>
-      </c>
-      <c r="D22">
-        <v>60743.66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23">
-        <v>70663.31</v>
-      </c>
-      <c r="C23">
-        <v>65535.79</v>
-      </c>
-      <c r="D23">
-        <v>71877.72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24">
-        <v>89351.02</v>
-      </c>
-      <c r="C24">
-        <v>85894.35</v>
-      </c>
-      <c r="D24">
-        <v>85716.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
-        <v>78089.5</v>
-      </c>
-      <c r="C25">
-        <v>76437.59</v>
-      </c>
-      <c r="D25">
-        <v>83353.539999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
-        <v>90430.09</v>
-      </c>
-      <c r="C26">
-        <v>82269.23</v>
-      </c>
-      <c r="D26">
-        <v>98721.67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27">
-        <v>68487.27</v>
-      </c>
-      <c r="C27">
-        <v>67874.67</v>
-      </c>
-      <c r="D27">
-        <v>92090.32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28">
-        <v>62506.32</v>
-      </c>
-      <c r="C28">
-        <v>62417.48</v>
-      </c>
-      <c r="D28">
-        <v>74919.429999999993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
-        <v>65522.07</v>
-      </c>
-      <c r="C29">
-        <v>66811.17</v>
-      </c>
-      <c r="D29">
-        <v>73843.12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
-        <v>60594.33</v>
-      </c>
-      <c r="C30">
-        <v>62513.85</v>
-      </c>
-      <c r="D30">
-        <v>67813.429999999993</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
-        <v>53613.22</v>
-      </c>
-      <c r="C31">
-        <v>56355.21</v>
-      </c>
-      <c r="D31">
-        <v>61353.69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
-        <v>83568.899999999994</v>
-      </c>
-      <c r="C32">
-        <v>93437.19</v>
-      </c>
-      <c r="D32">
-        <v>99056.39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33">
-        <v>35058.74</v>
-      </c>
-      <c r="C33">
-        <v>37520.17</v>
-      </c>
-      <c r="D33">
-        <v>39899.83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34">
-        <v>64251.37</v>
-      </c>
-      <c r="C34">
-        <v>73440.070000000007</v>
-      </c>
-      <c r="D34">
-        <v>74021.679999999993</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35">
-        <v>69466.59</v>
-      </c>
-      <c r="C35">
-        <v>76542.78</v>
-      </c>
-      <c r="D35">
-        <v>81820.86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36">
-        <v>34135.54</v>
-      </c>
-      <c r="C36">
-        <v>41329.19</v>
-      </c>
-      <c r="D36">
-        <v>39028.97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37">
-        <v>32112.69</v>
-      </c>
-      <c r="C37">
-        <v>34648.949999999997</v>
-      </c>
-      <c r="D37">
-        <v>37298.89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38">
-        <v>48740.24</v>
-      </c>
-      <c r="C38">
-        <v>55693.3</v>
-      </c>
-      <c r="D38">
-        <v>59469.48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39">
-        <v>44706</v>
-      </c>
-      <c r="C39">
-        <v>50489.41</v>
-      </c>
-      <c r="D39">
-        <v>54816.81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40">
-        <v>39356.36</v>
-      </c>
-      <c r="C40">
-        <v>43314.66</v>
-      </c>
-      <c r="D40">
-        <v>47763.16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41">
-        <v>23545.93</v>
-      </c>
-      <c r="C41">
-        <v>23945.03</v>
-      </c>
-      <c r="D41">
-        <v>26819.87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42">
-        <v>21548.81</v>
-      </c>
-      <c r="C42">
-        <v>21171.09</v>
-      </c>
-      <c r="D42">
-        <v>24131.43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B43">
-        <v>13623.31</v>
-      </c>
-      <c r="C43">
-        <v>12759.65</v>
-      </c>
-      <c r="D43">
-        <v>14940.49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44">
-        <v>13812.81</v>
-      </c>
-      <c r="C44">
-        <v>12998.47</v>
-      </c>
-      <c r="D44">
-        <v>15230.74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45">
-        <v>9813.2800000000007</v>
-      </c>
-      <c r="C45">
-        <v>9105.7000000000007</v>
-      </c>
-      <c r="D45">
-        <v>10619.37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46">
-        <v>9277.44</v>
-      </c>
-      <c r="C46">
-        <v>9331.77</v>
-      </c>
-      <c r="D46">
-        <v>10374.82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47">
-        <v>9040.34</v>
-      </c>
-      <c r="C47">
-        <v>9379.01</v>
-      </c>
-      <c r="D47">
-        <v>10429.4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48">
-        <v>6864.57</v>
-      </c>
-      <c r="C48">
-        <v>6992.36</v>
-      </c>
-      <c r="D48">
-        <v>7933.52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49">
-        <v>4555.59</v>
-      </c>
-      <c r="C49">
-        <v>4447.32</v>
-      </c>
-      <c r="D49">
-        <v>5215.83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50">
-        <v>2705.38</v>
-      </c>
-      <c r="C50">
-        <v>2555.3200000000002</v>
-      </c>
-      <c r="D50">
-        <v>3036.14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51">
-        <v>1233.24</v>
-      </c>
-      <c r="C51">
-        <v>1150.5999999999999</v>
-      </c>
-      <c r="D51">
-        <v>1402.74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B52">
-        <v>126.27</v>
-      </c>
-      <c r="C52">
-        <v>114.36</v>
-      </c>
-      <c r="D52">
-        <v>185.43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/download.xlsx
+++ b/download.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8235" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8235" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Day_1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Day_5" sheetId="5" r:id="rId5"/>
     <sheet name="Day_6" sheetId="6" r:id="rId6"/>
     <sheet name="Day_7" sheetId="7" r:id="rId7"/>
+    <sheet name="Daily_energy" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="60">
   <si>
     <t>time</t>
   </si>
@@ -202,6 +203,9 @@
   </si>
   <si>
     <t>PVS-100-TL-OUTD SN 115201-3Q15-4020</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -685,8 +689,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7598,7 +7605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
@@ -8690,4 +8697,179 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>247</v>
+      </c>
+      <c r="C2">
+        <v>239</v>
+      </c>
+      <c r="D2">
+        <v>248</v>
+      </c>
+      <c r="E2">
+        <v>248</v>
+      </c>
+      <c r="F2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>556</v>
+      </c>
+      <c r="C3">
+        <v>533</v>
+      </c>
+      <c r="D3">
+        <v>556</v>
+      </c>
+      <c r="E3">
+        <v>547</v>
+      </c>
+      <c r="F3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>510</v>
+      </c>
+      <c r="C4">
+        <v>436</v>
+      </c>
+      <c r="D4">
+        <v>485</v>
+      </c>
+      <c r="E4">
+        <v>505</v>
+      </c>
+      <c r="F4">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>543</v>
+      </c>
+      <c r="C5">
+        <v>549</v>
+      </c>
+      <c r="D5">
+        <v>557</v>
+      </c>
+      <c r="E5">
+        <v>534</v>
+      </c>
+      <c r="F5">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>392</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>402</v>
+      </c>
+      <c r="E6">
+        <v>387</v>
+      </c>
+      <c r="F6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>349</v>
+      </c>
+      <c r="C7">
+        <v>358</v>
+      </c>
+      <c r="D7">
+        <v>361</v>
+      </c>
+      <c r="E7">
+        <v>345</v>
+      </c>
+      <c r="F7">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>311</v>
+      </c>
+      <c r="C8">
+        <v>313</v>
+      </c>
+      <c r="D8">
+        <v>319</v>
+      </c>
+      <c r="E8">
+        <v>308</v>
+      </c>
+      <c r="F8">
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/download.xlsx
+++ b/download.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phamd\OneDrive\Máy tính\Study\create_CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phamd\OneDrive\Máy tính\Study\Scripts_csv-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8235" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8235" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Day_1" sheetId="1" r:id="rId1"/>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,19 +1071,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>133.05000000000001</v>
+        <v>545.54</v>
       </c>
       <c r="C3">
-        <v>135.83000000000001</v>
+        <v>810.26</v>
       </c>
       <c r="D3">
-        <v>161.30000000000001</v>
+        <v>716.74</v>
       </c>
       <c r="E3">
-        <v>114.73</v>
+        <v>510.24</v>
       </c>
       <c r="F3">
-        <v>170.61</v>
+        <v>919.61</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1091,19 +1091,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>865.08</v>
+        <v>2698.32</v>
       </c>
       <c r="C4">
-        <v>813.47</v>
+        <v>4868.8599999999997</v>
       </c>
       <c r="D4">
-        <v>893.73</v>
+        <v>3594.56</v>
       </c>
       <c r="E4">
-        <v>877.39</v>
+        <v>2622.12</v>
       </c>
       <c r="F4">
-        <v>903.15</v>
+        <v>5429.24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1111,19 +1111,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2097.9699999999998</v>
+        <v>4731.8999999999996</v>
       </c>
       <c r="C5">
-        <v>1985.38</v>
+        <v>7441.09</v>
       </c>
       <c r="D5">
-        <v>2123.81</v>
+        <v>5880.9</v>
       </c>
       <c r="E5">
-        <v>2137.92</v>
+        <v>4642.1099999999997</v>
       </c>
       <c r="F5">
-        <v>2143.4899999999998</v>
+        <v>8051.7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,19 +1131,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3904.91</v>
+        <v>7435.44</v>
       </c>
       <c r="C6">
-        <v>3659.69</v>
+        <v>13392.41</v>
       </c>
       <c r="D6">
-        <v>3926.84</v>
+        <v>10316.99</v>
       </c>
       <c r="E6">
-        <v>3981.34</v>
+        <v>7005.78</v>
       </c>
       <c r="F6">
-        <v>3942.87</v>
+        <v>14392.9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1151,19 +1151,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4073.86</v>
+        <v>9597.4699999999993</v>
       </c>
       <c r="C7">
-        <v>3784.34</v>
+        <v>15331.15</v>
       </c>
       <c r="D7">
-        <v>4068.48</v>
+        <v>12555.44</v>
       </c>
       <c r="E7">
-        <v>4167.46</v>
+        <v>9142.1200000000008</v>
       </c>
       <c r="F7">
-        <v>4063.32</v>
+        <v>16391.04</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1171,19 +1171,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4524.42</v>
+        <v>12363.32</v>
       </c>
       <c r="C8">
-        <v>4345.7</v>
+        <v>16374.54</v>
       </c>
       <c r="D8">
-        <v>4556.87</v>
+        <v>14684.62</v>
       </c>
       <c r="E8">
-        <v>4619.0600000000004</v>
+        <v>12086.72</v>
       </c>
       <c r="F8">
-        <v>4676.22</v>
+        <v>17641.669999999998</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1191,19 +1191,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8174.85</v>
+        <v>16772.21</v>
       </c>
       <c r="C9">
-        <v>7867.87</v>
+        <v>24029.52</v>
       </c>
       <c r="D9">
-        <v>8200.83</v>
+        <v>20434.23</v>
       </c>
       <c r="E9">
-        <v>8269.41</v>
+        <v>16344.96</v>
       </c>
       <c r="F9">
-        <v>8389.23</v>
+        <v>25410.73</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1211,19 +1211,19 @@
         <v>53</v>
       </c>
       <c r="B10">
-        <v>12421.41</v>
+        <v>22290.080000000002</v>
       </c>
       <c r="C10">
-        <v>11960.73</v>
+        <v>31788</v>
       </c>
       <c r="D10">
-        <v>12528</v>
+        <v>27209.08</v>
       </c>
       <c r="E10">
-        <v>12508.5</v>
+        <v>21796.22</v>
       </c>
       <c r="F10">
-        <v>12764.88</v>
+        <v>33734.959999999999</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1231,19 +1231,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15936.79</v>
+        <v>34155.06</v>
       </c>
       <c r="C11">
-        <v>15253.75</v>
+        <v>48570.18</v>
       </c>
       <c r="D11">
-        <v>16008.94</v>
+        <v>40975.64</v>
       </c>
       <c r="E11">
-        <v>16036.65</v>
+        <v>33929.19</v>
       </c>
       <c r="F11">
-        <v>16272.18</v>
+        <v>51224.29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1251,19 +1251,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22693.08</v>
+        <v>32616.98</v>
       </c>
       <c r="C12">
-        <v>22455.57</v>
+        <v>44642.29</v>
       </c>
       <c r="D12">
-        <v>23236.86</v>
+        <v>33751.800000000003</v>
       </c>
       <c r="E12">
-        <v>22818.15</v>
+        <v>33706.18</v>
       </c>
       <c r="F12">
-        <v>23969.03</v>
+        <v>44782.69</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1271,19 +1271,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28407.07</v>
+        <v>55893.65</v>
       </c>
       <c r="C13">
-        <v>28250.01</v>
+        <v>71909.61</v>
       </c>
       <c r="D13">
-        <v>28930.98</v>
+        <v>64980.55</v>
       </c>
       <c r="E13">
-        <v>28622.01</v>
+        <v>55053.18</v>
       </c>
       <c r="F13">
-        <v>30151.7</v>
+        <v>76322.990000000005</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1291,19 +1291,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30745.83</v>
+        <v>57735.839999999997</v>
       </c>
       <c r="C14">
-        <v>30887.22</v>
+        <v>71713.820000000007</v>
       </c>
       <c r="D14">
-        <v>31312.48</v>
+        <v>65701.05</v>
       </c>
       <c r="E14">
-        <v>30954.5</v>
+        <v>56893.84</v>
       </c>
       <c r="F14">
-        <v>32756.3</v>
+        <v>76415.259999999995</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1311,19 +1311,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32282.31</v>
+        <v>51298.05</v>
       </c>
       <c r="C15">
-        <v>33069.67</v>
+        <v>60095.03</v>
       </c>
       <c r="D15">
-        <v>34111.19</v>
+        <v>54647.28</v>
       </c>
       <c r="E15">
-        <v>32248</v>
+        <v>51904.01</v>
       </c>
       <c r="F15">
-        <v>35451.51</v>
+        <v>63030.44</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,19 +1331,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35966.97</v>
+        <v>50280.33</v>
       </c>
       <c r="C16">
-        <v>36242.6</v>
+        <v>57732.67</v>
       </c>
       <c r="D16">
-        <v>37263.25</v>
+        <v>59744.76</v>
       </c>
       <c r="E16">
-        <v>35912.18</v>
+        <v>51691.7</v>
       </c>
       <c r="F16">
-        <v>38394.92</v>
+        <v>63588.7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1351,19 +1351,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34999.46</v>
+        <v>58295.71</v>
       </c>
       <c r="C17">
-        <v>35075.89</v>
+        <v>64172.2</v>
       </c>
       <c r="D17">
-        <v>35563.839999999997</v>
+        <v>60845.84</v>
       </c>
       <c r="E17">
-        <v>35367.71</v>
+        <v>61589.279999999999</v>
       </c>
       <c r="F17">
-        <v>37377.870000000003</v>
+        <v>66652.63</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1371,19 +1371,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26633</v>
+        <v>89440.44</v>
       </c>
       <c r="C18">
-        <v>25610.79</v>
+        <v>94321.36</v>
       </c>
       <c r="D18">
-        <v>26494.1</v>
+        <v>90579.57</v>
       </c>
       <c r="E18">
-        <v>26939.99</v>
+        <v>89497.88</v>
       </c>
       <c r="F18">
-        <v>27187.14</v>
+        <v>96961.01</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1391,19 +1391,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32187.72</v>
+        <v>89198.18</v>
       </c>
       <c r="C19">
-        <v>33564.6</v>
+        <v>92018.37</v>
       </c>
       <c r="D19">
-        <v>33178.19</v>
+        <v>93570.77</v>
       </c>
       <c r="E19">
-        <v>32797.58</v>
+        <v>86128.59</v>
       </c>
       <c r="F19">
-        <v>35756.21</v>
+        <v>99229.22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1411,19 +1411,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>38180.33</v>
+        <v>83081.69</v>
       </c>
       <c r="C20">
-        <v>36422.94</v>
+        <v>89420.95</v>
       </c>
       <c r="D20">
-        <v>38683.699999999997</v>
+        <v>81845.42</v>
       </c>
       <c r="E20">
-        <v>38626.21</v>
+        <v>82717.789999999994</v>
       </c>
       <c r="F20">
-        <v>38612.39</v>
+        <v>93894.95</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1431,19 +1431,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>54669.919999999998</v>
+        <v>89229.08</v>
       </c>
       <c r="C21">
-        <v>55357.14</v>
+        <v>92391.4</v>
       </c>
       <c r="D21">
-        <v>57576.75</v>
+        <v>92371.72</v>
       </c>
       <c r="E21">
-        <v>56032.21</v>
+        <v>88012.01</v>
       </c>
       <c r="F21">
-        <v>59869.31</v>
+        <v>98700.98</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1451,19 +1451,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>55851.27</v>
+        <v>89329.01</v>
       </c>
       <c r="C22">
-        <v>55044.52</v>
+        <v>90401.16</v>
       </c>
       <c r="D22">
-        <v>57265.47</v>
+        <v>91874.22</v>
       </c>
       <c r="E22">
-        <v>56088.74</v>
+        <v>89376.68</v>
       </c>
       <c r="F22">
-        <v>58742.85</v>
+        <v>96527.67</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1471,19 +1471,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>46857.4</v>
+        <v>69701.67</v>
       </c>
       <c r="C23">
-        <v>45375.78</v>
+        <v>71778.720000000001</v>
       </c>
       <c r="D23">
-        <v>46276.15</v>
+        <v>76150.539999999994</v>
       </c>
       <c r="E23">
-        <v>47614.46</v>
+        <v>73396.990000000005</v>
       </c>
       <c r="F23">
-        <v>47971.93</v>
+        <v>75633.91</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1491,19 +1491,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>48432.6</v>
+        <v>95400.11</v>
       </c>
       <c r="C24">
-        <v>46133.04</v>
+        <v>93105.95</v>
       </c>
       <c r="D24">
-        <v>50412.639999999999</v>
+        <v>96926.6</v>
       </c>
       <c r="E24">
-        <v>47661.13</v>
+        <v>96021.94</v>
       </c>
       <c r="F24">
-        <v>48741.51</v>
+        <v>98603.18</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1511,19 +1511,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13306.15</v>
+        <v>77807.48</v>
       </c>
       <c r="C25">
-        <v>13588.94</v>
+        <v>75444.539999999994</v>
       </c>
       <c r="D25">
-        <v>13467.42</v>
+        <v>76428.22</v>
       </c>
       <c r="E25">
-        <v>13643.17</v>
+        <v>77843.33</v>
       </c>
       <c r="F25">
-        <v>14681.3</v>
+        <v>78755.42</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1531,19 +1531,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>48293</v>
+        <v>87146.36</v>
       </c>
       <c r="C26">
-        <v>46697.3</v>
+        <v>90820.02</v>
       </c>
       <c r="D26">
-        <v>49555.46</v>
+        <v>87381.88</v>
       </c>
       <c r="E26">
-        <v>53036.959999999999</v>
+        <v>93949.68</v>
       </c>
       <c r="F26">
-        <v>44776.43</v>
+        <v>86350.21</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1551,19 +1551,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>69893.52</v>
+        <v>83172.88</v>
       </c>
       <c r="C27">
-        <v>75730.679999999993</v>
+        <v>80817.289999999994</v>
       </c>
       <c r="D27">
-        <v>70131.13</v>
+        <v>99532.54</v>
       </c>
       <c r="E27">
-        <v>70854.55</v>
+        <v>95370.36</v>
       </c>
       <c r="F27">
-        <v>73612.53</v>
+        <v>96224.4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1571,19 +1571,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>67670.28</v>
+        <v>75301.990000000005</v>
       </c>
       <c r="C28">
-        <v>61007.199999999997</v>
+        <v>62818.18</v>
       </c>
       <c r="D28">
-        <v>67523.22</v>
+        <v>55625.1</v>
       </c>
       <c r="E28">
-        <v>68788.600000000006</v>
+        <v>58384.34</v>
       </c>
       <c r="F28">
-        <v>64284.85</v>
+        <v>68742.19</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1591,19 +1591,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>16549.53</v>
+        <v>80988.62</v>
       </c>
       <c r="C29">
-        <v>16936.59</v>
+        <v>75313.210000000006</v>
       </c>
       <c r="D29">
-        <v>17265.28</v>
+        <v>77312.429999999993</v>
       </c>
       <c r="E29">
-        <v>16686.29</v>
+        <v>81171.710000000006</v>
       </c>
       <c r="F29">
-        <v>18268.79</v>
+        <v>80228.789999999994</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1611,19 +1611,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>8581.5</v>
+        <v>83488.850000000006</v>
       </c>
       <c r="C30">
-        <v>7743.32</v>
+        <v>77994.61</v>
       </c>
       <c r="D30">
-        <v>8292.1200000000008</v>
+        <v>82266.880000000005</v>
       </c>
       <c r="E30">
-        <v>8769.9</v>
+        <v>83887.41</v>
       </c>
       <c r="F30">
-        <v>8242.85</v>
+        <v>81613.259999999995</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1631,19 +1631,19 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>6483.12</v>
+        <v>65841.88</v>
       </c>
       <c r="C31">
-        <v>6063.05</v>
+        <v>58170.42</v>
       </c>
       <c r="D31">
-        <v>6516.19</v>
+        <v>65003.93</v>
       </c>
       <c r="E31">
-        <v>6591.63</v>
+        <v>66469.039999999994</v>
       </c>
       <c r="F31">
-        <v>6534.37</v>
+        <v>62193.43</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1651,19 +1651,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6882.08</v>
+        <v>67353.86</v>
       </c>
       <c r="C32">
-        <v>6181.99</v>
+        <v>59536.95</v>
       </c>
       <c r="D32">
-        <v>6704.35</v>
+        <v>65195.58</v>
       </c>
       <c r="E32">
-        <v>6990.7</v>
+        <v>68102.94</v>
       </c>
       <c r="F32">
-        <v>6648.31</v>
+        <v>63532.01</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1671,19 +1671,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5652.59</v>
+        <v>39179.360000000001</v>
       </c>
       <c r="C33">
-        <v>4995.33</v>
+        <v>39572.79</v>
       </c>
       <c r="D33">
-        <v>5478.09</v>
+        <v>36769.24</v>
       </c>
       <c r="E33">
-        <v>5765.57</v>
+        <v>43848.95</v>
       </c>
       <c r="F33">
-        <v>5368.63</v>
+        <v>38389.160000000003</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1691,19 +1691,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5924.01</v>
+        <v>70328.05</v>
       </c>
       <c r="C34">
-        <v>5295.41</v>
+        <v>63825.67</v>
       </c>
       <c r="D34">
-        <v>5752.46</v>
+        <v>65231.97</v>
       </c>
       <c r="E34">
-        <v>6030.6</v>
+        <v>68433.600000000006</v>
       </c>
       <c r="F34">
-        <v>5686.74</v>
+        <v>69750.86</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1711,19 +1711,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7143.89</v>
+        <v>62701.29</v>
       </c>
       <c r="C35">
-        <v>6364.31</v>
+        <v>52045.99</v>
       </c>
       <c r="D35">
-        <v>6932.39</v>
+        <v>62110.27</v>
       </c>
       <c r="E35">
-        <v>7251.72</v>
+        <v>60112.17</v>
       </c>
       <c r="F35">
-        <v>6811.46</v>
+        <v>59795.06</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1731,19 +1731,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>8131.76</v>
+        <v>51635.360000000001</v>
       </c>
       <c r="C36">
-        <v>7225.35</v>
+        <v>45434.95</v>
       </c>
       <c r="D36">
-        <v>7935.27</v>
+        <v>53265.4</v>
       </c>
       <c r="E36">
-        <v>8231.4699999999993</v>
+        <v>51726.03</v>
       </c>
       <c r="F36">
-        <v>7743.96</v>
+        <v>48653.73</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,19 +1751,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>11620.42</v>
+        <v>63113.69</v>
       </c>
       <c r="C37">
-        <v>10452.94</v>
+        <v>57366.69</v>
       </c>
       <c r="D37">
-        <v>11401.59</v>
+        <v>60314.8</v>
       </c>
       <c r="E37">
-        <v>11739.37</v>
+        <v>56714.76</v>
       </c>
       <c r="F37">
-        <v>11186.33</v>
+        <v>59315.7</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1771,19 +1771,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>14565.81</v>
+        <v>30740.57</v>
       </c>
       <c r="C38">
-        <v>13445.95</v>
+        <v>27526.61</v>
       </c>
       <c r="D38">
-        <v>14481.74</v>
+        <v>29879.49</v>
       </c>
       <c r="E38">
-        <v>14698.26</v>
+        <v>31142.5</v>
       </c>
       <c r="F38">
-        <v>14402.65</v>
+        <v>29384.27</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1791,19 +1791,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>14179.99</v>
+        <v>49009.74</v>
       </c>
       <c r="C39">
-        <v>13056.72</v>
+        <v>39977.089999999997</v>
       </c>
       <c r="D39">
-        <v>14070.2</v>
+        <v>45976.77</v>
       </c>
       <c r="E39">
-        <v>14326.19</v>
+        <v>49656.81</v>
       </c>
       <c r="F39">
-        <v>13983.75</v>
+        <v>42653.65</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1811,19 +1811,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>13698.7</v>
+        <v>21300.2</v>
       </c>
       <c r="C40">
-        <v>12597.64</v>
+        <v>19511.32</v>
       </c>
       <c r="D40">
-        <v>13542.27</v>
+        <v>21157.95</v>
       </c>
       <c r="E40">
-        <v>13839.99</v>
+        <v>21484.01</v>
       </c>
       <c r="F40">
-        <v>13473.39</v>
+        <v>20887.39</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1831,19 +1831,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>16649.150000000001</v>
+        <v>29340.23</v>
       </c>
       <c r="C41">
-        <v>15257.65</v>
+        <v>25827.94</v>
       </c>
       <c r="D41">
-        <v>16369.55</v>
+        <v>27907.65</v>
       </c>
       <c r="E41">
-        <v>16826.95</v>
+        <v>29958.27</v>
       </c>
       <c r="F41">
-        <v>16287.04</v>
+        <v>27645.57</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>17067.03</v>
+        <v>23415.95</v>
       </c>
       <c r="C42">
-        <v>15784.6</v>
+        <v>20509.29</v>
       </c>
       <c r="D42">
-        <v>16905.599999999999</v>
+        <v>22345.49</v>
       </c>
       <c r="E42">
-        <v>17244.84</v>
+        <v>23770.67</v>
       </c>
       <c r="F42">
-        <v>16879.330000000002</v>
+        <v>21810.95</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1871,19 +1871,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>16550.650000000001</v>
+        <v>29911.33</v>
       </c>
       <c r="C43">
-        <v>15120.38</v>
+        <v>23747.93</v>
       </c>
       <c r="D43">
-        <v>16309.01</v>
+        <v>27910.35</v>
       </c>
       <c r="E43">
-        <v>16718.57</v>
+        <v>30141.47</v>
       </c>
       <c r="F43">
-        <v>16170.47</v>
+        <v>25548.639999999999</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1891,19 +1891,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>15645.71</v>
+        <v>25074.05</v>
       </c>
       <c r="C44">
-        <v>13959.43</v>
+        <v>20424.07</v>
       </c>
       <c r="D44">
-        <v>15259.07</v>
+        <v>23286.87</v>
       </c>
       <c r="E44">
-        <v>15839.06</v>
+        <v>25477.57</v>
       </c>
       <c r="F44">
-        <v>14933.18</v>
+        <v>21842.79</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,19 +1911,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>11212.49</v>
+        <v>14260.92</v>
       </c>
       <c r="C45">
-        <v>10106.91</v>
+        <v>12803.42</v>
       </c>
       <c r="D45">
-        <v>11029.76</v>
+        <v>13802.44</v>
       </c>
       <c r="E45">
-        <v>11352.11</v>
+        <v>14548.21</v>
       </c>
       <c r="F45">
-        <v>10805.77</v>
+        <v>13644.57</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1931,19 +1931,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>10087.969999999999</v>
+        <v>8178.05</v>
       </c>
       <c r="C46">
-        <v>8903.67</v>
+        <v>7723.95</v>
       </c>
       <c r="D46">
-        <v>9850.5499999999993</v>
+        <v>8222.94</v>
       </c>
       <c r="E46">
-        <v>10215.14</v>
+        <v>8284.01</v>
       </c>
       <c r="F46">
-        <v>9565.77</v>
+        <v>8285.02</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,19 +1951,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>8853.01</v>
+        <v>5593.38</v>
       </c>
       <c r="C47">
-        <v>8043.49</v>
+        <v>4849.47</v>
       </c>
       <c r="D47">
-        <v>8734.24</v>
+        <v>5638.12</v>
       </c>
       <c r="E47">
-        <v>8961.76</v>
+        <v>5656.44</v>
       </c>
       <c r="F47">
-        <v>8634.65</v>
+        <v>5284.29</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1971,19 +1971,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7997.24</v>
+        <v>3860.7</v>
       </c>
       <c r="C48">
-        <v>7115.87</v>
+        <v>3561.46</v>
       </c>
       <c r="D48">
-        <v>7799.4</v>
+        <v>3874.13</v>
       </c>
       <c r="E48">
-        <v>8103.15</v>
+        <v>3959.18</v>
       </c>
       <c r="F48">
-        <v>7643.43</v>
+        <v>3853.95</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1991,19 +1991,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6203.02</v>
+        <v>4980.8</v>
       </c>
       <c r="C49">
-        <v>5900.69</v>
+        <v>4362.26</v>
       </c>
       <c r="D49">
-        <v>6251.82</v>
+        <v>4811.1400000000003</v>
       </c>
       <c r="E49">
-        <v>6287.38</v>
+        <v>5108.8500000000004</v>
       </c>
       <c r="F49">
-        <v>6341.14</v>
+        <v>4668.9399999999996</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2011,19 +2011,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4556.59</v>
+        <v>2741.39</v>
       </c>
       <c r="C50">
-        <v>4169.3999999999996</v>
+        <v>2311.6999999999998</v>
       </c>
       <c r="D50">
-        <v>4534.3</v>
+        <v>2651.91</v>
       </c>
       <c r="E50">
-        <v>4623.9399999999996</v>
+        <v>2824.05</v>
       </c>
       <c r="F50">
-        <v>4481.99</v>
+        <v>2505.58</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2031,19 +2031,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1397.72</v>
+        <v>1163.98</v>
       </c>
       <c r="C51">
-        <v>1377.73</v>
+        <v>937</v>
       </c>
       <c r="D51">
-        <v>1448.14</v>
+        <v>1118.25</v>
       </c>
       <c r="E51">
-        <v>1443.28</v>
+        <v>1209.3900000000001</v>
       </c>
       <c r="F51">
-        <v>1513.62</v>
+        <v>1036.2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,19 +2051,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>229.89</v>
+        <v>192.66</v>
       </c>
       <c r="C52">
-        <v>229.8</v>
+        <v>134.72</v>
       </c>
       <c r="D52">
-        <v>250.66</v>
+        <v>183.81</v>
       </c>
       <c r="E52">
-        <v>243.76</v>
+        <v>196.48</v>
       </c>
       <c r="F52">
-        <v>275.18</v>
+        <v>166.87</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2115,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2169,19 +2169,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>186.55</v>
+        <v>346.11</v>
       </c>
       <c r="C3">
-        <v>191.65</v>
+        <v>240.25</v>
       </c>
       <c r="D3">
-        <v>208.33</v>
+        <v>391.41</v>
       </c>
       <c r="E3">
-        <v>195.95</v>
+        <v>353.77</v>
       </c>
       <c r="F3">
-        <v>241.17</v>
+        <v>419.06</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2189,19 +2189,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1014.51</v>
+        <v>2340.9299999999998</v>
       </c>
       <c r="C4">
-        <v>1085.6099999999999</v>
+        <v>2369.36</v>
       </c>
       <c r="D4">
-        <v>1104.3699999999999</v>
+        <v>2454.0100000000002</v>
       </c>
       <c r="E4">
-        <v>1032.81</v>
+        <v>2359.61</v>
       </c>
       <c r="F4">
-        <v>1203.6400000000001</v>
+        <v>2578.4499999999998</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2209,19 +2209,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1908.75</v>
+        <v>4138.12</v>
       </c>
       <c r="C5">
-        <v>2032.1</v>
+        <v>4233.78</v>
       </c>
       <c r="D5">
-        <v>2058.98</v>
+        <v>4274.7700000000004</v>
       </c>
       <c r="E5">
-        <v>1948.46</v>
+        <v>4205.7</v>
       </c>
       <c r="F5">
-        <v>2208.41</v>
+        <v>4535.26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2229,19 +2229,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3022.15</v>
+        <v>6580.98</v>
       </c>
       <c r="C6">
-        <v>3191.57</v>
+        <v>6928.77</v>
       </c>
       <c r="D6">
-        <v>3210.28</v>
+        <v>6920.79</v>
       </c>
       <c r="E6">
-        <v>3093.88</v>
+        <v>6609.86</v>
       </c>
       <c r="F6">
-        <v>3470.75</v>
+        <v>7441.67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2249,19 +2249,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6135.6</v>
+        <v>9998.31</v>
       </c>
       <c r="C7">
-        <v>6797.49</v>
+        <v>11332.75</v>
       </c>
       <c r="D7">
-        <v>6560.22</v>
+        <v>10796.43</v>
       </c>
       <c r="E7">
-        <v>6171.32</v>
+        <v>10002.030000000001</v>
       </c>
       <c r="F7">
-        <v>7283.01</v>
+        <v>12152.88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2269,19 +2269,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>13394.04</v>
+        <v>15431.22</v>
       </c>
       <c r="C8">
-        <v>19858.439999999999</v>
+        <v>20417.57</v>
       </c>
       <c r="D8">
-        <v>16720.23</v>
+        <v>18095.490000000002</v>
       </c>
       <c r="E8">
-        <v>12913.62</v>
+        <v>15129.44</v>
       </c>
       <c r="F8">
-        <v>21212.95</v>
+        <v>21732.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2289,19 +2289,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>14967.6</v>
+        <v>23083.07</v>
       </c>
       <c r="C9">
-        <v>24400.41</v>
+        <v>32065.74</v>
       </c>
       <c r="D9">
-        <v>18057.97</v>
+        <v>28794.47</v>
       </c>
       <c r="E9">
-        <v>14553.01</v>
+        <v>22265.88</v>
       </c>
       <c r="F9">
-        <v>25557.3</v>
+        <v>36223.14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2309,19 +2309,19 @@
         <v>53</v>
       </c>
       <c r="B10">
-        <v>25000.62</v>
+        <v>28248.35</v>
       </c>
       <c r="C10">
-        <v>41123.03</v>
+        <v>42535.51</v>
       </c>
       <c r="D10">
-        <v>32308.98</v>
+        <v>36157.01</v>
       </c>
       <c r="E10">
-        <v>24167.919999999998</v>
+        <v>28412.97</v>
       </c>
       <c r="F10">
-        <v>43359.98</v>
+        <v>44634.54</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2329,19 +2329,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26195.59</v>
+        <v>40046.83</v>
       </c>
       <c r="C11">
-        <v>35762.81</v>
+        <v>55695.26</v>
       </c>
       <c r="D11">
-        <v>36198.29</v>
+        <v>48285.96</v>
       </c>
       <c r="E11">
-        <v>21879.11</v>
+        <v>39232.92</v>
       </c>
       <c r="F11">
-        <v>47595.08</v>
+        <v>59007.9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2349,19 +2349,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41626.32</v>
+        <v>37783.81</v>
       </c>
       <c r="C12">
-        <v>57625.17</v>
+        <v>52423.63</v>
       </c>
       <c r="D12">
-        <v>50302.239999999998</v>
+        <v>45594.63</v>
       </c>
       <c r="E12">
-        <v>40828.080000000002</v>
+        <v>37201.01</v>
       </c>
       <c r="F12">
-        <v>61058.48</v>
+        <v>55338.81</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2369,19 +2369,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>49486.31</v>
+        <v>48833.56</v>
       </c>
       <c r="C13">
-        <v>65156.15</v>
+        <v>57142</v>
       </c>
       <c r="D13">
-        <v>57829.09</v>
+        <v>56993.13</v>
       </c>
       <c r="E13">
-        <v>48921.77</v>
+        <v>47965.85</v>
       </c>
       <c r="F13">
-        <v>69025.72</v>
+        <v>66430.03</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2389,19 +2389,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21372.95</v>
+        <v>47763.519999999997</v>
       </c>
       <c r="C14">
-        <v>24724.74</v>
+        <v>68768.08</v>
       </c>
       <c r="D14">
-        <v>22113.75</v>
+        <v>48418.04</v>
       </c>
       <c r="E14">
-        <v>22346.98</v>
+        <v>52870.95</v>
       </c>
       <c r="F14">
-        <v>26413.23</v>
+        <v>67311.41</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2409,19 +2409,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>51873.17</v>
+        <v>56696.92</v>
       </c>
       <c r="C15">
-        <v>61953.24</v>
+        <v>71199.25</v>
       </c>
       <c r="D15">
-        <v>56769.81</v>
+        <v>68002.69</v>
       </c>
       <c r="E15">
-        <v>51884.02</v>
+        <v>55117.65</v>
       </c>
       <c r="F15">
-        <v>65766.36</v>
+        <v>75926.429999999993</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2429,19 +2429,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>72299.960000000006</v>
+        <v>51290.18</v>
       </c>
       <c r="C16">
-        <v>83704.820000000007</v>
+        <v>75164.63</v>
       </c>
       <c r="D16">
-        <v>75614.36</v>
+        <v>54918.74</v>
       </c>
       <c r="E16">
-        <v>72175.649999999994</v>
+        <v>60280.6</v>
       </c>
       <c r="F16">
-        <v>87667.14</v>
+        <v>76681.27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2449,19 +2449,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>72876.179999999993</v>
+        <v>48154.49</v>
       </c>
       <c r="C17">
-        <v>82851.179999999993</v>
+        <v>47759.71</v>
       </c>
       <c r="D17">
-        <v>79460.539999999994</v>
+        <v>54666.75</v>
       </c>
       <c r="E17">
-        <v>72552.460000000006</v>
+        <v>46150.05</v>
       </c>
       <c r="F17">
-        <v>88551.35</v>
+        <v>51423.64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2469,19 +2469,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>80331.839999999997</v>
+        <v>75085.39</v>
       </c>
       <c r="C18">
-        <v>86530.4</v>
+        <v>73048.509999999995</v>
       </c>
       <c r="D18">
-        <v>84542.54</v>
+        <v>76099.78</v>
       </c>
       <c r="E18">
-        <v>79348.09</v>
+        <v>69022.61</v>
       </c>
       <c r="F18">
-        <v>92403.64</v>
+        <v>77006.289999999994</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2489,19 +2489,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>87161.36</v>
+        <v>30529.43</v>
       </c>
       <c r="C19">
-        <v>92856.57</v>
+        <v>32186.05</v>
       </c>
       <c r="D19">
-        <v>84591.46</v>
+        <v>30604.35</v>
       </c>
       <c r="E19">
-        <v>87700.41</v>
+        <v>32753.84</v>
       </c>
       <c r="F19">
-        <v>97846.61</v>
+        <v>33412.82</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2509,19 +2509,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>63319.67</v>
+        <v>28040.67</v>
       </c>
       <c r="C20">
-        <v>68766.95</v>
+        <v>27630.77</v>
       </c>
       <c r="D20">
-        <v>64635.12</v>
+        <v>28133.65</v>
       </c>
       <c r="E20">
-        <v>65353.25</v>
+        <v>28649.95</v>
       </c>
       <c r="F20">
-        <v>69743.460000000006</v>
+        <v>29120.32</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2529,19 +2529,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>56994.91</v>
+        <v>82599.12</v>
       </c>
       <c r="C21">
-        <v>57454.8</v>
+        <v>81393.61</v>
       </c>
       <c r="D21">
-        <v>63023.31</v>
+        <v>80498.009999999995</v>
       </c>
       <c r="E21">
-        <v>56139.43</v>
+        <v>81337.89</v>
       </c>
       <c r="F21">
-        <v>62419.55</v>
+        <v>85995.94</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2549,19 +2549,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>86529.56</v>
+        <v>51816.28</v>
       </c>
       <c r="C22">
-        <v>89701.34</v>
+        <v>50359.01</v>
       </c>
       <c r="D22">
-        <v>81436.31</v>
+        <v>52275.31</v>
       </c>
       <c r="E22">
-        <v>94481.09</v>
+        <v>51757.51</v>
       </c>
       <c r="F22">
-        <v>84087.48</v>
+        <v>52110.99</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2569,19 +2569,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>70941.89</v>
+        <v>78807.520000000004</v>
       </c>
       <c r="C23">
-        <v>67449.820000000007</v>
+        <v>78642.44</v>
       </c>
       <c r="D23">
-        <v>71530.789999999994</v>
+        <v>80096.429999999993</v>
       </c>
       <c r="E23">
-        <v>72258.41</v>
+        <v>59119.82</v>
       </c>
       <c r="F23">
-        <v>72235.3</v>
+        <v>62261.440000000002</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2589,19 +2589,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>77460.13</v>
+        <v>70049.39</v>
       </c>
       <c r="C24">
-        <v>73500.44</v>
+        <v>75652.86</v>
       </c>
       <c r="D24">
-        <v>77018.429999999993</v>
+        <v>76047.09</v>
       </c>
       <c r="E24">
-        <v>75751.75</v>
+        <v>64345.02</v>
       </c>
       <c r="F24">
-        <v>79388.600000000006</v>
+        <v>77480.509999999995</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2609,19 +2609,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>72138.39</v>
+        <v>90933.33</v>
       </c>
       <c r="C25">
-        <v>66448.820000000007</v>
+        <v>94828.86</v>
       </c>
       <c r="D25">
-        <v>71754.880000000005</v>
+        <v>83415.06</v>
       </c>
       <c r="E25">
-        <v>71931.64</v>
+        <v>99997.84</v>
       </c>
       <c r="F25">
-        <v>70800.12</v>
+        <v>93631.38</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2629,19 +2629,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>82382.740000000005</v>
+        <v>71649.960000000006</v>
       </c>
       <c r="C26">
-        <v>78198.98</v>
+        <v>71394.86</v>
       </c>
       <c r="D26">
-        <v>78823.710000000006</v>
+        <v>72349.649999999994</v>
       </c>
       <c r="E26">
-        <v>81649.94</v>
+        <v>73734.11</v>
       </c>
       <c r="F26">
-        <v>82251.41</v>
+        <v>73547.990000000005</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2649,19 +2649,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>93438.66</v>
+        <v>78014.179999999993</v>
       </c>
       <c r="C27">
-        <v>91486.22</v>
+        <v>91956.5</v>
       </c>
       <c r="D27">
-        <v>94167.88</v>
+        <v>79179.83</v>
       </c>
       <c r="E27">
-        <v>73930.61</v>
+        <v>83555.42</v>
       </c>
       <c r="F27">
-        <v>94261.43</v>
+        <v>82256.38</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2669,19 +2669,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>82045.47</v>
+        <v>93351.92</v>
       </c>
       <c r="C28">
-        <v>69745.460000000006</v>
+        <v>75105.61</v>
       </c>
       <c r="D28">
-        <v>83339.509999999995</v>
+        <v>80136.53</v>
       </c>
       <c r="E28">
-        <v>80411.61</v>
+        <v>91198.12</v>
       </c>
       <c r="F28">
-        <v>79887.12</v>
+        <v>80001.61</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2689,19 +2689,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>73735.839999999997</v>
+        <v>78167.350000000006</v>
       </c>
       <c r="C29">
-        <v>69692.210000000006</v>
+        <v>76523.38</v>
       </c>
       <c r="D29">
-        <v>64169.64</v>
+        <v>81253.14</v>
       </c>
       <c r="E29">
-        <v>65548.25</v>
+        <v>80004.12</v>
       </c>
       <c r="F29">
-        <v>73267.570000000007</v>
+        <v>79473.22</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2709,19 +2709,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>77601.11</v>
+        <v>61022.89</v>
       </c>
       <c r="C30">
-        <v>69379.56</v>
+        <v>61614.31</v>
       </c>
       <c r="D30">
-        <v>73522.960000000006</v>
+        <v>56522.02</v>
       </c>
       <c r="E30">
-        <v>77912.58</v>
+        <v>59723.58</v>
       </c>
       <c r="F30">
-        <v>71152.600000000006</v>
+        <v>68781.649999999994</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2729,19 +2729,19 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>62679.09</v>
+        <v>76196.399999999994</v>
       </c>
       <c r="C31">
-        <v>59545.32</v>
+        <v>71731.25</v>
       </c>
       <c r="D31">
-        <v>58014.82</v>
+        <v>76000.97</v>
       </c>
       <c r="E31">
-        <v>59266.32</v>
+        <v>66397.320000000007</v>
       </c>
       <c r="F31">
-        <v>66612.59</v>
+        <v>76020.14</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2749,19 +2749,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>71438.259999999995</v>
+        <v>36760.89</v>
       </c>
       <c r="C32">
-        <v>64795.98</v>
+        <v>35634.980000000003</v>
       </c>
       <c r="D32">
-        <v>68318.09</v>
+        <v>36244.44</v>
       </c>
       <c r="E32">
-        <v>63329.78</v>
+        <v>36057.9</v>
       </c>
       <c r="F32">
-        <v>67388.63</v>
+        <v>37145.089999999997</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2769,19 +2769,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>77727.149999999994</v>
+        <v>43445.77</v>
       </c>
       <c r="C33">
-        <v>65560.98</v>
+        <v>38705.49</v>
       </c>
       <c r="D33">
-        <v>72839.09</v>
+        <v>39870.720000000001</v>
       </c>
       <c r="E33">
-        <v>77247.55</v>
+        <v>46998.52</v>
       </c>
       <c r="F33">
-        <v>69697.36</v>
+        <v>40938.720000000001</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2789,19 +2789,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>63006.080000000002</v>
+        <v>72850.53</v>
       </c>
       <c r="C34">
-        <v>53620.67</v>
+        <v>61142.879999999997</v>
       </c>
       <c r="D34">
-        <v>60642.33</v>
+        <v>69468.53</v>
       </c>
       <c r="E34">
-        <v>63462.75</v>
+        <v>73389.509999999995</v>
       </c>
       <c r="F34">
-        <v>57320.63</v>
+        <v>65015.71</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2809,19 +2809,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>87857.49</v>
+        <v>55947.98</v>
       </c>
       <c r="C35">
-        <v>76504.179999999993</v>
+        <v>58595.67</v>
       </c>
       <c r="D35">
-        <v>82837.84</v>
+        <v>68941.460000000006</v>
       </c>
       <c r="E35">
-        <v>87588.14</v>
+        <v>58362.83</v>
       </c>
       <c r="F35">
-        <v>81439.66</v>
+        <v>61239.73</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2829,19 +2829,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>80938.899999999994</v>
+        <v>87722.17</v>
       </c>
       <c r="C36">
-        <v>62232.5</v>
+        <v>55323.61</v>
       </c>
       <c r="D36">
-        <v>71911.42</v>
+        <v>88626.559999999998</v>
       </c>
       <c r="E36">
-        <v>81806.5</v>
+        <v>80538.09</v>
       </c>
       <c r="F36">
-        <v>66062.559999999998</v>
+        <v>64555.64</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2849,19 +2849,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>74139.199999999997</v>
+        <v>44918.71</v>
       </c>
       <c r="C37">
-        <v>58278.04</v>
+        <v>36369.47</v>
       </c>
       <c r="D37">
-        <v>69915.37</v>
+        <v>30548.959999999999</v>
       </c>
       <c r="E37">
-        <v>79329.710000000006</v>
+        <v>47710.66</v>
       </c>
       <c r="F37">
-        <v>58782.58</v>
+        <v>39276.07</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2869,19 +2869,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>49838.29</v>
+        <v>74379.149999999994</v>
       </c>
       <c r="C38">
-        <v>39598.01</v>
+        <v>64787.199999999997</v>
       </c>
       <c r="D38">
-        <v>42843.76</v>
+        <v>80310.89</v>
       </c>
       <c r="E38">
-        <v>52546.29</v>
+        <v>81659.12</v>
       </c>
       <c r="F38">
-        <v>40843.1</v>
+        <v>65994.13</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2889,19 +2889,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>44389.19</v>
+        <v>86906.16</v>
       </c>
       <c r="C39">
-        <v>36057.53</v>
+        <v>55694.82</v>
       </c>
       <c r="D39">
-        <v>40356.51</v>
+        <v>71166.41</v>
       </c>
       <c r="E39">
-        <v>45089.57</v>
+        <v>80090.740000000005</v>
       </c>
       <c r="F39">
-        <v>38220.050000000003</v>
+        <v>59824.32</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2909,19 +2909,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>27680.87</v>
+        <v>40571.39</v>
       </c>
       <c r="C40">
-        <v>23435.93</v>
+        <v>30322.71</v>
       </c>
       <c r="D40">
-        <v>29773.919999999998</v>
+        <v>36336.51</v>
       </c>
       <c r="E40">
-        <v>28025.200000000001</v>
+        <v>41405.65</v>
       </c>
       <c r="F40">
-        <v>24991.77</v>
+        <v>32271.19</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2929,19 +2929,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>40771.199999999997</v>
+        <v>47068.82</v>
       </c>
       <c r="C41">
-        <v>29663.360000000001</v>
+        <v>34282.910000000003</v>
       </c>
       <c r="D41">
-        <v>36338.67</v>
+        <v>41694.879999999997</v>
       </c>
       <c r="E41">
-        <v>41772.480000000003</v>
+        <v>48053.29</v>
       </c>
       <c r="F41">
-        <v>31431.67</v>
+        <v>36542.879999999997</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2949,19 +2949,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>22989.5</v>
+        <v>45234.89</v>
       </c>
       <c r="C42">
-        <v>17765.080000000002</v>
+        <v>30177.119999999999</v>
       </c>
       <c r="D42">
-        <v>20995.72</v>
+        <v>38939.71</v>
       </c>
       <c r="E42">
-        <v>23485.4</v>
+        <v>45073.36</v>
       </c>
       <c r="F42">
-        <v>18986.04</v>
+        <v>32267.599999999999</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2969,19 +2969,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>40713.42</v>
+        <v>55065.54</v>
       </c>
       <c r="C43">
-        <v>26955.25</v>
+        <v>29762.86</v>
       </c>
       <c r="D43">
-        <v>34657.31</v>
+        <v>43711.94</v>
       </c>
       <c r="E43">
-        <v>42070.66</v>
+        <v>56412.23</v>
       </c>
       <c r="F43">
-        <v>28940.75</v>
+        <v>32146.22</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2989,19 +2989,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>51784.26</v>
+        <v>41773.019999999997</v>
       </c>
       <c r="C44">
-        <v>29795.73</v>
+        <v>21793.29</v>
       </c>
       <c r="D44">
-        <v>42233.03</v>
+        <v>32906.89</v>
       </c>
       <c r="E44">
-        <v>52695.77</v>
+        <v>43024.51</v>
       </c>
       <c r="F44">
-        <v>32614.87</v>
+        <v>23733.05</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3009,19 +3009,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>24758.36</v>
+        <v>15178.38</v>
       </c>
       <c r="C45">
-        <v>16710.310000000001</v>
+        <v>9734.6</v>
       </c>
       <c r="D45">
-        <v>21242.99</v>
+        <v>17898.84</v>
       </c>
       <c r="E45">
-        <v>25399.95</v>
+        <v>13928.97</v>
       </c>
       <c r="F45">
-        <v>18030.75</v>
+        <v>12091.66</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3029,19 +3029,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>18376.75</v>
+        <v>13036.05</v>
       </c>
       <c r="C46">
-        <v>12039.38</v>
+        <v>10037.530000000001</v>
       </c>
       <c r="D46">
-        <v>15354.6</v>
+        <v>11976.31</v>
       </c>
       <c r="E46">
-        <v>18885.22</v>
+        <v>13290.6</v>
       </c>
       <c r="F46">
-        <v>12967.79</v>
+        <v>10832.74</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3049,19 +3049,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>8865.83</v>
+        <v>10976.61</v>
       </c>
       <c r="C47">
-        <v>7436.27</v>
+        <v>8225.89</v>
       </c>
       <c r="D47">
-        <v>8442.7099999999991</v>
+        <v>9867.59</v>
       </c>
       <c r="E47">
-        <v>8969.69</v>
+        <v>11196.53</v>
       </c>
       <c r="F47">
-        <v>8007.7</v>
+        <v>8921.43</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3069,19 +3069,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>14333.19</v>
+        <v>10231</v>
       </c>
       <c r="C48">
-        <v>10806.73</v>
+        <v>8297.85</v>
       </c>
       <c r="D48">
-        <v>12947.86</v>
+        <v>9490.75</v>
       </c>
       <c r="E48">
-        <v>14614.15</v>
+        <v>10444.91</v>
       </c>
       <c r="F48">
-        <v>11606</v>
+        <v>8920.61</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3089,19 +3089,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>8338.2800000000007</v>
+        <v>12844.91</v>
       </c>
       <c r="C49">
-        <v>7411.72</v>
+        <v>7386.2</v>
       </c>
       <c r="D49">
-        <v>8035.98</v>
+        <v>9911.3799999999992</v>
       </c>
       <c r="E49">
-        <v>8476.7000000000007</v>
+        <v>12835.62</v>
       </c>
       <c r="F49">
-        <v>7913.39</v>
+        <v>7946.88</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3109,19 +3109,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3938.68</v>
+        <v>4804.75</v>
       </c>
       <c r="C50">
-        <v>3543.06</v>
+        <v>3712.64</v>
       </c>
       <c r="D50">
-        <v>3856.58</v>
+        <v>4361.32</v>
       </c>
       <c r="E50">
-        <v>4036.86</v>
+        <v>4853.74</v>
       </c>
       <c r="F50">
-        <v>3810.54</v>
+        <v>3994.5</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3129,19 +3129,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2419.54</v>
+        <v>2322.7399999999998</v>
       </c>
       <c r="C51">
-        <v>2191.54</v>
+        <v>2030.48</v>
       </c>
       <c r="D51">
-        <v>2395.37</v>
+        <v>2252.4899999999998</v>
       </c>
       <c r="E51">
-        <v>2485.29</v>
+        <v>2396.56</v>
       </c>
       <c r="F51">
-        <v>2375.58</v>
+        <v>2203.0300000000002</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3149,19 +3149,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>499.14</v>
+        <v>734.25</v>
       </c>
       <c r="C52">
-        <v>493.75</v>
+        <v>630.97</v>
       </c>
       <c r="D52">
-        <v>530.46</v>
+        <v>724.22</v>
       </c>
       <c r="E52">
-        <v>504.64</v>
+        <v>735.86</v>
       </c>
       <c r="F52">
-        <v>553.63</v>
+        <v>705.9</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3213,8 +3213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3267,19 +3267,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>252.97</v>
+        <v>196.7</v>
       </c>
       <c r="C3">
-        <v>236.04</v>
+        <v>209.78</v>
       </c>
       <c r="D3">
-        <v>197.69</v>
+        <v>227.74</v>
       </c>
       <c r="E3">
-        <v>261.20999999999998</v>
+        <v>201.59</v>
       </c>
       <c r="F3">
-        <v>284.01</v>
+        <v>257.73</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3287,19 +3287,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1712.29</v>
+        <v>1046.5899999999999</v>
       </c>
       <c r="C4">
-        <v>1663.21</v>
+        <v>1197.17</v>
       </c>
       <c r="D4">
-        <v>1772.94</v>
+        <v>1159.71</v>
       </c>
       <c r="E4">
-        <v>1739.95</v>
+        <v>1052.71</v>
       </c>
       <c r="F4">
-        <v>1823.12</v>
+        <v>1329.96</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3307,19 +3307,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3919.44</v>
+        <v>2284.83</v>
       </c>
       <c r="C5">
-        <v>3830.21</v>
+        <v>2678.89</v>
       </c>
       <c r="D5">
-        <v>4008.97</v>
+        <v>2546.31</v>
       </c>
       <c r="E5">
-        <v>3996.7</v>
+        <v>2325.3200000000002</v>
       </c>
       <c r="F5">
-        <v>4167.72</v>
+        <v>2880.46</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3327,19 +3327,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4219.9799999999996</v>
+        <v>4188.9799999999996</v>
       </c>
       <c r="C6">
-        <v>4029.44</v>
+        <v>5621.94</v>
       </c>
       <c r="D6">
-        <v>4252.62</v>
+        <v>4998.25</v>
       </c>
       <c r="E6">
-        <v>4296.8100000000004</v>
+        <v>4192.3999999999996</v>
       </c>
       <c r="F6">
-        <v>4355.3599999999997</v>
+        <v>5791.19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3347,19 +3347,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9904.76</v>
+        <v>7806.56</v>
       </c>
       <c r="C7">
-        <v>11441.28</v>
+        <v>9455.1200000000008</v>
       </c>
       <c r="D7">
-        <v>10957.56</v>
+        <v>9072.06</v>
       </c>
       <c r="E7">
-        <v>9898.8799999999992</v>
+        <v>7729.5</v>
       </c>
       <c r="F7">
-        <v>12246.71</v>
+        <v>10229.27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3367,19 +3367,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>16295.74</v>
+        <v>14786.93</v>
       </c>
       <c r="C8">
-        <v>19547.43</v>
+        <v>17218.89</v>
       </c>
       <c r="D8">
-        <v>18868.27</v>
+        <v>16367.56</v>
       </c>
       <c r="E8">
-        <v>16262.94</v>
+        <v>14519.38</v>
       </c>
       <c r="F8">
-        <v>20263.240000000002</v>
+        <v>19363.53</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3387,19 +3387,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>16905.87</v>
+        <v>16142.82</v>
       </c>
       <c r="C9">
-        <v>16119.71</v>
+        <v>23742.98</v>
       </c>
       <c r="D9">
-        <v>17007.86</v>
+        <v>18617.66</v>
       </c>
       <c r="E9">
-        <v>17074.88</v>
+        <v>15710</v>
       </c>
       <c r="F9">
-        <v>17213.86</v>
+        <v>25518.11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3407,19 +3407,19 @@
         <v>53</v>
       </c>
       <c r="B10">
-        <v>13703.39</v>
+        <v>21349.29</v>
       </c>
       <c r="C10">
-        <v>13252.82</v>
+        <v>33648.01</v>
       </c>
       <c r="D10">
-        <v>13857.81</v>
+        <v>23665.25</v>
       </c>
       <c r="E10">
-        <v>13837.43</v>
+        <v>21967.3</v>
       </c>
       <c r="F10">
-        <v>14194.15</v>
+        <v>30075.78</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3427,19 +3427,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18679.55</v>
+        <v>35149.980000000003</v>
       </c>
       <c r="C11">
-        <v>18965.689999999999</v>
+        <v>52363.69</v>
       </c>
       <c r="D11">
-        <v>19267.36</v>
+        <v>43348.800000000003</v>
       </c>
       <c r="E11">
-        <v>18810.11</v>
+        <v>34522.46</v>
       </c>
       <c r="F11">
-        <v>20227.77</v>
+        <v>55049.02</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3447,19 +3447,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21584.38</v>
+        <v>36876.550000000003</v>
       </c>
       <c r="C12">
-        <v>22022.61</v>
+        <v>52691.43</v>
       </c>
       <c r="D12">
-        <v>22356.71</v>
+        <v>38713.760000000002</v>
       </c>
       <c r="E12">
-        <v>21725.8</v>
+        <v>37274.300000000003</v>
       </c>
       <c r="F12">
-        <v>23506.05</v>
+        <v>48036.7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3467,19 +3467,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27205.66</v>
+        <v>32515.82</v>
       </c>
       <c r="C13">
-        <v>27601.86</v>
+        <v>44960.72</v>
       </c>
       <c r="D13">
-        <v>28182.47</v>
+        <v>33093.08</v>
       </c>
       <c r="E13">
-        <v>27357.85</v>
+        <v>34509.769999999997</v>
       </c>
       <c r="F13">
-        <v>29476.59</v>
+        <v>46902.84</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3487,19 +3487,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34052.14</v>
+        <v>39714.35</v>
       </c>
       <c r="C14">
-        <v>36375.480000000003</v>
+        <v>55378.15</v>
       </c>
       <c r="D14">
-        <v>35460.6</v>
+        <v>41037.300000000003</v>
       </c>
       <c r="E14">
-        <v>33953.910000000003</v>
+        <v>45117.14</v>
       </c>
       <c r="F14">
-        <v>38581.15</v>
+        <v>50019.38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3507,19 +3507,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>42556.55</v>
+        <v>58762.41</v>
       </c>
       <c r="C15">
-        <v>48286.559999999998</v>
+        <v>72024.850000000006</v>
       </c>
       <c r="D15">
-        <v>45586.34</v>
+        <v>54891.81</v>
       </c>
       <c r="E15">
-        <v>42338.68</v>
+        <v>58597.68</v>
       </c>
       <c r="F15">
-        <v>51096.72</v>
+        <v>75439.87</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3527,19 +3527,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>50112.25</v>
+        <v>64451.839999999997</v>
       </c>
       <c r="C16">
-        <v>55121.67</v>
+        <v>74993.14</v>
       </c>
       <c r="D16">
-        <v>54882.09</v>
+        <v>61795.65</v>
       </c>
       <c r="E16">
-        <v>47325.19</v>
+        <v>63960.43</v>
       </c>
       <c r="F16">
-        <v>62733.05</v>
+        <v>79850.990000000005</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3547,19 +3547,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>68686.350000000006</v>
+        <v>44829.120000000003</v>
       </c>
       <c r="C17">
-        <v>80868.55</v>
+        <v>49756.24</v>
       </c>
       <c r="D17">
-        <v>77076.88</v>
+        <v>44139.41</v>
       </c>
       <c r="E17">
-        <v>68761.59</v>
+        <v>45644.05</v>
       </c>
       <c r="F17">
-        <v>85077.5</v>
+        <v>53368.12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3567,19 +3567,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>75833.36</v>
+        <v>66772.59</v>
       </c>
       <c r="C18">
-        <v>79897.070000000007</v>
+        <v>74728.39</v>
       </c>
       <c r="D18">
-        <v>80130.45</v>
+        <v>72380.39</v>
       </c>
       <c r="E18">
-        <v>75606.94</v>
+        <v>67479.03</v>
       </c>
       <c r="F18">
-        <v>83561.87</v>
+        <v>79563.77</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3587,19 +3587,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>49525.38</v>
+        <v>45758.06</v>
       </c>
       <c r="C19">
-        <v>49132.56</v>
+        <v>47875.18</v>
       </c>
       <c r="D19">
-        <v>51216.26</v>
+        <v>43374.63</v>
       </c>
       <c r="E19">
-        <v>49653.65</v>
+        <v>46178.09</v>
       </c>
       <c r="F19">
-        <v>51883.46</v>
+        <v>50406.76</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3607,19 +3607,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>54991.61</v>
+        <v>61498.45</v>
       </c>
       <c r="C20">
-        <v>54850.32</v>
+        <v>60266.82</v>
       </c>
       <c r="D20">
-        <v>56612.78</v>
+        <v>65610.240000000005</v>
       </c>
       <c r="E20">
-        <v>55225.7</v>
+        <v>63777.35</v>
       </c>
       <c r="F20">
-        <v>58487.98</v>
+        <v>59008.39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3627,19 +3627,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>42954.5</v>
+        <v>97038.9</v>
       </c>
       <c r="C21">
-        <v>40705.53</v>
+        <v>96315.95</v>
       </c>
       <c r="D21">
-        <v>43036.72</v>
+        <v>98968.34</v>
       </c>
       <c r="E21">
-        <v>43342.82</v>
+        <v>96816.34</v>
       </c>
       <c r="F21">
-        <v>43361.1</v>
+        <v>99705.96</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3647,19 +3647,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40075.17</v>
+        <v>83292.38</v>
       </c>
       <c r="C22">
-        <v>38776.51</v>
+        <v>78101.820000000007</v>
       </c>
       <c r="D22">
-        <v>40342.85</v>
+        <v>77113.919999999998</v>
       </c>
       <c r="E22">
-        <v>40405.82</v>
+        <v>87155.19</v>
       </c>
       <c r="F22">
-        <v>41230.65</v>
+        <v>81242.720000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3667,19 +3667,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24567.66</v>
+        <v>67319.09</v>
       </c>
       <c r="C23">
-        <v>23459.21</v>
+        <v>72317.990000000005</v>
       </c>
       <c r="D23">
-        <v>24342.61</v>
+        <v>75354.960000000006</v>
       </c>
       <c r="E23">
-        <v>24933.66</v>
+        <v>73765.62</v>
       </c>
       <c r="F23">
-        <v>24929.17</v>
+        <v>70406.880000000005</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3687,19 +3687,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>51351.71</v>
+        <v>93185.46</v>
       </c>
       <c r="C24">
-        <v>48774.080000000002</v>
+        <v>95891.24</v>
       </c>
       <c r="D24">
-        <v>52127.48</v>
+        <v>77344.259999999995</v>
       </c>
       <c r="E24">
-        <v>51904.51</v>
+        <v>99078.94</v>
       </c>
       <c r="F24">
-        <v>51889.99</v>
+        <v>95845.61</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3707,19 +3707,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>54764.14</v>
+        <v>99999.78</v>
       </c>
       <c r="C25">
-        <v>53985.47</v>
+        <v>97028.17</v>
       </c>
       <c r="D25">
-        <v>55885.279999999999</v>
+        <v>99766.56</v>
       </c>
       <c r="E25">
-        <v>54991.46</v>
+        <v>99994.880000000005</v>
       </c>
       <c r="F25">
-        <v>57839.77</v>
+        <v>97723.98</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3727,19 +3727,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>45460.07</v>
+        <v>67930.12</v>
       </c>
       <c r="C26">
-        <v>43774.96</v>
+        <v>69035.960000000006</v>
       </c>
       <c r="D26">
-        <v>45870.34</v>
+        <v>69318.7</v>
       </c>
       <c r="E26">
-        <v>45736.44</v>
+        <v>68841.75</v>
       </c>
       <c r="F26">
-        <v>46731.77</v>
+        <v>69503.41</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3747,19 +3747,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>24120.17</v>
+        <v>56907.57</v>
       </c>
       <c r="C27">
-        <v>22816.48</v>
+        <v>52789.55</v>
       </c>
       <c r="D27">
-        <v>24446.04</v>
+        <v>64136.5</v>
       </c>
       <c r="E27">
-        <v>24425.43</v>
+        <v>54864.31</v>
       </c>
       <c r="F27">
-        <v>24460.97</v>
+        <v>57633.3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3767,19 +3767,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>55412.76</v>
+        <v>95812.58</v>
       </c>
       <c r="C28">
-        <v>50683.88</v>
+        <v>93961.46</v>
       </c>
       <c r="D28">
-        <v>56556.08</v>
+        <v>95693.54</v>
       </c>
       <c r="E28">
-        <v>55233.39</v>
+        <v>96535.67</v>
       </c>
       <c r="F28">
-        <v>55045.62</v>
+        <v>95596.68</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3787,19 +3787,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>41989.69</v>
+        <v>77655.25</v>
       </c>
       <c r="C29">
-        <v>41047.06</v>
+        <v>74157.89</v>
       </c>
       <c r="D29">
-        <v>42797.36</v>
+        <v>79244.87</v>
       </c>
       <c r="E29">
-        <v>42398.44</v>
+        <v>80103.009999999995</v>
       </c>
       <c r="F29">
-        <v>43770.49</v>
+        <v>76682.52</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3807,19 +3807,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>42877.54</v>
+        <v>41012.120000000003</v>
       </c>
       <c r="C30">
-        <v>41075.83</v>
+        <v>38379.31</v>
       </c>
       <c r="D30">
-        <v>41581.379999999997</v>
+        <v>41195.129999999997</v>
       </c>
       <c r="E30">
-        <v>44493.97</v>
+        <v>41203.800000000003</v>
       </c>
       <c r="F30">
-        <v>42770.3</v>
+        <v>41259.19</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3827,19 +3827,19 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>74553.87</v>
+        <v>42877.59</v>
       </c>
       <c r="C31">
-        <v>63880.81</v>
+        <v>37240.379999999997</v>
       </c>
       <c r="D31">
-        <v>69054.31</v>
+        <v>44650.93</v>
       </c>
       <c r="E31">
-        <v>74780.38</v>
+        <v>41852.730000000003</v>
       </c>
       <c r="F31">
-        <v>64878.38</v>
+        <v>41059.870000000003</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3847,19 +3847,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>74518.61</v>
+        <v>43170.98</v>
       </c>
       <c r="C32">
-        <v>61800.12</v>
+        <v>38071.089999999997</v>
       </c>
       <c r="D32">
-        <v>72871.83</v>
+        <v>39898.01</v>
       </c>
       <c r="E32">
-        <v>72660.62</v>
+        <v>45770.45</v>
       </c>
       <c r="F32">
-        <v>68327.149999999994</v>
+        <v>39784.42</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3867,19 +3867,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>89673.63</v>
+        <v>55966.17</v>
       </c>
       <c r="C33">
-        <v>92485.96</v>
+        <v>52958.53</v>
       </c>
       <c r="D33">
-        <v>86317.43</v>
+        <v>59082.5</v>
       </c>
       <c r="E33">
-        <v>71993.14</v>
+        <v>46966.16</v>
       </c>
       <c r="F33">
-        <v>91470.55</v>
+        <v>55184.36</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3887,19 +3887,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>60023.57</v>
+        <v>26153.15</v>
       </c>
       <c r="C34">
-        <v>52912.22</v>
+        <v>24062.41</v>
       </c>
       <c r="D34">
-        <v>55564.22</v>
+        <v>25593.119999999999</v>
       </c>
       <c r="E34">
-        <v>61730.7</v>
+        <v>26544.32</v>
       </c>
       <c r="F34">
-        <v>59934.1</v>
+        <v>25577.06</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3907,19 +3907,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>89274.7</v>
+        <v>27294.720000000001</v>
       </c>
       <c r="C35">
-        <v>73619.88</v>
+        <v>25122.959999999999</v>
       </c>
       <c r="D35">
-        <v>90958.83</v>
+        <v>27493.37</v>
       </c>
       <c r="E35">
-        <v>89925.43</v>
+        <v>27334.2</v>
       </c>
       <c r="F35">
-        <v>80955.97</v>
+        <v>27108.959999999999</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3927,19 +3927,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>99995.26</v>
+        <v>49255.26</v>
       </c>
       <c r="C36">
-        <v>82724.460000000006</v>
+        <v>40784.65</v>
       </c>
       <c r="D36">
-        <v>95965.31</v>
+        <v>46523.39</v>
       </c>
       <c r="E36">
-        <v>97471.51</v>
+        <v>49546.46</v>
       </c>
       <c r="F36">
-        <v>88230.3</v>
+        <v>43313.61</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3947,19 +3947,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>99402.66</v>
+        <v>74528.41</v>
       </c>
       <c r="C37">
-        <v>75415.009999999995</v>
+        <v>58079.57</v>
       </c>
       <c r="D37">
-        <v>96475.69</v>
+        <v>55818.34</v>
       </c>
       <c r="E37">
-        <v>88369.79</v>
+        <v>74210.17</v>
       </c>
       <c r="F37">
-        <v>74220.05</v>
+        <v>59644.69</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3967,19 +3967,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>58096.09</v>
+        <v>55334.38</v>
       </c>
       <c r="C38">
-        <v>43554.69</v>
+        <v>44286.58</v>
       </c>
       <c r="D38">
-        <v>56031.34</v>
+        <v>51149.91</v>
       </c>
       <c r="E38">
-        <v>58651.64</v>
+        <v>55954.65</v>
       </c>
       <c r="F38">
-        <v>47617.99</v>
+        <v>46456.06</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3987,19 +3987,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>78825.42</v>
+        <v>64388.45</v>
       </c>
       <c r="C39">
-        <v>57992.59</v>
+        <v>46606.18</v>
       </c>
       <c r="D39">
-        <v>66875.460000000006</v>
+        <v>56687.82</v>
       </c>
       <c r="E39">
-        <v>78066.31</v>
+        <v>65417.24</v>
       </c>
       <c r="F39">
-        <v>62457.04</v>
+        <v>49802.47</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4007,19 +4007,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>80306.03</v>
+        <v>45764.72</v>
       </c>
       <c r="C40">
-        <v>52196.3</v>
+        <v>28293.03</v>
       </c>
       <c r="D40">
-        <v>67614.14</v>
+        <v>44593.26</v>
       </c>
       <c r="E40">
-        <v>81820.63</v>
+        <v>38362.080000000002</v>
       </c>
       <c r="F40">
-        <v>55607.58</v>
+        <v>37263.74</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4027,19 +4027,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>62195.75</v>
+        <v>74057.89</v>
       </c>
       <c r="C41">
-        <v>36600.9</v>
+        <v>51443.65</v>
       </c>
       <c r="D41">
-        <v>54446.15</v>
+        <v>65501.89</v>
       </c>
       <c r="E41">
-        <v>63670.99</v>
+        <v>79106.710000000006</v>
       </c>
       <c r="F41">
-        <v>43537.89</v>
+        <v>55995.74</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -4047,19 +4047,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>52195.73</v>
+        <v>40204.949999999997</v>
       </c>
       <c r="C42">
-        <v>30764.14</v>
+        <v>27150.080000000002</v>
       </c>
       <c r="D42">
-        <v>41369.47</v>
+        <v>34941.81</v>
       </c>
       <c r="E42">
-        <v>53440.11</v>
+        <v>40925.97</v>
       </c>
       <c r="F42">
-        <v>32807.57</v>
+        <v>28445.7</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -4067,19 +4067,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>62127.71</v>
+        <v>28346.17</v>
       </c>
       <c r="C43">
-        <v>31423.79</v>
+        <v>18767.580000000002</v>
       </c>
       <c r="D43">
-        <v>48910.79</v>
+        <v>24199.49</v>
       </c>
       <c r="E43">
-        <v>62833.52</v>
+        <v>28994.880000000001</v>
       </c>
       <c r="F43">
-        <v>34521.97</v>
+        <v>20228.43</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4087,19 +4087,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>60114.99</v>
+        <v>18462.88</v>
       </c>
       <c r="C44">
-        <v>25894.05</v>
+        <v>15199.71</v>
       </c>
       <c r="D44">
-        <v>46033.93</v>
+        <v>17165.32</v>
       </c>
       <c r="E44">
-        <v>56549.72</v>
+        <v>18924.88</v>
       </c>
       <c r="F44">
-        <v>30724.2</v>
+        <v>16236.63</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -4107,19 +4107,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>56481.36</v>
+        <v>17697.84</v>
       </c>
       <c r="C45">
-        <v>22916.49</v>
+        <v>14782.57</v>
       </c>
       <c r="D45">
-        <v>41435.01</v>
+        <v>16423.900000000001</v>
       </c>
       <c r="E45">
-        <v>58332.58</v>
+        <v>18057.98</v>
       </c>
       <c r="F45">
-        <v>25854.65</v>
+        <v>15744.24</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -4127,19 +4127,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>47470.15</v>
+        <v>31759.63</v>
       </c>
       <c r="C46">
-        <v>18491.8</v>
+        <v>16719.509999999998</v>
       </c>
       <c r="D46">
-        <v>29723.08</v>
+        <v>22898.61</v>
       </c>
       <c r="E46">
-        <v>50426.57</v>
+        <v>30281.73</v>
       </c>
       <c r="F46">
-        <v>20092.8</v>
+        <v>18627.259999999998</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4147,19 +4147,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>21137.200000000001</v>
+        <v>17319.7</v>
       </c>
       <c r="C47">
-        <v>8716.4</v>
+        <v>8823.35</v>
       </c>
       <c r="D47">
-        <v>15390.2</v>
+        <v>11831.96</v>
       </c>
       <c r="E47">
-        <v>21536.94</v>
+        <v>19952.79</v>
       </c>
       <c r="F47">
-        <v>9845.01</v>
+        <v>9561.0400000000009</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4167,19 +4167,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>15092.25</v>
+        <v>2842.04</v>
       </c>
       <c r="C48">
-        <v>8689.1</v>
+        <v>2519.0300000000002</v>
       </c>
       <c r="D48">
-        <v>12363.1</v>
+        <v>2738.53</v>
       </c>
       <c r="E48">
-        <v>15364.08</v>
+        <v>2933.68</v>
       </c>
       <c r="F48">
-        <v>9451.02</v>
+        <v>2727.17</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -4187,19 +4187,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>8709.0499999999993</v>
+        <v>6208.06</v>
       </c>
       <c r="C49">
-        <v>6110.77</v>
+        <v>3123.17</v>
       </c>
       <c r="D49">
-        <v>7513.56</v>
+        <v>4617.3</v>
       </c>
       <c r="E49">
-        <v>8854.3799999999992</v>
+        <v>6240.7</v>
       </c>
       <c r="F49">
-        <v>6570.71</v>
+        <v>3389.8</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -4207,19 +4207,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3971.26</v>
+        <v>8197.41</v>
       </c>
       <c r="C50">
-        <v>3248.56</v>
+        <v>3762.35</v>
       </c>
       <c r="D50">
-        <v>3647.87</v>
+        <v>5708.89</v>
       </c>
       <c r="E50">
-        <v>4060.38</v>
+        <v>7481.43</v>
       </c>
       <c r="F50">
-        <v>3494.16</v>
+        <v>4093.96</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -4227,19 +4227,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>656.23</v>
+        <v>1463.16</v>
       </c>
       <c r="C51">
-        <v>614.97</v>
+        <v>1029.74</v>
       </c>
       <c r="D51">
-        <v>671.9</v>
+        <v>1289.06</v>
       </c>
       <c r="E51">
-        <v>684.72</v>
+        <v>1487.85</v>
       </c>
       <c r="F51">
-        <v>693.75</v>
+        <v>1150.8</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4247,19 +4247,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>94.13</v>
+        <v>325.91000000000003</v>
       </c>
       <c r="C52">
-        <v>104.82</v>
+        <v>171.2</v>
       </c>
       <c r="D52">
-        <v>122.68</v>
+        <v>275.32</v>
       </c>
       <c r="E52">
-        <v>98.29</v>
+        <v>324.73</v>
       </c>
       <c r="F52">
-        <v>147.02000000000001</v>
+        <v>223.28</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -4311,8 +4311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="O48" sqref="O47:O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4365,19 +4365,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>938.45</v>
+        <v>543.13</v>
       </c>
       <c r="C3">
-        <v>1211.29</v>
+        <v>814.9</v>
       </c>
       <c r="D3">
-        <v>1111.4100000000001</v>
+        <v>465.65</v>
       </c>
       <c r="E3">
-        <v>929.33</v>
+        <v>532.63</v>
       </c>
       <c r="F3">
-        <v>1364.55</v>
+        <v>911.47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4385,19 +4385,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3258.39</v>
+        <v>2147.1</v>
       </c>
       <c r="C4">
-        <v>5961.54</v>
+        <v>3580.33</v>
       </c>
       <c r="D4">
-        <v>4184.09</v>
+        <v>2730.31</v>
       </c>
       <c r="E4">
-        <v>3128.28</v>
+        <v>2112.4699999999998</v>
       </c>
       <c r="F4">
-        <v>6810.3</v>
+        <v>3929.11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4405,19 +4405,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5533.61</v>
+        <v>4266.6899999999996</v>
       </c>
       <c r="C5">
-        <v>10008.57</v>
+        <v>7689.33</v>
       </c>
       <c r="D5">
-        <v>7499.81</v>
+        <v>5995.99</v>
       </c>
       <c r="E5">
-        <v>5292.84</v>
+        <v>4092.7</v>
       </c>
       <c r="F5">
-        <v>11024.72</v>
+        <v>8637.01</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4425,19 +4425,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>9850.11</v>
+        <v>6371.42</v>
       </c>
       <c r="C6">
-        <v>22700.400000000001</v>
+        <v>8975.92</v>
       </c>
       <c r="D6">
-        <v>15771.99</v>
+        <v>7681.28</v>
       </c>
       <c r="E6">
-        <v>8763.4</v>
+        <v>6247.87</v>
       </c>
       <c r="F6">
-        <v>24587.96</v>
+        <v>9712.7000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4445,19 +4445,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>15100.78</v>
+        <v>10878.91</v>
       </c>
       <c r="C7">
-        <v>31509.27</v>
+        <v>16223.04</v>
       </c>
       <c r="D7">
-        <v>22903.360000000001</v>
+        <v>14783.57</v>
       </c>
       <c r="E7">
-        <v>13576.78</v>
+        <v>10233.24</v>
       </c>
       <c r="F7">
-        <v>33500.519999999997</v>
+        <v>19195.98</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4465,19 +4465,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>20042.55</v>
+        <v>15145.61</v>
       </c>
       <c r="C8">
-        <v>37567.11</v>
+        <v>22554.89</v>
       </c>
       <c r="D8">
-        <v>28640.720000000001</v>
+        <v>18754.77</v>
       </c>
       <c r="E8">
-        <v>18490.16</v>
+        <v>14634.51</v>
       </c>
       <c r="F8">
-        <v>39860.050000000003</v>
+        <v>23819.9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4485,19 +4485,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>24196.12</v>
+        <v>14751.88</v>
       </c>
       <c r="C9">
-        <v>41141.089999999997</v>
+        <v>24930.17</v>
       </c>
       <c r="D9">
-        <v>33714.29</v>
+        <v>16514.669999999998</v>
       </c>
       <c r="E9">
-        <v>22635.41</v>
+        <v>15379.42</v>
       </c>
       <c r="F9">
-        <v>44409.1</v>
+        <v>22319.42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4505,19 +4505,19 @@
         <v>53</v>
       </c>
       <c r="B10">
-        <v>32132.15</v>
+        <v>21516.38</v>
       </c>
       <c r="C10">
-        <v>51225.63</v>
+        <v>30289.19</v>
       </c>
       <c r="D10">
-        <v>41487.129999999997</v>
+        <v>24140.23</v>
       </c>
       <c r="E10">
-        <v>30882.65</v>
+        <v>22107.89</v>
       </c>
       <c r="F10">
-        <v>54140.480000000003</v>
+        <v>29898.25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4525,19 +4525,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21656.03</v>
+        <v>29988.13</v>
       </c>
       <c r="C11">
-        <v>32450.880000000001</v>
+        <v>39988.400000000001</v>
       </c>
       <c r="D11">
-        <v>27152.22</v>
+        <v>40849.760000000002</v>
       </c>
       <c r="E11">
-        <v>20980.85</v>
+        <v>28559.86</v>
       </c>
       <c r="F11">
-        <v>34817.75</v>
+        <v>45814.39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4545,19 +4545,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19130.759999999998</v>
+        <v>24718.42</v>
       </c>
       <c r="C12">
-        <v>26488.02</v>
+        <v>33627.360000000001</v>
       </c>
       <c r="D12">
-        <v>23002.09</v>
+        <v>31251.87</v>
       </c>
       <c r="E12">
-        <v>18766.66</v>
+        <v>23453.06</v>
       </c>
       <c r="F12">
-        <v>28226.02</v>
+        <v>35398.050000000003</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4565,19 +4565,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>47205.95</v>
+        <v>33993.440000000002</v>
       </c>
       <c r="C13">
-        <v>63258.720000000001</v>
+        <v>51733.47</v>
       </c>
       <c r="D13">
-        <v>55474.65</v>
+        <v>41184.339999999997</v>
       </c>
       <c r="E13">
-        <v>46374.99</v>
+        <v>35742.730000000003</v>
       </c>
       <c r="F13">
-        <v>66740.38</v>
+        <v>54265.65</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4585,19 +4585,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>51461.279999999999</v>
+        <v>55637.24</v>
       </c>
       <c r="C14">
-        <v>65488.23</v>
+        <v>62881.53</v>
       </c>
       <c r="D14">
-        <v>59522.16</v>
+        <v>62433.35</v>
       </c>
       <c r="E14">
-        <v>50888.77</v>
+        <v>52563.44</v>
       </c>
       <c r="F14">
-        <v>69971.73</v>
+        <v>71608.479999999996</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4605,19 +4605,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>42517.2</v>
+        <v>40318.879999999997</v>
       </c>
       <c r="C15">
-        <v>51271.24</v>
+        <v>40216.29</v>
       </c>
       <c r="D15">
-        <v>49748.47</v>
+        <v>41427.82</v>
       </c>
       <c r="E15">
-        <v>42047.26</v>
+        <v>40632.32</v>
       </c>
       <c r="F15">
-        <v>56216.14</v>
+        <v>42965.07</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4625,19 +4625,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>69894.710000000006</v>
+        <v>49462.07</v>
       </c>
       <c r="C16">
-        <v>81465.41</v>
+        <v>53672.160000000003</v>
       </c>
       <c r="D16">
-        <v>76689.850000000006</v>
+        <v>52378.29</v>
       </c>
       <c r="E16">
-        <v>69752.47</v>
+        <v>49436.21</v>
       </c>
       <c r="F16">
-        <v>86282.2</v>
+        <v>57139.03</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4645,19 +4645,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>71970.850000000006</v>
+        <v>43965.3</v>
       </c>
       <c r="C17">
-        <v>82555.02</v>
+        <v>45720.06</v>
       </c>
       <c r="D17">
-        <v>76609.820000000007</v>
+        <v>45923.64</v>
       </c>
       <c r="E17">
-        <v>71660.94</v>
+        <v>44546.59</v>
       </c>
       <c r="F17">
-        <v>86792.94</v>
+        <v>48964.7</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4665,19 +4665,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>61389.51</v>
+        <v>54787.63</v>
       </c>
       <c r="C18">
-        <v>66573.52</v>
+        <v>61674.97</v>
       </c>
       <c r="D18">
-        <v>85075.85</v>
+        <v>59067.9</v>
       </c>
       <c r="E18">
-        <v>60735.89</v>
+        <v>54907.97</v>
       </c>
       <c r="F18">
-        <v>75082.009999999995</v>
+        <v>64854.92</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4685,19 +4685,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>78094.48</v>
+        <v>65606.820000000007</v>
       </c>
       <c r="C19">
-        <v>84710.05</v>
+        <v>83016.570000000007</v>
       </c>
       <c r="D19">
-        <v>83137.98</v>
+        <v>69091.740000000005</v>
       </c>
       <c r="E19">
-        <v>78299.45</v>
+        <v>68205.83</v>
       </c>
       <c r="F19">
-        <v>90351.78</v>
+        <v>80660.34</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4705,19 +4705,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>83377.48</v>
+        <v>50757.03</v>
       </c>
       <c r="C20">
-        <v>88812.2</v>
+        <v>52593.3</v>
       </c>
       <c r="D20">
-        <v>88355.9</v>
+        <v>53012.13</v>
       </c>
       <c r="E20">
-        <v>84569.27</v>
+        <v>50910.84</v>
       </c>
       <c r="F20">
-        <v>93901.58</v>
+        <v>55732.86</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4725,19 +4725,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>85542.74</v>
+        <v>45961.53</v>
       </c>
       <c r="C21">
-        <v>88054.35</v>
+        <v>46787.39</v>
       </c>
       <c r="D21">
-        <v>88896.67</v>
+        <v>46378.12</v>
       </c>
       <c r="E21">
-        <v>85462.54</v>
+        <v>49076.76</v>
       </c>
       <c r="F21">
-        <v>93568.78</v>
+        <v>45222.61</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4745,19 +4745,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>92247.55</v>
+        <v>79170.570000000007</v>
       </c>
       <c r="C22">
-        <v>92269.73</v>
+        <v>73880.350000000006</v>
       </c>
       <c r="D22">
-        <v>94437.24</v>
+        <v>73962.81</v>
       </c>
       <c r="E22">
-        <v>92144.23</v>
+        <v>73398.2</v>
       </c>
       <c r="F22">
-        <v>97242.14</v>
+        <v>90159.91</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4765,19 +4765,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>54979.45</v>
+        <v>39613.82</v>
       </c>
       <c r="C23">
-        <v>48795.57</v>
+        <v>53242.83</v>
       </c>
       <c r="D23">
-        <v>74032.509999999995</v>
+        <v>38072.300000000003</v>
       </c>
       <c r="E23">
-        <v>57050.1</v>
+        <v>39932.050000000003</v>
       </c>
       <c r="F23">
-        <v>52374.85</v>
+        <v>41717.040000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4785,19 +4785,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32926.949999999997</v>
+        <v>57233.93</v>
       </c>
       <c r="C24">
-        <v>30841.21</v>
+        <v>53794.34</v>
       </c>
       <c r="D24">
-        <v>31663.41</v>
+        <v>56755.85</v>
       </c>
       <c r="E24">
-        <v>34850.410000000003</v>
+        <v>48478.58</v>
       </c>
       <c r="F24">
-        <v>32744.35</v>
+        <v>48098.81</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4805,19 +4805,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>77769.33</v>
+        <v>58451.72</v>
       </c>
       <c r="C25">
-        <v>68347.91</v>
+        <v>57634.91</v>
       </c>
       <c r="D25">
-        <v>85354.8</v>
+        <v>59225.61</v>
       </c>
       <c r="E25">
-        <v>67902.009999999995</v>
+        <v>58824.02</v>
       </c>
       <c r="F25">
-        <v>74237.399999999994</v>
+        <v>59769.67</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4825,19 +4825,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>76999.100000000006</v>
+        <v>40912.28</v>
       </c>
       <c r="C26">
-        <v>76653.98</v>
+        <v>41140.69</v>
       </c>
       <c r="D26">
-        <v>77155.520000000004</v>
+        <v>38343.17</v>
       </c>
       <c r="E26">
-        <v>57729.919999999998</v>
+        <v>49464.18</v>
       </c>
       <c r="F26">
-        <v>77667.5</v>
+        <v>40067.089999999997</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4845,19 +4845,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>58576.26</v>
+        <v>45919.3</v>
       </c>
       <c r="C27">
-        <v>56060.53</v>
+        <v>42171.32</v>
       </c>
       <c r="D27">
-        <v>57140.15</v>
+        <v>54326.51</v>
       </c>
       <c r="E27">
-        <v>57138.18</v>
+        <v>42405.67</v>
       </c>
       <c r="F27">
-        <v>56695.03</v>
+        <v>40832.199999999997</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4865,19 +4865,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>44452.04</v>
+        <v>63193.57</v>
       </c>
       <c r="C28">
-        <v>41830.93</v>
+        <v>61254.68</v>
       </c>
       <c r="D28">
-        <v>43032.31</v>
+        <v>50834.43</v>
       </c>
       <c r="E28">
-        <v>43677.52</v>
+        <v>53910.36</v>
       </c>
       <c r="F28">
-        <v>43645.04</v>
+        <v>62691.34</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4885,19 +4885,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>61125.25</v>
+        <v>75815.34</v>
       </c>
       <c r="C29">
-        <v>70099.5</v>
+        <v>78664.89</v>
       </c>
       <c r="D29">
-        <v>60665.47</v>
+        <v>77211.28</v>
       </c>
       <c r="E29">
-        <v>67860.600000000006</v>
+        <v>68767.81</v>
       </c>
       <c r="F29">
-        <v>68727.179999999993</v>
+        <v>78297.899999999994</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4905,19 +4905,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>71199</v>
+        <v>67234.55</v>
       </c>
       <c r="C30">
-        <v>63684.03</v>
+        <v>45210.62</v>
       </c>
       <c r="D30">
-        <v>62367.18</v>
+        <v>62374.63</v>
       </c>
       <c r="E30">
-        <v>55413.93</v>
+        <v>59675.96</v>
       </c>
       <c r="F30">
-        <v>56201.52</v>
+        <v>49360.33</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4925,19 +4925,19 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>96899.31</v>
+        <v>99685.99</v>
       </c>
       <c r="C31">
-        <v>96678.53</v>
+        <v>91377.74</v>
       </c>
       <c r="D31">
-        <v>94595.33</v>
+        <v>98832.84</v>
       </c>
       <c r="E31">
-        <v>99999.72</v>
+        <v>89728.7</v>
       </c>
       <c r="F31">
-        <v>99997.11</v>
+        <v>96255.95</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4945,19 +4945,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>53177.72</v>
+        <v>72949.13</v>
       </c>
       <c r="C32">
-        <v>49884.3</v>
+        <v>56721.63</v>
       </c>
       <c r="D32">
-        <v>53175.839999999997</v>
+        <v>68442.039999999994</v>
       </c>
       <c r="E32">
-        <v>53606.75</v>
+        <v>69432.62</v>
       </c>
       <c r="F32">
-        <v>52895.14</v>
+        <v>56636.65</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4965,19 +4965,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>92728.93</v>
+        <v>74385.75</v>
       </c>
       <c r="C33">
-        <v>81946.81</v>
+        <v>61104.81</v>
       </c>
       <c r="D33">
-        <v>92106.81</v>
+        <v>63626.37</v>
       </c>
       <c r="E33">
-        <v>93167.31</v>
+        <v>69959.27</v>
       </c>
       <c r="F33">
-        <v>86535.64</v>
+        <v>66433.87</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4985,19 +4985,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>74982.69</v>
+        <v>46556.67</v>
       </c>
       <c r="C34">
-        <v>70974.37</v>
+        <v>40285.06</v>
       </c>
       <c r="D34">
-        <v>69712.600000000006</v>
+        <v>44041.67</v>
       </c>
       <c r="E34">
-        <v>67426.98</v>
+        <v>47607.12</v>
       </c>
       <c r="F34">
-        <v>73863.570000000007</v>
+        <v>43014.19</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5005,19 +5005,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>82381.37</v>
+        <v>93619.33</v>
       </c>
       <c r="C35">
-        <v>69204.05</v>
+        <v>85684.34</v>
       </c>
       <c r="D35">
-        <v>83532.460000000006</v>
+        <v>93311.93</v>
       </c>
       <c r="E35">
-        <v>76905.45</v>
+        <v>92628.800000000003</v>
       </c>
       <c r="F35">
-        <v>74121.88</v>
+        <v>90786.26</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5025,19 +5025,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>54658.91</v>
+        <v>42553.96</v>
       </c>
       <c r="C36">
-        <v>47638.1</v>
+        <v>46000.97</v>
       </c>
       <c r="D36">
-        <v>50798.71</v>
+        <v>53046.1</v>
       </c>
       <c r="E36">
-        <v>75268.490000000005</v>
+        <v>39799.4</v>
       </c>
       <c r="F36">
-        <v>55442.98</v>
+        <v>54485.55</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5045,19 +5045,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>55257.99</v>
+        <v>72266.31</v>
       </c>
       <c r="C37">
-        <v>45388.23</v>
+        <v>54927.6</v>
       </c>
       <c r="D37">
-        <v>64251.67</v>
+        <v>56675.31</v>
       </c>
       <c r="E37">
-        <v>55017.48</v>
+        <v>85934.89</v>
       </c>
       <c r="F37">
-        <v>49737.22</v>
+        <v>53753.24</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -5065,19 +5065,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>48145.919999999998</v>
+        <v>80324.399999999994</v>
       </c>
       <c r="C38">
-        <v>39801.620000000003</v>
+        <v>63252.1</v>
       </c>
       <c r="D38">
-        <v>44000.82</v>
+        <v>75291.75</v>
       </c>
       <c r="E38">
-        <v>48558.57</v>
+        <v>82159.320000000007</v>
       </c>
       <c r="F38">
-        <v>40834.14</v>
+        <v>68287.460000000006</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5085,19 +5085,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>58845.02</v>
+        <v>44795.85</v>
       </c>
       <c r="C39">
-        <v>43303.45</v>
+        <v>37171.46</v>
       </c>
       <c r="D39">
-        <v>46093.4</v>
+        <v>42418.34</v>
       </c>
       <c r="E39">
-        <v>50935.72</v>
+        <v>45522.05</v>
       </c>
       <c r="F39">
-        <v>42843.51</v>
+        <v>39654.19</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -5105,19 +5105,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>64031.81</v>
+        <v>40624.71</v>
       </c>
       <c r="C40">
-        <v>41726.04</v>
+        <v>33636.44</v>
       </c>
       <c r="D40">
-        <v>55687.21</v>
+        <v>38052.269999999997</v>
       </c>
       <c r="E40">
-        <v>45345.11</v>
+        <v>41365.019999999997</v>
       </c>
       <c r="F40">
-        <v>42035.85</v>
+        <v>35827.99</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5125,19 +5125,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>26110.26</v>
+        <v>37400.699999999997</v>
       </c>
       <c r="C41">
-        <v>21390.69</v>
+        <v>31109.85</v>
       </c>
       <c r="D41">
-        <v>25499.79</v>
+        <v>34976.839999999997</v>
       </c>
       <c r="E41">
-        <v>25933.9</v>
+        <v>38120.32</v>
       </c>
       <c r="F41">
-        <v>22776.87</v>
+        <v>33153.01</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -5145,19 +5145,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>37326.410000000003</v>
+        <v>35680.550000000003</v>
       </c>
       <c r="C42">
-        <v>28118.45</v>
+        <v>29060.58</v>
       </c>
       <c r="D42">
-        <v>32039.74</v>
+        <v>33302.06</v>
       </c>
       <c r="E42">
-        <v>36322.79</v>
+        <v>36280.04</v>
       </c>
       <c r="F42">
-        <v>30643.06</v>
+        <v>31036.86</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5165,19 +5165,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>17671.72</v>
+        <v>29784.9</v>
       </c>
       <c r="C43">
-        <v>17161.689999999999</v>
+        <v>25038.67</v>
       </c>
       <c r="D43">
-        <v>17988.25</v>
+        <v>28211.84</v>
       </c>
       <c r="E43">
-        <v>17989.13</v>
+        <v>30114.44</v>
       </c>
       <c r="F43">
-        <v>18399.689999999999</v>
+        <v>26804.68</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -5185,19 +5185,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>10767.59</v>
+        <v>36795.120000000003</v>
       </c>
       <c r="C44">
-        <v>10353.129999999999</v>
+        <v>26158.16</v>
       </c>
       <c r="D44">
-        <v>10927.19</v>
+        <v>32424.87</v>
       </c>
       <c r="E44">
-        <v>10849.13</v>
+        <v>37270.449999999997</v>
       </c>
       <c r="F44">
-        <v>11101.19</v>
+        <v>28183.54</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5205,19 +5205,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>16548.04</v>
+        <v>26191.759999999998</v>
       </c>
       <c r="C45">
-        <v>15203.04</v>
+        <v>20443.3</v>
       </c>
       <c r="D45">
-        <v>16399.509999999998</v>
+        <v>23723.91</v>
       </c>
       <c r="E45">
-        <v>16799.27</v>
+        <v>26896.71</v>
       </c>
       <c r="F45">
-        <v>16311.58</v>
+        <v>21778.21</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -5225,19 +5225,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>17807.84</v>
+        <v>25576.68</v>
       </c>
       <c r="C46">
-        <v>14534.5</v>
+        <v>16691.64</v>
       </c>
       <c r="D46">
-        <v>16248.08</v>
+        <v>21668.85</v>
       </c>
       <c r="E46">
-        <v>17689.88</v>
+        <v>25991.02</v>
       </c>
       <c r="F46">
-        <v>15519.93</v>
+        <v>17923.87</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5245,19 +5245,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>30631.69</v>
+        <v>37567.83</v>
       </c>
       <c r="C47">
-        <v>17379.169999999998</v>
+        <v>15353.29</v>
       </c>
       <c r="D47">
-        <v>24678.05</v>
+        <v>28013.39</v>
       </c>
       <c r="E47">
-        <v>31386.86</v>
+        <v>37122.54</v>
       </c>
       <c r="F47">
-        <v>19122.3</v>
+        <v>17419.68</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5265,19 +5265,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>30840.76</v>
+        <v>27384.36</v>
       </c>
       <c r="C48">
-        <v>13632.99</v>
+        <v>10817.45</v>
       </c>
       <c r="D48">
-        <v>21608.54</v>
+        <v>19323.5</v>
       </c>
       <c r="E48">
-        <v>30856.400000000001</v>
+        <v>28174.06</v>
       </c>
       <c r="F48">
-        <v>14816.84</v>
+        <v>11995.53</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -5285,19 +5285,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>20954.78</v>
+        <v>12333.24</v>
       </c>
       <c r="C49">
-        <v>7757.64</v>
+        <v>6171.93</v>
       </c>
       <c r="D49">
-        <v>14217.13</v>
+        <v>9320.66</v>
       </c>
       <c r="E49">
-        <v>20628.54</v>
+        <v>12028.93</v>
       </c>
       <c r="F49">
-        <v>8402.85</v>
+        <v>6711.71</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -5305,19 +5305,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5397.6</v>
+        <v>5039.99</v>
       </c>
       <c r="C50">
-        <v>4395.46</v>
+        <v>2762.66</v>
       </c>
       <c r="D50">
-        <v>4895.7299999999996</v>
+        <v>4387.62</v>
       </c>
       <c r="E50">
-        <v>5327.82</v>
+        <v>6049.97</v>
       </c>
       <c r="F50">
-        <v>4724.8</v>
+        <v>3024.01</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5325,19 +5325,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7185.27</v>
+        <v>1091.54</v>
       </c>
       <c r="C51">
-        <v>4296.71</v>
+        <v>805.7</v>
       </c>
       <c r="D51">
-        <v>5819.74</v>
+        <v>983.22</v>
       </c>
       <c r="E51">
-        <v>7171.69</v>
+        <v>1105.57</v>
       </c>
       <c r="F51">
-        <v>4641.76</v>
+        <v>895.16</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -5345,19 +5345,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2514.73</v>
+        <v>285.91000000000003</v>
       </c>
       <c r="C52">
-        <v>1575.81</v>
+        <v>191.73</v>
       </c>
       <c r="D52">
-        <v>2046.42</v>
+        <v>280.76</v>
       </c>
       <c r="E52">
-        <v>2603.29</v>
+        <v>258.5</v>
       </c>
       <c r="F52">
-        <v>1737.21</v>
+        <v>246.78</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -5365,19 +5365,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>226.28</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>144.52000000000001</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>204.18</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>225.01</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>169.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -5410,7 +5410,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5463,19 +5463,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>770.99</v>
+        <v>436.65</v>
       </c>
       <c r="C3">
-        <v>1063</v>
+        <v>683.62</v>
       </c>
       <c r="D3">
-        <v>949.19</v>
+        <v>577.36</v>
       </c>
       <c r="E3">
-        <v>753.18</v>
+        <v>429.74</v>
       </c>
       <c r="F3">
-        <v>1224.92</v>
+        <v>789.02</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5483,19 +5483,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1779.15</v>
+        <v>1775.72</v>
       </c>
       <c r="C4">
-        <v>2790.43</v>
+        <v>4591.54</v>
       </c>
       <c r="D4">
-        <v>2292.38</v>
+        <v>2708.21</v>
       </c>
       <c r="E4">
-        <v>1748.35</v>
+        <v>1677.29</v>
       </c>
       <c r="F4">
-        <v>3252.42</v>
+        <v>5313.08</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5503,19 +5503,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3751.1</v>
+        <v>2894.14</v>
       </c>
       <c r="C5">
-        <v>8842.5400000000009</v>
+        <v>8970.84</v>
       </c>
       <c r="D5">
-        <v>5875.29</v>
+        <v>5345.36</v>
       </c>
       <c r="E5">
-        <v>3543.04</v>
+        <v>2658.34</v>
       </c>
       <c r="F5">
-        <v>9999.9699999999993</v>
+        <v>10159.120000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5523,19 +5523,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5495.2</v>
+        <v>5105.87</v>
       </c>
       <c r="C6">
-        <v>15766.4</v>
+        <v>16542.240000000002</v>
       </c>
       <c r="D6">
-        <v>10006.549999999999</v>
+        <v>10137.49</v>
       </c>
       <c r="E6">
-        <v>4725.49</v>
+        <v>4357.6099999999997</v>
       </c>
       <c r="F6">
-        <v>16938.53</v>
+        <v>17827.990000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5543,19 +5543,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>11938.5</v>
+        <v>9351.35</v>
       </c>
       <c r="C7">
-        <v>27149.11</v>
+        <v>25714.95</v>
       </c>
       <c r="D7">
-        <v>19072.54</v>
+        <v>17008.91</v>
       </c>
       <c r="E7">
-        <v>10602.77</v>
+        <v>8008.41</v>
       </c>
       <c r="F7">
-        <v>28987.01</v>
+        <v>27443.49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5563,19 +5563,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>14619.2</v>
+        <v>13991.22</v>
       </c>
       <c r="C8">
-        <v>21563.89</v>
+        <v>32167.08</v>
       </c>
       <c r="D8">
-        <v>18181.47</v>
+        <v>22802.080000000002</v>
       </c>
       <c r="E8">
-        <v>14123.27</v>
+        <v>12490.86</v>
       </c>
       <c r="F8">
-        <v>23005.77</v>
+        <v>34193.160000000003</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5583,19 +5583,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>17565.89</v>
+        <v>19200.59</v>
       </c>
       <c r="C9">
-        <v>17821.22</v>
+        <v>38038.01</v>
       </c>
       <c r="D9">
-        <v>18074.63</v>
+        <v>28467.48</v>
       </c>
       <c r="E9">
-        <v>17626.88</v>
+        <v>17747.14</v>
       </c>
       <c r="F9">
-        <v>19047.5</v>
+        <v>40508.89</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5603,19 +5603,19 @@
         <v>53</v>
       </c>
       <c r="B10">
-        <v>14253.8</v>
+        <v>25696.99</v>
       </c>
       <c r="C10">
-        <v>13909.07</v>
+        <v>44316.74</v>
       </c>
       <c r="D10">
-        <v>14415.74</v>
+        <v>34950.79</v>
       </c>
       <c r="E10">
-        <v>14405.79</v>
+        <v>24468.47</v>
       </c>
       <c r="F10">
-        <v>14864.72</v>
+        <v>46928.52</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5623,19 +5623,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19644.650000000001</v>
+        <v>33524.97</v>
       </c>
       <c r="C11">
-        <v>19501.330000000002</v>
+        <v>52309.54</v>
       </c>
       <c r="D11">
-        <v>20038.52</v>
+        <v>43015.1</v>
       </c>
       <c r="E11">
-        <v>19796.560000000001</v>
+        <v>32652.560000000001</v>
       </c>
       <c r="F11">
-        <v>20816.86</v>
+        <v>55338.37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5643,19 +5643,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35482.6</v>
+        <v>40010.46</v>
       </c>
       <c r="C12">
-        <v>44075.56</v>
+        <v>58047.98</v>
       </c>
       <c r="D12">
-        <v>41576.21</v>
+        <v>49550.37</v>
       </c>
       <c r="E12">
-        <v>34125.550000000003</v>
+        <v>39124.800000000003</v>
       </c>
       <c r="F12">
-        <v>50381.99</v>
+        <v>61466.79</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5663,19 +5663,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>42731.59</v>
+        <v>46350.04</v>
       </c>
       <c r="C13">
-        <v>61417.53</v>
+        <v>64228.04</v>
       </c>
       <c r="D13">
-        <v>47109.96</v>
+        <v>56778.06</v>
       </c>
       <c r="E13">
-        <v>44852.92</v>
+        <v>46794.23</v>
       </c>
       <c r="F13">
-        <v>62175.99</v>
+        <v>69963.06</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5683,19 +5683,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>58872.9</v>
+        <v>56663.06</v>
       </c>
       <c r="C14">
-        <v>69782.61</v>
+        <v>71695.88</v>
       </c>
       <c r="D14">
-        <v>65616.009999999995</v>
+        <v>65044.01</v>
       </c>
       <c r="E14">
-        <v>54826.32</v>
+        <v>56177.71</v>
       </c>
       <c r="F14">
-        <v>79650.320000000007</v>
+        <v>76063.899999999994</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5703,19 +5703,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>53527.41</v>
+        <v>70486.66</v>
       </c>
       <c r="C15">
-        <v>67956.009999999995</v>
+        <v>83845.899999999994</v>
       </c>
       <c r="D15">
-        <v>59224.52</v>
+        <v>74685.929999999993</v>
       </c>
       <c r="E15">
-        <v>54273.279999999999</v>
+        <v>70151.320000000007</v>
       </c>
       <c r="F15">
-        <v>69160.570000000007</v>
+        <v>85627.24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5723,19 +5723,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>69027.490000000005</v>
+        <v>52742.61</v>
       </c>
       <c r="C16">
-        <v>76166.53</v>
+        <v>60154.43</v>
       </c>
       <c r="D16">
-        <v>82034.960000000006</v>
+        <v>59642.93</v>
       </c>
       <c r="E16">
-        <v>65742.960000000006</v>
+        <v>49102.94</v>
       </c>
       <c r="F16">
-        <v>87098.84</v>
+        <v>66435.86</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5743,19 +5743,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>39908.75</v>
+        <v>61820.7</v>
       </c>
       <c r="C17">
-        <v>39584.400000000001</v>
+        <v>69706.64</v>
       </c>
       <c r="D17">
-        <v>43698.1</v>
+        <v>65913.58</v>
       </c>
       <c r="E17">
-        <v>39516.120000000003</v>
+        <v>62353.99</v>
       </c>
       <c r="F17">
-        <v>42713.96</v>
+        <v>74367.41</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5763,19 +5763,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>39539.39</v>
+        <v>53607.01</v>
       </c>
       <c r="C18">
-        <v>39993.19</v>
+        <v>53926</v>
       </c>
       <c r="D18">
-        <v>41443.879999999997</v>
+        <v>55629.48</v>
       </c>
       <c r="E18">
-        <v>39516.550000000003</v>
+        <v>53645.43</v>
       </c>
       <c r="F18">
-        <v>42808.88</v>
+        <v>56259.6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5783,19 +5783,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>85688.77</v>
+        <v>33300.74</v>
       </c>
       <c r="C19">
-        <v>88348.3</v>
+        <v>35626.639999999999</v>
       </c>
       <c r="D19">
-        <v>83836.13</v>
+        <v>33459.360000000001</v>
       </c>
       <c r="E19">
-        <v>83330.22</v>
+        <v>34353.32</v>
       </c>
       <c r="F19">
-        <v>90813.83</v>
+        <v>35808.160000000003</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5803,19 +5803,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>66009.919999999998</v>
+        <v>37899.699999999997</v>
       </c>
       <c r="C20">
-        <v>66034.039999999994</v>
+        <v>37977.24</v>
       </c>
       <c r="D20">
-        <v>59905.15</v>
+        <v>38530.65</v>
       </c>
       <c r="E20">
-        <v>66306.64</v>
+        <v>38570.410000000003</v>
       </c>
       <c r="F20">
-        <v>70839.42</v>
+        <v>39730.699999999997</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5823,19 +5823,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>90761.61</v>
+        <v>78276.960000000006</v>
       </c>
       <c r="C21">
-        <v>81591.649999999994</v>
+        <v>77710.92</v>
       </c>
       <c r="D21">
-        <v>93734.03</v>
+        <v>79079.149999999994</v>
       </c>
       <c r="E21">
-        <v>75141.95</v>
+        <v>78138.55</v>
       </c>
       <c r="F21">
-        <v>92597.99</v>
+        <v>79280.95</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5843,19 +5843,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>52427.03</v>
+        <v>56167.519999999997</v>
       </c>
       <c r="C22">
-        <v>56455.22</v>
+        <v>55962.01</v>
       </c>
       <c r="D22">
-        <v>54575.26</v>
+        <v>56524.72</v>
       </c>
       <c r="E22">
-        <v>54832.91</v>
+        <v>58277.93</v>
       </c>
       <c r="F22">
-        <v>58274.67</v>
+        <v>58221.54</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5863,19 +5863,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>48566.47</v>
+        <v>59378.85</v>
       </c>
       <c r="C23">
-        <v>43044.28</v>
+        <v>55470.82</v>
       </c>
       <c r="D23">
-        <v>60735.040000000001</v>
+        <v>62274.080000000002</v>
       </c>
       <c r="E23">
-        <v>43991.83</v>
+        <v>58684.07</v>
       </c>
       <c r="F23">
-        <v>48879.28</v>
+        <v>61541.73</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5883,19 +5883,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>72467.09</v>
+        <v>75116.22</v>
       </c>
       <c r="C24">
-        <v>74848.429999999993</v>
+        <v>71236.91</v>
       </c>
       <c r="D24">
-        <v>74692.14</v>
+        <v>85058.84</v>
       </c>
       <c r="E24">
-        <v>74936.86</v>
+        <v>64742.239999999998</v>
       </c>
       <c r="F24">
-        <v>75152.479999999996</v>
+        <v>81638.600000000006</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5903,19 +5903,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>97126.62</v>
+        <v>88461.36</v>
       </c>
       <c r="C25">
-        <v>92091.92</v>
+        <v>95725.33</v>
       </c>
       <c r="D25">
-        <v>78479.350000000006</v>
+        <v>72497.429999999993</v>
       </c>
       <c r="E25">
-        <v>99714.13</v>
+        <v>77130.39</v>
       </c>
       <c r="F25">
-        <v>93500.75</v>
+        <v>81499.259999999995</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5923,19 +5923,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>80559.740000000005</v>
+        <v>76354.990000000005</v>
       </c>
       <c r="C26">
-        <v>81457.08</v>
+        <v>72688.740000000005</v>
       </c>
       <c r="D26">
-        <v>82143.95</v>
+        <v>76756.850000000006</v>
       </c>
       <c r="E26">
-        <v>82538.289999999994</v>
+        <v>76081.13</v>
       </c>
       <c r="F26">
-        <v>81948.960000000006</v>
+        <v>76014.97</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5943,19 +5943,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>53743.839999999997</v>
+        <v>99787.85</v>
       </c>
       <c r="C27">
-        <v>55316.86</v>
+        <v>95536.9</v>
       </c>
       <c r="D27">
-        <v>60596.63</v>
+        <v>98647.79</v>
       </c>
       <c r="E27">
-        <v>55648.54</v>
+        <v>95550.65</v>
       </c>
       <c r="F27">
-        <v>53747.66</v>
+        <v>99275.57</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5963,19 +5963,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>76154.039999999994</v>
+        <v>74452.929999999993</v>
       </c>
       <c r="C28">
-        <v>74073.86</v>
+        <v>70322.559999999998</v>
       </c>
       <c r="D28">
-        <v>75936.33</v>
+        <v>73820.25</v>
       </c>
       <c r="E28">
-        <v>75997.67</v>
+        <v>75001.87</v>
       </c>
       <c r="F28">
-        <v>75646.490000000005</v>
+        <v>73899.070000000007</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5983,19 +5983,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>31264.63</v>
+        <v>82119.100000000006</v>
       </c>
       <c r="C29">
-        <v>28690.82</v>
+        <v>69582.649999999994</v>
       </c>
       <c r="D29">
-        <v>31340.45</v>
+        <v>83557.69</v>
       </c>
       <c r="E29">
-        <v>31465.83</v>
+        <v>73575.83</v>
       </c>
       <c r="F29">
-        <v>30635.15</v>
+        <v>67664.36</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6003,19 +6003,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>27297.02</v>
+        <v>77273.13</v>
       </c>
       <c r="C30">
-        <v>25926.71</v>
+        <v>72563.95</v>
       </c>
       <c r="D30">
-        <v>32140.34</v>
+        <v>76184.45</v>
       </c>
       <c r="E30">
-        <v>27360.43</v>
+        <v>67665.320000000007</v>
       </c>
       <c r="F30">
-        <v>28308.87</v>
+        <v>75541.320000000007</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6023,19 +6023,19 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>35785.129999999997</v>
+        <v>66059.77</v>
       </c>
       <c r="C31">
-        <v>33823.17</v>
+        <v>56158.43</v>
       </c>
       <c r="D31">
-        <v>35298.15</v>
+        <v>78848.36</v>
       </c>
       <c r="E31">
-        <v>34969.410000000003</v>
+        <v>61134.82</v>
       </c>
       <c r="F31">
-        <v>35490.36</v>
+        <v>78718.41</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6043,19 +6043,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>43203.41</v>
+        <v>75115.02</v>
       </c>
       <c r="C32">
-        <v>40779.550000000003</v>
+        <v>67370.17</v>
       </c>
       <c r="D32">
-        <v>42325.51</v>
+        <v>61081.84</v>
       </c>
       <c r="E32">
-        <v>42385.74</v>
+        <v>76827.05</v>
       </c>
       <c r="F32">
-        <v>42731.31</v>
+        <v>62821.16</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6063,19 +6063,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>75003.42</v>
+        <v>66040.789999999994</v>
       </c>
       <c r="C33">
-        <v>70890.61</v>
+        <v>53034.5</v>
       </c>
       <c r="D33">
-        <v>75067.899999999994</v>
+        <v>58405.97</v>
       </c>
       <c r="E33">
-        <v>75065.789999999994</v>
+        <v>62673.09</v>
       </c>
       <c r="F33">
-        <v>74961.820000000007</v>
+        <v>61254.35</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6083,19 +6083,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>18968.02</v>
+        <v>67159.850000000006</v>
       </c>
       <c r="C34">
-        <v>16674.88</v>
+        <v>45452.7</v>
       </c>
       <c r="D34">
-        <v>18062.91</v>
+        <v>49505.74</v>
       </c>
       <c r="E34">
-        <v>19254.060000000001</v>
+        <v>65650.2</v>
       </c>
       <c r="F34">
-        <v>17763.990000000002</v>
+        <v>55625.89</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6103,19 +6103,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>33647.199999999997</v>
+        <v>52527.28</v>
       </c>
       <c r="C35">
-        <v>28779.759999999998</v>
+        <v>48517.31</v>
       </c>
       <c r="D35">
-        <v>31928.67</v>
+        <v>42561.78</v>
       </c>
       <c r="E35">
-        <v>34085.279999999999</v>
+        <v>43183.44</v>
       </c>
       <c r="F35">
-        <v>30712.43</v>
+        <v>45214.49</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6123,19 +6123,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5488.41</v>
+        <v>97535.25</v>
       </c>
       <c r="C36">
-        <v>5389.7</v>
+        <v>82687.88</v>
       </c>
       <c r="D36">
-        <v>5513.82</v>
+        <v>80818.64</v>
       </c>
       <c r="E36">
-        <v>5583.66</v>
+        <v>86622.8</v>
       </c>
       <c r="F36">
-        <v>5749.62</v>
+        <v>84776.45</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6143,19 +6143,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>15986.43</v>
+        <v>49551.28</v>
       </c>
       <c r="C37">
-        <v>14612.96</v>
+        <v>40087.65</v>
       </c>
       <c r="D37">
-        <v>15376.32</v>
+        <v>46521.599999999999</v>
       </c>
       <c r="E37">
-        <v>16262.53</v>
+        <v>49775.93</v>
       </c>
       <c r="F37">
-        <v>15393.48</v>
+        <v>43052.29</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6163,19 +6163,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>14575</v>
+        <v>70691.89</v>
       </c>
       <c r="C38">
-        <v>12203.02</v>
+        <v>54121.36</v>
       </c>
       <c r="D38">
-        <v>13723.22</v>
+        <v>64621.7</v>
       </c>
       <c r="E38">
-        <v>14742.88</v>
+        <v>71495.44</v>
       </c>
       <c r="F38">
-        <v>13119.12</v>
+        <v>58186.43</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -6183,19 +6183,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>14212.29</v>
+        <v>46395.11</v>
       </c>
       <c r="C39">
-        <v>11881.5</v>
+        <v>36997.32</v>
       </c>
       <c r="D39">
-        <v>13327.5</v>
+        <v>42611.97</v>
       </c>
       <c r="E39">
-        <v>14401.44</v>
+        <v>47148.69</v>
       </c>
       <c r="F39">
-        <v>12707.91</v>
+        <v>39236.800000000003</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6203,19 +6203,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>14176.74</v>
+        <v>34148.74</v>
       </c>
       <c r="C40">
-        <v>11789.83</v>
+        <v>32915.589999999997</v>
       </c>
       <c r="D40">
-        <v>13276.44</v>
+        <v>34864.199999999997</v>
       </c>
       <c r="E40">
-        <v>14379.99</v>
+        <v>40060.080000000002</v>
       </c>
       <c r="F40">
-        <v>12630.86</v>
+        <v>30479.41</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -6223,19 +6223,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>16047.82</v>
+        <v>31333.11</v>
       </c>
       <c r="C41">
-        <v>13432.62</v>
+        <v>22341.32</v>
       </c>
       <c r="D41">
-        <v>15089.33</v>
+        <v>30416.93</v>
       </c>
       <c r="E41">
-        <v>16277.69</v>
+        <v>29994.57</v>
       </c>
       <c r="F41">
-        <v>14380.35</v>
+        <v>26634.26</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6243,19 +6243,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>15614.11</v>
+        <v>58883.87</v>
       </c>
       <c r="C42">
-        <v>12596.89</v>
+        <v>38198.43</v>
       </c>
       <c r="D42">
-        <v>14465.07</v>
+        <v>50363.47</v>
       </c>
       <c r="E42">
-        <v>15853.25</v>
+        <v>59632.56</v>
       </c>
       <c r="F42">
-        <v>13510.1</v>
+        <v>40037.129999999997</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6263,19 +6263,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>14592.89</v>
+        <v>24594.14</v>
       </c>
       <c r="C43">
-        <v>11033.77</v>
+        <v>18877.27</v>
       </c>
       <c r="D43">
-        <v>13146.2</v>
+        <v>21180.76</v>
       </c>
       <c r="E43">
-        <v>14845.9</v>
+        <v>26121.95</v>
       </c>
       <c r="F43">
-        <v>11867.92</v>
+        <v>18855.080000000002</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -6283,19 +6283,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>13801.27</v>
+        <v>34951.839999999997</v>
       </c>
       <c r="C44">
-        <v>11046.59</v>
+        <v>23905.64</v>
       </c>
       <c r="D44">
-        <v>12725.36</v>
+        <v>30376.14</v>
       </c>
       <c r="E44">
-        <v>14004.11</v>
+        <v>35753.300000000003</v>
       </c>
       <c r="F44">
-        <v>11879.02</v>
+        <v>25734.55</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6303,19 +6303,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>13753.98</v>
+        <v>27532.36</v>
       </c>
       <c r="C45">
-        <v>11264.89</v>
+        <v>20560.16</v>
       </c>
       <c r="D45">
-        <v>12802.41</v>
+        <v>24716.67</v>
       </c>
       <c r="E45">
-        <v>13957.24</v>
+        <v>28047.040000000001</v>
       </c>
       <c r="F45">
-        <v>12099.67</v>
+        <v>22005.8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6323,19 +6323,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>11877.67</v>
+        <v>22648.14</v>
       </c>
       <c r="C46">
-        <v>9615.77</v>
+        <v>16846.580000000002</v>
       </c>
       <c r="D46">
-        <v>11020.37</v>
+        <v>20309.73</v>
       </c>
       <c r="E46">
-        <v>12074.72</v>
+        <v>22990.51</v>
       </c>
       <c r="F46">
-        <v>10346.719999999999</v>
+        <v>18079.12</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6343,19 +6343,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>10168.85</v>
+        <v>12339.41</v>
       </c>
       <c r="C47">
-        <v>8586.58</v>
+        <v>10532.28</v>
       </c>
       <c r="D47">
-        <v>9621.82</v>
+        <v>11768.88</v>
       </c>
       <c r="E47">
-        <v>10303.549999999999</v>
+        <v>12546.01</v>
       </c>
       <c r="F47">
-        <v>9235.5400000000009</v>
+        <v>11277.65</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6363,19 +6363,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>12707.38</v>
+        <v>8408.42</v>
       </c>
       <c r="C48">
-        <v>8400.42</v>
+        <v>7666.83</v>
       </c>
       <c r="D48">
-        <v>10663.45</v>
+        <v>8300.58</v>
       </c>
       <c r="E48">
-        <v>12949.61</v>
+        <v>8543.65</v>
       </c>
       <c r="F48">
-        <v>9093.2199999999993</v>
+        <v>8198.92</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6383,19 +6383,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>13617.09</v>
+        <v>5257.99</v>
       </c>
       <c r="C49">
-        <v>8436.56</v>
+        <v>4963.01</v>
       </c>
       <c r="D49">
-        <v>11224.66</v>
+        <v>5276.42</v>
       </c>
       <c r="E49">
-        <v>13623.99</v>
+        <v>5363.79</v>
       </c>
       <c r="F49">
-        <v>9104.6</v>
+        <v>5308.66</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -6403,19 +6403,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>10465</v>
+        <v>2753.78</v>
       </c>
       <c r="C50">
-        <v>6612.78</v>
+        <v>2547.4299999999998</v>
       </c>
       <c r="D50">
-        <v>8562.06</v>
+        <v>2738.28</v>
       </c>
       <c r="E50">
-        <v>10209.879999999999</v>
+        <v>2834.02</v>
       </c>
       <c r="F50">
-        <v>7139.35</v>
+        <v>2737.58</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -6423,19 +6423,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5550.1</v>
+        <v>1123.44</v>
       </c>
       <c r="C51">
-        <v>3164.62</v>
+        <v>1050.42</v>
       </c>
       <c r="D51">
-        <v>4313.6400000000003</v>
+        <v>1136.98</v>
       </c>
       <c r="E51">
-        <v>5408.51</v>
+        <v>1152.6600000000001</v>
       </c>
       <c r="F51">
-        <v>3436.14</v>
+        <v>1145.1500000000001</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6443,19 +6443,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1204.96</v>
+        <v>175.8</v>
       </c>
       <c r="C52">
-        <v>789.18</v>
+        <v>152.44</v>
       </c>
       <c r="D52">
-        <v>1033.1199999999999</v>
+        <v>183.45</v>
       </c>
       <c r="E52">
-        <v>1225.21</v>
+        <v>165.38</v>
       </c>
       <c r="F52">
-        <v>873.19</v>
+        <v>182.45</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6507,8 +6507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6561,19 +6561,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>235.66</v>
+        <v>413.68</v>
       </c>
       <c r="C3">
-        <v>281.7</v>
+        <v>466.59</v>
       </c>
       <c r="D3">
-        <v>285.43</v>
+        <v>457.27</v>
       </c>
       <c r="E3">
-        <v>241.66</v>
+        <v>408.29</v>
       </c>
       <c r="F3">
-        <v>318</v>
+        <v>520.24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6581,19 +6581,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1432.14</v>
+        <v>2220.86</v>
       </c>
       <c r="C4">
-        <v>1571</v>
+        <v>2389.65</v>
       </c>
       <c r="D4">
-        <v>1563.44</v>
+        <v>2371.2600000000002</v>
       </c>
       <c r="E4">
-        <v>1456.11</v>
+        <v>2253.5</v>
       </c>
       <c r="F4">
-        <v>1720.94</v>
+        <v>2588.7199999999998</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6601,19 +6601,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3369.46</v>
+        <v>4979.7299999999996</v>
       </c>
       <c r="C5">
-        <v>3702.09</v>
+        <v>5267.21</v>
       </c>
       <c r="D5">
-        <v>3603.74</v>
+        <v>5224.95</v>
       </c>
       <c r="E5">
-        <v>3415.8</v>
+        <v>5034.05</v>
       </c>
       <c r="F5">
-        <v>3985.09</v>
+        <v>5658.49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6621,19 +6621,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>6248.71</v>
+        <v>7597.23</v>
       </c>
       <c r="C6">
-        <v>7129.49</v>
+        <v>8286.69</v>
       </c>
       <c r="D6">
-        <v>6772.74</v>
+        <v>8084.55</v>
       </c>
       <c r="E6">
-        <v>6252.35</v>
+        <v>7630.68</v>
       </c>
       <c r="F6">
-        <v>7650.91</v>
+        <v>8863.9599999999991</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6641,19 +6641,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9935.61</v>
+        <v>10123.950000000001</v>
       </c>
       <c r="C7">
-        <v>11650.11</v>
+        <v>11037.92</v>
       </c>
       <c r="D7">
-        <v>10965.14</v>
+        <v>10757.03</v>
       </c>
       <c r="E7">
-        <v>9882.4599999999991</v>
+        <v>10159.780000000001</v>
       </c>
       <c r="F7">
-        <v>12468.83</v>
+        <v>11797.27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6661,19 +6661,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>22954.34</v>
+        <v>12384.8</v>
       </c>
       <c r="C8">
-        <v>42755.72</v>
+        <v>13674.27</v>
       </c>
       <c r="D8">
-        <v>32673.84</v>
+        <v>13250.67</v>
       </c>
       <c r="E8">
-        <v>21270.53</v>
+        <v>12409.74</v>
       </c>
       <c r="F8">
-        <v>45307.76</v>
+        <v>14617.88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6681,19 +6681,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>20359.82</v>
+        <v>14477.08</v>
       </c>
       <c r="C9">
-        <v>32431.71</v>
+        <v>16538.46</v>
       </c>
       <c r="D9">
-        <v>26323.75</v>
+        <v>15748.27</v>
       </c>
       <c r="E9">
-        <v>19584.3</v>
+        <v>14465.89</v>
       </c>
       <c r="F9">
-        <v>34468.800000000003</v>
+        <v>17625.82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6701,19 +6701,19 @@
         <v>53</v>
       </c>
       <c r="B10">
-        <v>28973.82</v>
+        <v>21916.3</v>
       </c>
       <c r="C10">
-        <v>41154.089999999997</v>
+        <v>26879.46</v>
       </c>
       <c r="D10">
-        <v>37265.5</v>
+        <v>25626.97</v>
       </c>
       <c r="E10">
-        <v>27034.43</v>
+        <v>21426.82</v>
       </c>
       <c r="F10">
-        <v>44097.21</v>
+        <v>29059.84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6721,19 +6721,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>43595.47</v>
+        <v>19982.16</v>
       </c>
       <c r="C11">
-        <v>59701.440000000002</v>
+        <v>22074.11</v>
       </c>
       <c r="D11">
-        <v>52410.18</v>
+        <v>21317.38</v>
       </c>
       <c r="E11">
-        <v>42162.74</v>
+        <v>20029.73</v>
       </c>
       <c r="F11">
-        <v>63763.61</v>
+        <v>23545.75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -6741,19 +6741,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>48676.14</v>
+        <v>23966.18</v>
       </c>
       <c r="C12">
-        <v>63730.17</v>
+        <v>27155.68</v>
       </c>
       <c r="D12">
-        <v>56768.18</v>
+        <v>26057.43</v>
       </c>
       <c r="E12">
-        <v>48346.14</v>
+        <v>23924.080000000002</v>
       </c>
       <c r="F12">
-        <v>66463.520000000004</v>
+        <v>28977.83</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6761,19 +6761,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31528.35</v>
+        <v>29512.63</v>
       </c>
       <c r="C13">
-        <v>35985.42</v>
+        <v>35737.5</v>
       </c>
       <c r="D13">
-        <v>35215.339999999997</v>
+        <v>32266.82</v>
       </c>
       <c r="E13">
-        <v>31161.49</v>
+        <v>29662.98</v>
       </c>
       <c r="F13">
-        <v>38574.5</v>
+        <v>37698.839999999997</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6781,19 +6781,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>58733.88</v>
+        <v>28648.17</v>
       </c>
       <c r="C14">
-        <v>68008.55</v>
+        <v>33979.519999999997</v>
       </c>
       <c r="D14">
-        <v>62016.53</v>
+        <v>31942.51</v>
       </c>
       <c r="E14">
-        <v>58419.18</v>
+        <v>28459.33</v>
       </c>
       <c r="F14">
-        <v>71414.25</v>
+        <v>36283.760000000002</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6801,19 +6801,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36190.43</v>
+        <v>24130.15</v>
       </c>
       <c r="C15">
-        <v>36305.81</v>
+        <v>28484.880000000001</v>
       </c>
       <c r="D15">
-        <v>37140.03</v>
+        <v>26531.59</v>
       </c>
       <c r="E15">
-        <v>36324.910000000003</v>
+        <v>24323.86</v>
       </c>
       <c r="F15">
-        <v>38713.480000000003</v>
+        <v>30304.07</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6821,19 +6821,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>44568.08</v>
+        <v>40880.01</v>
       </c>
       <c r="C16">
-        <v>45036.24</v>
+        <v>47165.24</v>
       </c>
       <c r="D16">
-        <v>45776.65</v>
+        <v>51219.58</v>
       </c>
       <c r="E16">
-        <v>44725.64</v>
+        <v>39278.300000000003</v>
       </c>
       <c r="F16">
-        <v>48207.05</v>
+        <v>51510.49</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6841,19 +6841,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>39050.14</v>
+        <v>61687.08</v>
       </c>
       <c r="C17">
-        <v>38867.519999999997</v>
+        <v>71858.009999999995</v>
       </c>
       <c r="D17">
-        <v>39873.21</v>
+        <v>67820.39</v>
       </c>
       <c r="E17">
-        <v>39251.730000000003</v>
+        <v>62104.18</v>
       </c>
       <c r="F17">
-        <v>41472.550000000003</v>
+        <v>75725.899999999994</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6861,19 +6861,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>42096.79</v>
+        <v>70235.83</v>
       </c>
       <c r="C18">
-        <v>40679.08</v>
+        <v>78417.210000000006</v>
       </c>
       <c r="D18">
-        <v>42296.89</v>
+        <v>76691.78</v>
       </c>
       <c r="E18">
-        <v>42388.24</v>
+        <v>69625.509999999995</v>
       </c>
       <c r="F18">
-        <v>43322.97</v>
+        <v>83833.570000000007</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6881,19 +6881,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>47651.93</v>
+        <v>74268.899999999994</v>
       </c>
       <c r="C19">
-        <v>46366.02</v>
+        <v>80988.800000000003</v>
       </c>
       <c r="D19">
-        <v>47882.32</v>
+        <v>79899.17</v>
       </c>
       <c r="E19">
-        <v>48051.64</v>
+        <v>73926.080000000002</v>
       </c>
       <c r="F19">
-        <v>49289.5</v>
+        <v>86698.8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6901,19 +6901,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>59891.78</v>
+        <v>70058.03</v>
       </c>
       <c r="C20">
-        <v>61803.65</v>
+        <v>65314.7</v>
       </c>
       <c r="D20">
-        <v>54338.01</v>
+        <v>67774.02</v>
       </c>
       <c r="E20">
-        <v>63484.959999999999</v>
+        <v>60076.89</v>
       </c>
       <c r="F20">
-        <v>57457.19</v>
+        <v>72183.490000000005</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6921,19 +6921,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>63909.27</v>
+        <v>64553.31</v>
       </c>
       <c r="C21">
-        <v>60371.61</v>
+        <v>67290.13</v>
       </c>
       <c r="D21">
-        <v>59489.760000000002</v>
+        <v>69032.33</v>
       </c>
       <c r="E21">
-        <v>65005.03</v>
+        <v>64160.09</v>
       </c>
       <c r="F21">
-        <v>63080.11</v>
+        <v>69499.06</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6941,19 +6941,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>55039.32</v>
+        <v>84141.2</v>
       </c>
       <c r="C22">
-        <v>45708.73</v>
+        <v>86557.67</v>
       </c>
       <c r="D22">
-        <v>40661.06</v>
+        <v>87560.66</v>
       </c>
       <c r="E22">
-        <v>49343.28</v>
+        <v>84035.56</v>
       </c>
       <c r="F22">
-        <v>41591.68</v>
+        <v>91804.68</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -6961,19 +6961,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>86526.2</v>
+        <v>83973.58</v>
       </c>
       <c r="C23">
-        <v>73871.789999999994</v>
+        <v>86544.1</v>
       </c>
       <c r="D23">
-        <v>81830.38</v>
+        <v>74540.81</v>
       </c>
       <c r="E23">
-        <v>68085.570000000007</v>
+        <v>86299.08</v>
       </c>
       <c r="F23">
-        <v>77196.259999999995</v>
+        <v>92491.66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -6981,19 +6981,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29421.95</v>
+        <v>66551.070000000007</v>
       </c>
       <c r="C24">
-        <v>29213.94</v>
+        <v>77015.22</v>
       </c>
       <c r="D24">
-        <v>30757.51</v>
+        <v>64909.23</v>
       </c>
       <c r="E24">
-        <v>29601.23</v>
+        <v>78681.53</v>
       </c>
       <c r="F24">
-        <v>31344</v>
+        <v>82179.3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7001,19 +7001,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30727.25</v>
+        <v>69628.72</v>
       </c>
       <c r="C25">
-        <v>28304.18</v>
+        <v>67226.77</v>
       </c>
       <c r="D25">
-        <v>30322.49</v>
+        <v>69937.84</v>
       </c>
       <c r="E25">
-        <v>30230.27</v>
+        <v>71188.25</v>
       </c>
       <c r="F25">
-        <v>30381.919999999998</v>
+        <v>71815.740000000005</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7021,19 +7021,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>60787.61</v>
+        <v>56987.51</v>
       </c>
       <c r="C26">
-        <v>56186.1</v>
+        <v>53451.03</v>
       </c>
       <c r="D26">
-        <v>59810.57</v>
+        <v>56756.85</v>
       </c>
       <c r="E26">
-        <v>62854.879999999997</v>
+        <v>57452.160000000003</v>
       </c>
       <c r="F26">
-        <v>59660.02</v>
+        <v>57065.51</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -7041,19 +7041,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>48377.120000000003</v>
+        <v>56932.959999999999</v>
       </c>
       <c r="C27">
-        <v>46793.23</v>
+        <v>53216.639999999999</v>
       </c>
       <c r="D27">
-        <v>47946.9</v>
+        <v>56508.25</v>
       </c>
       <c r="E27">
-        <v>47602.58</v>
+        <v>57437.45</v>
       </c>
       <c r="F27">
-        <v>48904.28</v>
+        <v>56747.51</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -7061,19 +7061,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>73214.710000000006</v>
+        <v>65176.160000000003</v>
       </c>
       <c r="C28">
-        <v>69861.759999999995</v>
+        <v>59704.82</v>
       </c>
       <c r="D28">
-        <v>72768.36</v>
+        <v>64061.96</v>
       </c>
       <c r="E28">
-        <v>54026.95</v>
+        <v>65758.080000000002</v>
       </c>
       <c r="F28">
-        <v>64385.63</v>
+        <v>63485.88</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -7081,19 +7081,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8062.85</v>
+        <v>82116.679999999993</v>
       </c>
       <c r="C29">
-        <v>8293.5499999999993</v>
+        <v>76646.03</v>
       </c>
       <c r="D29">
-        <v>8369.91</v>
+        <v>80046.649999999994</v>
       </c>
       <c r="E29">
-        <v>8146.3</v>
+        <v>82809.850000000006</v>
       </c>
       <c r="F29">
-        <v>8893.7800000000007</v>
+        <v>80544.160000000003</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -7101,19 +7101,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>20938.63</v>
+        <v>67613.52</v>
       </c>
       <c r="C30">
-        <v>17514.98</v>
+        <v>54002.05</v>
       </c>
       <c r="D30">
-        <v>19616.5</v>
+        <v>73252.289999999994</v>
       </c>
       <c r="E30">
-        <v>21310.45</v>
+        <v>60481.440000000002</v>
       </c>
       <c r="F30">
-        <v>18618.240000000002</v>
+        <v>60960.17</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -7121,19 +7121,19 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>29255.5</v>
+        <v>67161.679999999993</v>
       </c>
       <c r="C31">
-        <v>24208.16</v>
+        <v>57289.78</v>
       </c>
       <c r="D31">
-        <v>27307.68</v>
+        <v>65333.77</v>
       </c>
       <c r="E31">
-        <v>29618.83</v>
+        <v>65051.66</v>
       </c>
       <c r="F31">
-        <v>25783.040000000001</v>
+        <v>62969.64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7141,19 +7141,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>26679.54</v>
+        <v>39960.54</v>
       </c>
       <c r="C32">
-        <v>23076.46</v>
+        <v>35022.120000000003</v>
       </c>
       <c r="D32">
-        <v>25438.3</v>
+        <v>38653.78</v>
       </c>
       <c r="E32">
-        <v>27024.35</v>
+        <v>41162.080000000002</v>
       </c>
       <c r="F32">
-        <v>24578.53</v>
+        <v>37302.76</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -7161,19 +7161,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>16965.18</v>
+        <v>35487.85</v>
       </c>
       <c r="C33">
-        <v>15327.89</v>
+        <v>34591.71</v>
       </c>
       <c r="D33">
-        <v>16745.259999999998</v>
+        <v>31356.720000000001</v>
       </c>
       <c r="E33">
-        <v>17202.310000000001</v>
+        <v>40153.910000000003</v>
       </c>
       <c r="F33">
-        <v>16399.900000000001</v>
+        <v>31555.13</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -7181,19 +7181,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>12997.82</v>
+        <v>75575.03</v>
       </c>
       <c r="C34">
-        <v>12220.15</v>
+        <v>67089.710000000006</v>
       </c>
       <c r="D34">
-        <v>13034.26</v>
+        <v>74038.44</v>
       </c>
       <c r="E34">
-        <v>13179.09</v>
+        <v>65818.23</v>
       </c>
       <c r="F34">
-        <v>13080.69</v>
+        <v>70933.600000000006</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7201,19 +7201,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>11130.93</v>
+        <v>44581.35</v>
       </c>
       <c r="C35">
-        <v>10422.52</v>
+        <v>42733.83</v>
       </c>
       <c r="D35">
-        <v>11150.71</v>
+        <v>43503.7</v>
       </c>
       <c r="E35">
-        <v>11294.19</v>
+        <v>53724.33</v>
       </c>
       <c r="F35">
-        <v>11167.38</v>
+        <v>44574.41</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -7221,19 +7221,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>12489.92</v>
+        <v>75448.31</v>
       </c>
       <c r="C36">
-        <v>11566.42</v>
+        <v>55158.1</v>
       </c>
       <c r="D36">
-        <v>12460.67</v>
+        <v>63729.51</v>
       </c>
       <c r="E36">
-        <v>12671.13</v>
+        <v>65866.61</v>
       </c>
       <c r="F36">
-        <v>12390.54</v>
+        <v>65051.21</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -7241,19 +7241,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>15255.23</v>
+        <v>39345.47</v>
       </c>
       <c r="C37">
-        <v>15014.26</v>
+        <v>38384.959999999999</v>
       </c>
       <c r="D37">
-        <v>15608.38</v>
+        <v>39684.42</v>
       </c>
       <c r="E37">
-        <v>15438.36</v>
+        <v>43187.79</v>
       </c>
       <c r="F37">
-        <v>16029.36</v>
+        <v>35474.050000000003</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -7261,19 +7261,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>20000.86</v>
+        <v>28300.41</v>
       </c>
       <c r="C38">
-        <v>20062.88</v>
+        <v>24156.51</v>
       </c>
       <c r="D38">
-        <v>20608.77</v>
+        <v>26576.71</v>
       </c>
       <c r="E38">
-        <v>20182.46</v>
+        <v>28803.05</v>
       </c>
       <c r="F38">
-        <v>21416.17</v>
+        <v>25611.91</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7281,19 +7281,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>21044.06</v>
+        <v>52891.97</v>
       </c>
       <c r="C39">
-        <v>20794.38</v>
+        <v>39937.99</v>
       </c>
       <c r="D39">
-        <v>21579.02</v>
+        <v>55110.12</v>
       </c>
       <c r="E39">
-        <v>21183.07</v>
+        <v>52946.43</v>
       </c>
       <c r="F39">
-        <v>22199.18</v>
+        <v>42496.6</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -7301,19 +7301,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>24530.41</v>
+        <v>21174.16</v>
       </c>
       <c r="C40">
-        <v>23732.59</v>
+        <v>19043.009999999998</v>
       </c>
       <c r="D40">
-        <v>24932.35</v>
+        <v>20982.05</v>
       </c>
       <c r="E40">
-        <v>24787.62</v>
+        <v>21441.85</v>
       </c>
       <c r="F40">
-        <v>25355.81</v>
+        <v>20410.419999999998</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7321,19 +7321,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>24042.44</v>
+        <v>52945.09</v>
       </c>
       <c r="C41">
-        <v>23234.54</v>
+        <v>38208.910000000003</v>
       </c>
       <c r="D41">
-        <v>24371.21</v>
+        <v>47379.18</v>
       </c>
       <c r="E41">
-        <v>24311.98</v>
+        <v>52770.239999999998</v>
       </c>
       <c r="F41">
-        <v>24844.04</v>
+        <v>41356.29</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -7341,19 +7341,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>38366.519999999997</v>
+        <v>10907.57</v>
       </c>
       <c r="C42">
-        <v>32108.93</v>
+        <v>11161.77</v>
       </c>
       <c r="D42">
-        <v>35096.449999999997</v>
+        <v>11389.32</v>
       </c>
       <c r="E42">
-        <v>38651.199999999997</v>
+        <v>10982.76</v>
       </c>
       <c r="F42">
-        <v>34545.78</v>
+        <v>11968.85</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -7361,19 +7361,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>25888.720000000001</v>
+        <v>18630.03</v>
       </c>
       <c r="C43">
-        <v>23086.69</v>
+        <v>17156.099999999999</v>
       </c>
       <c r="D43">
-        <v>25442.67</v>
+        <v>18516.8</v>
       </c>
       <c r="E43">
-        <v>26178.16</v>
+        <v>18846.240000000002</v>
       </c>
       <c r="F43">
-        <v>24751.38</v>
+        <v>18346.740000000002</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -7381,19 +7381,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>28694.11</v>
+        <v>30927.71</v>
       </c>
       <c r="C44">
-        <v>21653.65</v>
+        <v>20262.62</v>
       </c>
       <c r="D44">
-        <v>25881.52</v>
+        <v>26356.400000000001</v>
       </c>
       <c r="E44">
-        <v>29303.18</v>
+        <v>31782.75</v>
       </c>
       <c r="F44">
-        <v>23183.96</v>
+        <v>21781.34</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -7401,19 +7401,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>20917.88</v>
+        <v>20489.759999999998</v>
       </c>
       <c r="C45">
-        <v>16590.84</v>
+        <v>15492.54</v>
       </c>
       <c r="D45">
-        <v>19339.490000000002</v>
+        <v>18792.32</v>
       </c>
       <c r="E45">
-        <v>21702.26</v>
+        <v>20875.87</v>
       </c>
       <c r="F45">
-        <v>17825.830000000002</v>
+        <v>16679.45</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -7421,19 +7421,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>14228.53</v>
+        <v>15651.03</v>
       </c>
       <c r="C46">
-        <v>12858.64</v>
+        <v>10567.6</v>
       </c>
       <c r="D46">
-        <v>14057.63</v>
+        <v>13487.87</v>
       </c>
       <c r="E46">
-        <v>14391.15</v>
+        <v>15987.52</v>
       </c>
       <c r="F46">
-        <v>13800.07</v>
+        <v>11418.97</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -7441,19 +7441,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>12411.46</v>
+        <v>9761.5300000000007</v>
       </c>
       <c r="C47">
-        <v>11001.3</v>
+        <v>8590.1299999999992</v>
       </c>
       <c r="D47">
-        <v>12059.03</v>
+        <v>9446.5300000000007</v>
       </c>
       <c r="E47">
-        <v>12546.85</v>
+        <v>9927.59</v>
       </c>
       <c r="F47">
-        <v>11808.65</v>
+        <v>9220.11</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -7461,19 +7461,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>14578.03</v>
+        <v>3358.94</v>
       </c>
       <c r="C48">
-        <v>11426.82</v>
+        <v>3328.15</v>
       </c>
       <c r="D48">
-        <v>13156.74</v>
+        <v>3515.2</v>
       </c>
       <c r="E48">
-        <v>15045.9</v>
+        <v>3429.16</v>
       </c>
       <c r="F48">
-        <v>12313</v>
+        <v>3606.83</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7481,19 +7481,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>11698.59</v>
+        <v>1199.6300000000001</v>
       </c>
       <c r="C49">
-        <v>8483</v>
+        <v>1080.5899999999999</v>
       </c>
       <c r="D49">
-        <v>10667.48</v>
+        <v>1203.53</v>
       </c>
       <c r="E49">
-        <v>11857.06</v>
+        <v>1231.29</v>
       </c>
       <c r="F49">
-        <v>9160.7999999999993</v>
+        <v>1187.3499999999999</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -7501,19 +7501,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3249.31</v>
+        <v>2479.9499999999998</v>
       </c>
       <c r="C50">
-        <v>2806.63</v>
+        <v>2433.4</v>
       </c>
       <c r="D50">
-        <v>3140.71</v>
+        <v>2562</v>
       </c>
       <c r="E50">
-        <v>3333.56</v>
+        <v>2542.5</v>
       </c>
       <c r="F50">
-        <v>3040.29</v>
+        <v>2617.34</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7521,19 +7521,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2569.25</v>
+        <v>1213.0999999999999</v>
       </c>
       <c r="C51">
-        <v>1941.07</v>
+        <v>1225.8</v>
       </c>
       <c r="D51">
-        <v>2305.91</v>
+        <v>1288</v>
       </c>
       <c r="E51">
-        <v>2601.79</v>
+        <v>1248.8399999999999</v>
       </c>
       <c r="F51">
-        <v>2118.63</v>
+        <v>1351.17</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -7541,19 +7541,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>40.89</v>
+        <v>238.57</v>
       </c>
       <c r="C52">
-        <v>62.38</v>
+        <v>231.15</v>
       </c>
       <c r="D52">
-        <v>68.16</v>
+        <v>267.04000000000002</v>
       </c>
       <c r="E52">
-        <v>37.369999999999997</v>
+        <v>246.11</v>
       </c>
       <c r="F52">
-        <v>91.43</v>
+        <v>280.8</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -7567,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>8.81</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -7605,8 +7605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7659,19 +7659,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>663.32</v>
+        <v>346.97</v>
       </c>
       <c r="C3">
-        <v>897.63</v>
+        <v>381.93</v>
       </c>
       <c r="D3">
-        <v>807.76</v>
+        <v>395.52</v>
       </c>
       <c r="E3">
-        <v>664.1</v>
+        <v>355.75</v>
       </c>
       <c r="F3">
-        <v>999.1</v>
+        <v>445.4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7679,19 +7679,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2692.39</v>
+        <v>2234.2800000000002</v>
       </c>
       <c r="C4">
-        <v>5751.97</v>
+        <v>2437.86</v>
       </c>
       <c r="D4">
-        <v>3696.54</v>
+        <v>2416.4</v>
       </c>
       <c r="E4">
-        <v>2575.08</v>
+        <v>2260.64</v>
       </c>
       <c r="F4">
-        <v>6577.62</v>
+        <v>2656.38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7699,19 +7699,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3661.37</v>
+        <v>5173.95</v>
       </c>
       <c r="C5">
-        <v>4065.33</v>
+        <v>5628.22</v>
       </c>
       <c r="D5">
-        <v>3914.22</v>
+        <v>5500.42</v>
       </c>
       <c r="E5">
-        <v>3704.8</v>
+        <v>5204.3</v>
       </c>
       <c r="F5">
-        <v>4386.68</v>
+        <v>6041.41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7719,19 +7719,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3977.54</v>
+        <v>10493.39</v>
       </c>
       <c r="C6">
-        <v>4092.26</v>
+        <v>14457.29</v>
       </c>
       <c r="D6">
-        <v>4144.84</v>
+        <v>12462.46</v>
       </c>
       <c r="E6">
-        <v>4043.07</v>
+        <v>10269.459999999999</v>
       </c>
       <c r="F6">
-        <v>4417.5</v>
+        <v>15425.58</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7739,19 +7739,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6496.22</v>
+        <v>13020.96</v>
       </c>
       <c r="C7">
-        <v>6146.67</v>
+        <v>17593.580000000002</v>
       </c>
       <c r="D7">
-        <v>6487.47</v>
+        <v>15286.48</v>
       </c>
       <c r="E7">
-        <v>6564.54</v>
+        <v>12780.8</v>
       </c>
       <c r="F7">
-        <v>6595.41</v>
+        <v>18756.310000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7759,19 +7759,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>11075.5</v>
+        <v>17679.3</v>
       </c>
       <c r="C8">
-        <v>10782.72</v>
+        <v>22218.48</v>
       </c>
       <c r="D8">
-        <v>11234.29</v>
+        <v>20636.84</v>
       </c>
       <c r="E8">
-        <v>11163.56</v>
+        <v>17344.759999999998</v>
       </c>
       <c r="F8">
-        <v>11558</v>
+        <v>24251.01</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7779,19 +7779,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>12358.92</v>
+        <v>16408.11</v>
       </c>
       <c r="C9">
-        <v>12022.81</v>
+        <v>17251.189999999999</v>
       </c>
       <c r="D9">
-        <v>12551.86</v>
+        <v>17236.259999999998</v>
       </c>
       <c r="E9">
-        <v>12455.54</v>
+        <v>16444.71</v>
       </c>
       <c r="F9">
-        <v>12877.15</v>
+        <v>18472.82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7799,19 +7799,19 @@
         <v>53</v>
       </c>
       <c r="B10">
-        <v>14801.1</v>
+        <v>21681.38</v>
       </c>
       <c r="C10">
-        <v>14635.69</v>
+        <v>24844.47</v>
       </c>
       <c r="D10">
-        <v>15109.42</v>
+        <v>25168.58</v>
       </c>
       <c r="E10">
-        <v>14901.56</v>
+        <v>20372.68</v>
       </c>
       <c r="F10">
-        <v>15657.73</v>
+        <v>27481.61</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7819,19 +7819,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17790.93</v>
+        <v>27689.48</v>
       </c>
       <c r="C11">
-        <v>17683.900000000001</v>
+        <v>34249.42</v>
       </c>
       <c r="D11">
-        <v>18140.13</v>
+        <v>32180.99</v>
       </c>
       <c r="E11">
-        <v>17887.400000000001</v>
+        <v>26561.52</v>
       </c>
       <c r="F11">
-        <v>18902.810000000001</v>
+        <v>37487.949999999997</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7839,19 +7839,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18810.46</v>
+        <v>36303.15</v>
       </c>
       <c r="C12">
-        <v>18412.5</v>
+        <v>47041.18</v>
       </c>
       <c r="D12">
-        <v>19087.77</v>
+        <v>39742.639999999999</v>
       </c>
       <c r="E12">
-        <v>18953.95</v>
+        <v>36796.46</v>
       </c>
       <c r="F12">
-        <v>19693.18</v>
+        <v>48542.12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7859,19 +7859,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20670.22</v>
+        <v>31830.81</v>
       </c>
       <c r="C13">
-        <v>19332.3</v>
+        <v>36401.21</v>
       </c>
       <c r="D13">
-        <v>20610.96</v>
+        <v>35670.97</v>
       </c>
       <c r="E13">
-        <v>20860.349999999999</v>
+        <v>31383.55</v>
       </c>
       <c r="F13">
-        <v>20655.580000000002</v>
+        <v>39096.71</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7879,19 +7879,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24088.48</v>
+        <v>32674.67</v>
       </c>
       <c r="C14">
-        <v>22654.05</v>
+        <v>38437.11</v>
       </c>
       <c r="D14">
-        <v>24065.26</v>
+        <v>33442.6</v>
       </c>
       <c r="E14">
-        <v>24264.17</v>
+        <v>32941.949999999997</v>
       </c>
       <c r="F14">
-        <v>24212.74</v>
+        <v>41197.83</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7899,19 +7899,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35958.370000000003</v>
+        <v>51155.59</v>
       </c>
       <c r="C15">
-        <v>39827.79</v>
+        <v>54920.39</v>
       </c>
       <c r="D15">
-        <v>39078.019999999997</v>
+        <v>57094.71</v>
       </c>
       <c r="E15">
-        <v>36052.82</v>
+        <v>46885.279999999999</v>
       </c>
       <c r="F15">
-        <v>43045.15</v>
+        <v>62734.39</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7919,19 +7919,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>65069.16</v>
+        <v>44256.11</v>
       </c>
       <c r="C16">
-        <v>73821.27</v>
+        <v>48166.69</v>
       </c>
       <c r="D16">
-        <v>67231.320000000007</v>
+        <v>48550.55</v>
       </c>
       <c r="E16">
-        <v>61709.17</v>
+        <v>44596.69</v>
       </c>
       <c r="F16">
-        <v>76660.149999999994</v>
+        <v>50494.85</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7939,19 +7939,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>59984.85</v>
+        <v>23934.48</v>
       </c>
       <c r="C17">
-        <v>68760.850000000006</v>
+        <v>24166.17</v>
       </c>
       <c r="D17">
-        <v>66574.22</v>
+        <v>24320.65</v>
       </c>
       <c r="E17">
-        <v>59049.74</v>
+        <v>24434.31</v>
       </c>
       <c r="F17">
-        <v>73816.179999999993</v>
+        <v>25407.1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7959,19 +7959,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>49943.48</v>
+        <v>23802.67</v>
       </c>
       <c r="C18">
-        <v>52448.03</v>
+        <v>22201.29</v>
       </c>
       <c r="D18">
-        <v>52499.01</v>
+        <v>23478.41</v>
       </c>
       <c r="E18">
-        <v>49691.7</v>
+        <v>23966.87</v>
       </c>
       <c r="F18">
-        <v>55990.080000000002</v>
+        <v>23699.58</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7979,19 +7979,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>51821</v>
+        <v>29820.91</v>
       </c>
       <c r="C19">
-        <v>53817.09</v>
+        <v>30323.69</v>
       </c>
       <c r="D19">
-        <v>53576.04</v>
+        <v>30614.7</v>
       </c>
       <c r="E19">
-        <v>51435.28</v>
+        <v>31163.83</v>
       </c>
       <c r="F19">
-        <v>56848.35</v>
+        <v>31635</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7999,19 +7999,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33021.56</v>
+        <v>77326.2</v>
       </c>
       <c r="C20">
-        <v>37492.089999999997</v>
+        <v>80350.289999999994</v>
       </c>
       <c r="D20">
-        <v>35460.620000000003</v>
+        <v>83158.34</v>
       </c>
       <c r="E20">
-        <v>33501.440000000002</v>
+        <v>75977.39</v>
       </c>
       <c r="F20">
-        <v>39826.199999999997</v>
+        <v>88063.37</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8019,19 +8019,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>82619.06</v>
+        <v>72420.600000000006</v>
       </c>
       <c r="C21">
-        <v>88596.09</v>
+        <v>74028.350000000006</v>
       </c>
       <c r="D21">
-        <v>89273.17</v>
+        <v>75589.7</v>
       </c>
       <c r="E21">
-        <v>80712.87</v>
+        <v>72506.27</v>
       </c>
       <c r="F21">
-        <v>94871.3</v>
+        <v>79644.52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8039,19 +8039,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24550.06</v>
+        <v>72418.11</v>
       </c>
       <c r="C22">
-        <v>24471.75</v>
+        <v>73107.97</v>
       </c>
       <c r="D22">
-        <v>25102.87</v>
+        <v>73727.63</v>
       </c>
       <c r="E22">
-        <v>24723.19</v>
+        <v>72583.899999999994</v>
       </c>
       <c r="F22">
-        <v>26127.75</v>
+        <v>75880.740000000005</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8059,19 +8059,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>58481.98</v>
+        <v>60021.48</v>
       </c>
       <c r="C23">
-        <v>57475.71</v>
+        <v>61089.86</v>
       </c>
       <c r="D23">
-        <v>58612.51</v>
+        <v>71827.92</v>
       </c>
       <c r="E23">
-        <v>58627.19</v>
+        <v>63584.29</v>
       </c>
       <c r="F23">
-        <v>59309.15</v>
+        <v>64364.77</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8079,19 +8079,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>52050.78</v>
+        <v>64323.26</v>
       </c>
       <c r="C24">
-        <v>42977.919999999998</v>
+        <v>60257.08</v>
       </c>
       <c r="D24">
-        <v>64776.07</v>
+        <v>50692.29</v>
       </c>
       <c r="E24">
-        <v>45567.59</v>
+        <v>60712.73</v>
       </c>
       <c r="F24">
-        <v>46783.71</v>
+        <v>64783.94</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8099,19 +8099,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>77020.06</v>
+        <v>71353.11</v>
       </c>
       <c r="C25">
-        <v>70375.25</v>
+        <v>64052.2</v>
       </c>
       <c r="D25">
-        <v>77462.53</v>
+        <v>63620.52</v>
       </c>
       <c r="E25">
-        <v>71696.62</v>
+        <v>67921.83</v>
       </c>
       <c r="F25">
-        <v>78398.69</v>
+        <v>64779.31</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8119,19 +8119,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>72661.05</v>
+        <v>76344.570000000007</v>
       </c>
       <c r="C26">
-        <v>72042.06</v>
+        <v>74094.320000000007</v>
       </c>
       <c r="D26">
-        <v>76458.8</v>
+        <v>76414.22</v>
       </c>
       <c r="E26">
-        <v>75830.740000000005</v>
+        <v>66710.33</v>
       </c>
       <c r="F26">
-        <v>76599.13</v>
+        <v>76477.8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8139,19 +8139,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>50367.92</v>
+        <v>100004.35</v>
       </c>
       <c r="C27">
-        <v>48014.33</v>
+        <v>95563.93</v>
       </c>
       <c r="D27">
-        <v>51591.199999999997</v>
+        <v>99997.49</v>
       </c>
       <c r="E27">
-        <v>52327.38</v>
+        <v>98255.69</v>
       </c>
       <c r="F27">
-        <v>53529.29</v>
+        <v>99123.02</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8159,19 +8159,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>76566.63</v>
+        <v>61999.8</v>
       </c>
       <c r="C28">
-        <v>72138.25</v>
+        <v>59223.64</v>
       </c>
       <c r="D28">
-        <v>77967.199999999997</v>
+        <v>63327.88</v>
       </c>
       <c r="E28">
-        <v>68707.289999999994</v>
+        <v>64767.41</v>
       </c>
       <c r="F28">
-        <v>78110.2</v>
+        <v>61910.32</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8179,19 +8179,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>68727.61</v>
+        <v>82288.97</v>
       </c>
       <c r="C29">
-        <v>73348</v>
+        <v>80513.759999999995</v>
       </c>
       <c r="D29">
-        <v>68473.440000000002</v>
+        <v>82330.31</v>
       </c>
       <c r="E29">
-        <v>67844.52</v>
+        <v>62957.75</v>
       </c>
       <c r="F29">
-        <v>76345.679999999993</v>
+        <v>82262.39</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8199,19 +8199,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>77527.11</v>
+        <v>99935.32</v>
       </c>
       <c r="C30">
-        <v>77160.75</v>
+        <v>97035.17</v>
       </c>
       <c r="D30">
-        <v>77178.06</v>
+        <v>99825.26</v>
       </c>
       <c r="E30">
-        <v>77404.100000000006</v>
+        <v>99772.32</v>
       </c>
       <c r="F30">
-        <v>78351.350000000006</v>
+        <v>99791.54</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8219,19 +8219,19 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>19658.47</v>
+        <v>90748.32</v>
       </c>
       <c r="C31">
-        <v>19353.55</v>
+        <v>91524.84</v>
       </c>
       <c r="D31">
-        <v>20322.560000000001</v>
+        <v>87170.89</v>
       </c>
       <c r="E31">
-        <v>19812.2</v>
+        <v>89722.55</v>
       </c>
       <c r="F31">
-        <v>20771.54</v>
+        <v>90334.62</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8239,19 +8239,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3108.67</v>
+        <v>75302.83</v>
       </c>
       <c r="C32">
-        <v>3291.59</v>
+        <v>68201.899999999994</v>
       </c>
       <c r="D32">
-        <v>3303.35</v>
+        <v>67677.62</v>
       </c>
       <c r="E32">
-        <v>3226.53</v>
+        <v>76316.52</v>
       </c>
       <c r="F32">
-        <v>3548.44</v>
+        <v>67329.009999999995</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8259,19 +8259,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6364.25</v>
+        <v>78409.53</v>
       </c>
       <c r="C33">
-        <v>5573.44</v>
+        <v>68957.73</v>
       </c>
       <c r="D33">
-        <v>6195.74</v>
+        <v>78321.16</v>
       </c>
       <c r="E33">
-        <v>6472.26</v>
+        <v>77956.11</v>
       </c>
       <c r="F33">
-        <v>5979.24</v>
+        <v>74664.87</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8279,19 +8279,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>10458.18</v>
+        <v>45620.49</v>
       </c>
       <c r="C34">
-        <v>9493.02</v>
+        <v>40296.42</v>
       </c>
       <c r="D34">
-        <v>10467.24</v>
+        <v>39956.97</v>
       </c>
       <c r="E34">
-        <v>10554.63</v>
+        <v>43749.279999999999</v>
       </c>
       <c r="F34">
-        <v>10212.59</v>
+        <v>42219.54</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8299,19 +8299,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>18780.63</v>
+        <v>27732.21</v>
       </c>
       <c r="C35">
-        <v>17887.8</v>
+        <v>26030.240000000002</v>
       </c>
       <c r="D35">
-        <v>19084.71</v>
+        <v>27364.59</v>
       </c>
       <c r="E35">
-        <v>18926.150000000001</v>
+        <v>28377.38</v>
       </c>
       <c r="F35">
-        <v>19149.599999999999</v>
+        <v>27482.1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8319,19 +8319,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>29219.55</v>
+        <v>74051.990000000005</v>
       </c>
       <c r="C36">
-        <v>27001.32</v>
+        <v>65441.69</v>
       </c>
       <c r="D36">
-        <v>29176.15</v>
+        <v>65401.56</v>
       </c>
       <c r="E36">
-        <v>29465.31</v>
+        <v>63944.44</v>
       </c>
       <c r="F36">
-        <v>28867.45</v>
+        <v>69392.55</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -8339,19 +8339,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>15765.06</v>
+        <v>62329.279999999999</v>
       </c>
       <c r="C37">
-        <v>15995.04</v>
+        <v>50777.08</v>
       </c>
       <c r="D37">
-        <v>16436.27</v>
+        <v>58793.47</v>
       </c>
       <c r="E37">
-        <v>15947.79</v>
+        <v>58857.63</v>
       </c>
       <c r="F37">
-        <v>17172.05</v>
+        <v>53762.96</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -8359,19 +8359,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6380.29</v>
+        <v>33608.93</v>
       </c>
       <c r="C38">
-        <v>6023.24</v>
+        <v>31186.639999999999</v>
       </c>
       <c r="D38">
-        <v>6457.69</v>
+        <v>33656.79</v>
       </c>
       <c r="E38">
-        <v>6460.14</v>
+        <v>34004.589999999997</v>
       </c>
       <c r="F38">
-        <v>6463.41</v>
+        <v>33318.61</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -8379,19 +8379,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>11892.42</v>
+        <v>56760.22</v>
       </c>
       <c r="C39">
-        <v>10898.19</v>
+        <v>45470.16</v>
       </c>
       <c r="D39">
-        <v>11789.42</v>
+        <v>51926.92</v>
       </c>
       <c r="E39">
-        <v>12035.64</v>
+        <v>58052.88</v>
       </c>
       <c r="F39">
-        <v>11657.47</v>
+        <v>47844.73</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -8399,19 +8399,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7271.07</v>
+        <v>42246.49</v>
       </c>
       <c r="C40">
-        <v>6881.95</v>
+        <v>33105.03</v>
       </c>
       <c r="D40">
-        <v>7245.59</v>
+        <v>37408.57</v>
       </c>
       <c r="E40">
-        <v>7410.11</v>
+        <v>38977.760000000002</v>
       </c>
       <c r="F40">
-        <v>7387.77</v>
+        <v>36492.69</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -8419,19 +8419,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5934.43</v>
+        <v>26562.49</v>
       </c>
       <c r="C41">
-        <v>5268.08</v>
+        <v>21209.14</v>
       </c>
       <c r="D41">
-        <v>5770.67</v>
+        <v>26342.560000000001</v>
       </c>
       <c r="E41">
-        <v>6022.51</v>
+        <v>25407.67</v>
       </c>
       <c r="F41">
-        <v>5622.92</v>
+        <v>24015.18</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -8439,19 +8439,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>8910.8700000000008</v>
+        <v>63935.9</v>
       </c>
       <c r="C42">
-        <v>8519.59</v>
+        <v>43626.65</v>
       </c>
       <c r="D42">
-        <v>8968.89</v>
+        <v>55585.32</v>
       </c>
       <c r="E42">
-        <v>9088.5400000000009</v>
+        <v>65263.92</v>
       </c>
       <c r="F42">
-        <v>9111.57</v>
+        <v>46570.6</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -8459,19 +8459,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4713.97</v>
+        <v>43387.21</v>
       </c>
       <c r="C43">
-        <v>4204.57</v>
+        <v>28653.72</v>
       </c>
       <c r="D43">
-        <v>4577.82</v>
+        <v>37359.53</v>
       </c>
       <c r="E43">
-        <v>4753.54</v>
+        <v>44220.07</v>
       </c>
       <c r="F43">
-        <v>4471.33</v>
+        <v>30876.89</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -8479,19 +8479,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2062.85</v>
+        <v>36785.08</v>
       </c>
       <c r="C44">
-        <v>2093.02</v>
+        <v>23358.74</v>
       </c>
       <c r="D44">
-        <v>2162.11</v>
+        <v>31238.16</v>
       </c>
       <c r="E44">
-        <v>2118.44</v>
+        <v>37665.69</v>
       </c>
       <c r="F44">
-        <v>2281.25</v>
+        <v>25165.32</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -8499,19 +8499,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1341.76</v>
+        <v>27099.45</v>
       </c>
       <c r="C45">
-        <v>1330.78</v>
+        <v>17055.07</v>
       </c>
       <c r="D45">
-        <v>1418.8</v>
+        <v>22923.27</v>
       </c>
       <c r="E45">
-        <v>1369.44</v>
+        <v>27803.08</v>
       </c>
       <c r="F45">
-        <v>1453.08</v>
+        <v>18368.23</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -8519,19 +8519,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1508.03</v>
+        <v>39630.51</v>
       </c>
       <c r="C46">
-        <v>1510.51</v>
+        <v>17522.25</v>
       </c>
       <c r="D46">
-        <v>1585.72</v>
+        <v>29818.59</v>
       </c>
       <c r="E46">
-        <v>1544.74</v>
+        <v>40694.720000000001</v>
       </c>
       <c r="F46">
-        <v>1649.71</v>
+        <v>19408.86</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -8539,19 +8539,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1263.0899999999999</v>
+        <v>28792.61</v>
       </c>
       <c r="C47">
-        <v>1212.58</v>
+        <v>11270.57</v>
       </c>
       <c r="D47">
-        <v>1309.92</v>
+        <v>20649.57</v>
       </c>
       <c r="E47">
-        <v>1288.83</v>
+        <v>29472.6</v>
       </c>
       <c r="F47">
-        <v>1334.56</v>
+        <v>12668.02</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -8559,19 +8559,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>752.57</v>
+        <v>15144.82</v>
       </c>
       <c r="C48">
-        <v>746.82</v>
+        <v>6781.12</v>
       </c>
       <c r="D48">
-        <v>815.95</v>
+        <v>11263.1</v>
       </c>
       <c r="E48">
-        <v>762.14</v>
+        <v>15522.78</v>
       </c>
       <c r="F48">
-        <v>834.22</v>
+        <v>7482.1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -8579,19 +8579,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>639.04</v>
+        <v>5629.46</v>
       </c>
       <c r="C49">
-        <v>615.82000000000005</v>
+        <v>3516.03</v>
       </c>
       <c r="D49">
-        <v>668.81</v>
+        <v>4670.9799999999996</v>
       </c>
       <c r="E49">
-        <v>641.98</v>
+        <v>5756.64</v>
       </c>
       <c r="F49">
-        <v>694.99</v>
+        <v>3821.78</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -8599,19 +8599,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>601.54</v>
+        <v>4517.09</v>
       </c>
       <c r="C50">
-        <v>578.66999999999996</v>
+        <v>2650.52</v>
       </c>
       <c r="D50">
-        <v>629.25</v>
+        <v>3582.57</v>
       </c>
       <c r="E50">
-        <v>603</v>
+        <v>4534.46</v>
       </c>
       <c r="F50">
-        <v>653.80999999999995</v>
+        <v>2874.16</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -8619,19 +8619,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>349.31</v>
+        <v>2738.32</v>
       </c>
       <c r="C51">
-        <v>342.09</v>
+        <v>1464.89</v>
       </c>
       <c r="D51">
-        <v>386.87</v>
+        <v>2367.87</v>
       </c>
       <c r="E51">
-        <v>343.88</v>
+        <v>3314.94</v>
       </c>
       <c r="F51">
-        <v>408.41</v>
+        <v>1607.85</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -8639,19 +8639,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>76.64</v>
+        <v>678.97</v>
       </c>
       <c r="C52">
-        <v>72.989999999999995</v>
+        <v>300.7</v>
       </c>
       <c r="D52">
-        <v>99.39</v>
+        <v>512.32000000000005</v>
       </c>
       <c r="E52">
-        <v>43.87</v>
+        <v>697.54</v>
       </c>
       <c r="F52">
-        <v>97.88</v>
+        <v>360.84</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -8703,8 +8703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8734,19 +8734,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>247</v>
+        <v>531</v>
       </c>
       <c r="C2">
-        <v>239</v>
+        <v>537</v>
       </c>
       <c r="D2">
-        <v>248</v>
+        <v>543</v>
       </c>
       <c r="E2">
-        <v>248</v>
+        <v>529</v>
       </c>
       <c r="F2">
-        <v>253</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8754,19 +8754,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C3">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="D3">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="E3">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F3">
-        <v>565</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8774,19 +8774,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="C4">
-        <v>436</v>
+        <v>512</v>
       </c>
       <c r="D4">
-        <v>485</v>
+        <v>530</v>
       </c>
       <c r="E4">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="F4">
-        <v>464</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8794,19 +8794,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C5">
-        <v>549</v>
+        <v>510</v>
       </c>
       <c r="D5">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="E5">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="F5">
-        <v>578</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8814,19 +8814,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>392</v>
+        <v>550</v>
       </c>
       <c r="C6">
-        <v>400</v>
+        <v>544</v>
       </c>
       <c r="D6">
-        <v>402</v>
+        <v>557</v>
       </c>
       <c r="E6">
-        <v>387</v>
+        <v>544</v>
       </c>
       <c r="F6">
-        <v>420</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8834,19 +8834,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>349</v>
+        <v>474</v>
       </c>
       <c r="C7">
-        <v>358</v>
+        <v>456</v>
       </c>
       <c r="D7">
-        <v>361</v>
+        <v>478</v>
       </c>
       <c r="E7">
-        <v>345</v>
+        <v>472</v>
       </c>
       <c r="F7">
-        <v>379</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8854,19 +8854,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>311</v>
+        <v>505</v>
       </c>
       <c r="C8">
-        <v>313</v>
+        <v>470</v>
       </c>
       <c r="D8">
-        <v>319</v>
+        <v>497</v>
       </c>
       <c r="E8">
-        <v>308</v>
+        <v>500</v>
       </c>
       <c r="F8">
-        <v>332</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
